--- a/Code/Results/Cases/Case_3_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_59/res_bus/vm_pu.xlsx
@@ -421,13 +421,13 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9938864231120272</v>
+        <v>0.9938864231120274</v>
       </c>
       <c r="D2">
         <v>1.014270825411169</v>
       </c>
       <c r="E2">
-        <v>0.9987264300604868</v>
+        <v>0.9987264300604869</v>
       </c>
       <c r="F2">
         <v>1.009503829104766</v>
@@ -462,7 +462,7 @@
         <v>1.002633798649516</v>
       </c>
       <c r="D3">
-        <v>1.021264377516167</v>
+        <v>1.021264377516166</v>
       </c>
       <c r="E3">
         <v>1.006312871257668</v>
@@ -474,19 +474,19 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046702540976905</v>
+        <v>1.046702540976904</v>
       </c>
       <c r="J3">
         <v>1.023052920264511</v>
       </c>
       <c r="K3">
-        <v>1.031632218407375</v>
+        <v>1.031632218407374</v>
       </c>
       <c r="L3">
         <v>1.01686560995594</v>
       </c>
       <c r="M3">
-        <v>1.028663814283323</v>
+        <v>1.028663814283322</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008085824600508</v>
+        <v>1.00808582460051</v>
       </c>
       <c r="D4">
-        <v>1.02562614883249</v>
+        <v>1.025626148832492</v>
       </c>
       <c r="E4">
-        <v>1.011041431148676</v>
+        <v>1.011041431148678</v>
       </c>
       <c r="F4">
-        <v>1.023726400359068</v>
+        <v>1.02372640035907</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048900587163277</v>
+        <v>1.048900587163278</v>
       </c>
       <c r="J4">
-        <v>1.027284931582568</v>
+        <v>1.027284931582571</v>
       </c>
       <c r="K4">
-        <v>1.035424822150735</v>
+        <v>1.035424822150737</v>
       </c>
       <c r="L4">
-        <v>1.021008397593237</v>
+        <v>1.021008397593238</v>
       </c>
       <c r="M4">
-        <v>1.033546659807488</v>
+        <v>1.033546659807489</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010331396242432</v>
+        <v>1.010331396242434</v>
       </c>
       <c r="D5">
-        <v>1.027423225070529</v>
+        <v>1.027423225070531</v>
       </c>
       <c r="E5">
-        <v>1.01298895745574</v>
+        <v>1.012988957455742</v>
       </c>
       <c r="F5">
-        <v>1.025980466216896</v>
+        <v>1.025980466216897</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049802238090617</v>
+        <v>1.049802238090618</v>
       </c>
       <c r="J5">
-        <v>1.029026231611558</v>
+        <v>1.029026231611559</v>
       </c>
       <c r="K5">
-        <v>1.036984975215921</v>
+        <v>1.036984975215923</v>
       </c>
       <c r="L5">
-        <v>1.022712370712495</v>
+        <v>1.022712370712497</v>
       </c>
       <c r="M5">
-        <v>1.035558123645158</v>
+        <v>1.035558123645159</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -579,10 +579,10 @@
         <v>1.027722883951372</v>
       </c>
       <c r="E6">
-        <v>1.01331366554897</v>
+        <v>1.013313665548971</v>
       </c>
       <c r="F6">
-        <v>1.026356424226995</v>
+        <v>1.026356424226996</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.00811600841464</v>
+        <v>1.008116008414641</v>
       </c>
       <c r="D7">
-        <v>1.025650302158761</v>
+        <v>1.025650302158763</v>
       </c>
       <c r="E7">
-        <v>1.011067609166969</v>
+        <v>1.01106760916697</v>
       </c>
       <c r="F7">
-        <v>1.023756689298079</v>
+        <v>1.023756689298081</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048912721347423</v>
+        <v>1.048912721347424</v>
       </c>
       <c r="J7">
-        <v>1.027308344352004</v>
+        <v>1.027308344352005</v>
       </c>
       <c r="K7">
-        <v>1.035445800712222</v>
+        <v>1.035445800712224</v>
       </c>
       <c r="L7">
-        <v>1.021031310925763</v>
+        <v>1.021031310925764</v>
       </c>
       <c r="M7">
-        <v>1.033573695671224</v>
+        <v>1.033573695671225</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,7 +649,7 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9968878722440112</v>
+        <v>0.996887872244011</v>
       </c>
       <c r="D8">
         <v>1.016669801916984</v>
@@ -667,7 +667,7 @@
         <v>1.044373293692085</v>
       </c>
       <c r="J8">
-        <v>1.018586737488636</v>
+        <v>1.018586737488635</v>
       </c>
       <c r="K8">
         <v>1.027628606992991</v>
@@ -676,7 +676,7 @@
         <v>1.012491440636286</v>
       </c>
       <c r="M8">
-        <v>1.023519108998232</v>
+        <v>1.023519108998231</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,13 +687,13 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9753354167452786</v>
+        <v>0.9753354167452785</v>
       </c>
       <c r="D9">
-        <v>0.999462309594372</v>
+        <v>0.9994623095943721</v>
       </c>
       <c r="E9">
-        <v>0.9826430627041078</v>
+        <v>0.9826430627041082</v>
       </c>
       <c r="F9">
         <v>0.9909963617970866</v>
@@ -702,16 +702,16 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035538986076045</v>
+        <v>1.035538986076046</v>
       </c>
       <c r="J9">
         <v>1.001790252107807</v>
       </c>
       <c r="K9">
-        <v>1.01256411647814</v>
+        <v>1.012564116478141</v>
       </c>
       <c r="L9">
-        <v>0.9960241645117651</v>
+        <v>0.9960241645117653</v>
       </c>
       <c r="M9">
         <v>1.004237225590978</v>
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9594939043140144</v>
+        <v>0.9594939043140136</v>
       </c>
       <c r="D10">
-        <v>0.9868470411608854</v>
+        <v>0.9868470411608841</v>
       </c>
       <c r="E10">
-        <v>0.9689208983750973</v>
+        <v>0.9689208983750963</v>
       </c>
       <c r="F10">
-        <v>0.9752529412075849</v>
+        <v>0.9752529412075834</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.028967955643624</v>
       </c>
       <c r="J10">
-        <v>0.9894121920934487</v>
+        <v>0.9894121920934479</v>
       </c>
       <c r="K10">
-        <v>1.001457907815827</v>
+        <v>1.001457907815825</v>
       </c>
       <c r="L10">
-        <v>0.9838749221685339</v>
+        <v>0.9838749221685329</v>
       </c>
       <c r="M10">
-        <v>0.9900838642267076</v>
+        <v>0.9900838642267064</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,19 +760,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C11">
-        <v>0.9522050946633637</v>
+        <v>0.9522050946633647</v>
       </c>
       <c r="D11">
-        <v>0.9810535713181431</v>
+        <v>0.981053571318144</v>
       </c>
       <c r="E11">
-        <v>0.9626126352591038</v>
+        <v>0.9626126352591048</v>
       </c>
       <c r="F11">
-        <v>0.968027114697524</v>
+        <v>0.9680271146975247</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.025927526972237</v>
       </c>
       <c r="J11">
-        <v>0.9837108301445578</v>
+        <v>0.9837108301445588</v>
       </c>
       <c r="K11">
-        <v>0.9963418584715186</v>
+        <v>0.9963418584715196</v>
       </c>
       <c r="L11">
-        <v>0.9782758283585703</v>
+        <v>0.9782758283585713</v>
       </c>
       <c r="M11">
-        <v>0.9835782765128531</v>
+        <v>0.9835782765128537</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9494248340366002</v>
+        <v>0.9494248340365977</v>
       </c>
       <c r="D12">
-        <v>0.9788456576383092</v>
+        <v>0.9788456576383071</v>
       </c>
       <c r="E12">
-        <v>0.9602074574704061</v>
+        <v>0.9602074574704036</v>
       </c>
       <c r="F12">
-        <v>0.9652737657647501</v>
+        <v>0.965273765764748</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024765362965619</v>
+        <v>1.024765362965617</v>
       </c>
       <c r="J12">
-        <v>0.9815353321103212</v>
+        <v>0.9815353321103187</v>
       </c>
       <c r="K12">
-        <v>0.9943896822204648</v>
+        <v>0.9943896822204628</v>
       </c>
       <c r="L12">
-        <v>0.9761389019122514</v>
+        <v>0.9761389019122489</v>
       </c>
       <c r="M12">
-        <v>0.9810979413618044</v>
+        <v>0.9810979413618023</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9500246588101348</v>
+        <v>0.9500246588101336</v>
       </c>
       <c r="D13">
-        <v>0.9793219078662232</v>
+        <v>0.979321907866222</v>
       </c>
       <c r="E13">
-        <v>0.960726308099391</v>
+        <v>0.9607263080993901</v>
       </c>
       <c r="F13">
-        <v>0.9658676507013731</v>
+        <v>0.965867650701372</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025016199290901</v>
+        <v>1.0250161992909</v>
       </c>
       <c r="J13">
-        <v>0.98200471417434</v>
+        <v>0.982004714174339</v>
       </c>
       <c r="K13">
-        <v>0.9948108805806918</v>
+        <v>0.9948108805806907</v>
       </c>
       <c r="L13">
-        <v>0.9765999818299481</v>
+        <v>0.9765999818299471</v>
       </c>
       <c r="M13">
-        <v>0.9816330026791805</v>
+        <v>0.9816330026791795</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9519768180997441</v>
+        <v>0.9519768180997444</v>
       </c>
       <c r="D14">
-        <v>0.9808722462922878</v>
+        <v>0.980872246292288</v>
       </c>
       <c r="E14">
-        <v>0.9624151322868467</v>
+        <v>0.9624151322868473</v>
       </c>
       <c r="F14">
-        <v>0.9678009880588737</v>
+        <v>0.9678009880588735</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025832154076563</v>
+        <v>1.025832154076564</v>
       </c>
       <c r="J14">
         <v>0.9835322226117608</v>
       </c>
       <c r="K14">
-        <v>0.9961815855977675</v>
+        <v>0.9961815855977674</v>
       </c>
       <c r="L14">
-        <v>0.9781003965439468</v>
+        <v>0.9781003965439472</v>
       </c>
       <c r="M14">
-        <v>0.9833746007456249</v>
+        <v>0.9833746007456247</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9531696743363239</v>
+        <v>0.9531696743363232</v>
       </c>
       <c r="D15">
-        <v>0.9818198393436538</v>
+        <v>0.9818198393436536</v>
       </c>
       <c r="E15">
-        <v>0.9634472260681781</v>
+        <v>0.9634472260681773</v>
       </c>
       <c r="F15">
-        <v>0.9689827281532634</v>
+        <v>0.968982728153263</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.026330426969764</v>
       </c>
       <c r="J15">
-        <v>0.9844655043255855</v>
+        <v>0.9844655043255849</v>
       </c>
       <c r="K15">
-        <v>0.9970190624201639</v>
+        <v>0.9970190624201636</v>
       </c>
       <c r="L15">
-        <v>0.9790170659484337</v>
+        <v>0.9790170659484332</v>
       </c>
       <c r="M15">
-        <v>0.9844389545422053</v>
+        <v>0.9844389545422049</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -956,13 +956,13 @@
         <v>0.9599679134587323</v>
       </c>
       <c r="D16">
-        <v>0.9872240546707509</v>
+        <v>0.987224054670751</v>
       </c>
       <c r="E16">
-        <v>0.9693312711429921</v>
+        <v>0.9693312711429922</v>
       </c>
       <c r="F16">
-        <v>0.9757232375847517</v>
+        <v>0.9757232375847518</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.029165343528707</v>
       </c>
       <c r="J16">
-        <v>0.9897828528364189</v>
+        <v>0.9897828528364188</v>
       </c>
       <c r="K16">
         <v>1.001790510019914</v>
       </c>
       <c r="L16">
-        <v>0.9842388713925978</v>
+        <v>0.9842388713925977</v>
       </c>
       <c r="M16">
-        <v>0.990507087537283</v>
+        <v>0.9905070875372833</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9641118840534985</v>
+        <v>0.9641118840535008</v>
       </c>
       <c r="D17">
-        <v>0.9905213056884763</v>
+        <v>0.9905213056884781</v>
       </c>
       <c r="E17">
-        <v>0.9729195385395254</v>
+        <v>0.9729195385395274</v>
       </c>
       <c r="F17">
-        <v>0.9798367664547296</v>
+        <v>0.9798367664547309</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030889093718763</v>
+        <v>1.030889093718764</v>
       </c>
       <c r="J17">
-        <v>0.9930226444718153</v>
+        <v>0.9930226444718173</v>
       </c>
       <c r="K17">
-        <v>1.004697597291868</v>
+        <v>1.00469759729187</v>
       </c>
       <c r="L17">
-        <v>0.987419652735382</v>
+        <v>0.987419652735384</v>
       </c>
       <c r="M17">
-        <v>0.9942078143069368</v>
+        <v>0.9942078143069382</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9664882075696829</v>
+        <v>0.9664882075696817</v>
       </c>
       <c r="D18">
-        <v>0.9924130779053902</v>
+        <v>0.992413077905389</v>
       </c>
       <c r="E18">
-        <v>0.9749776849871231</v>
+        <v>0.9749776849871215</v>
       </c>
       <c r="F18">
-        <v>0.98219727880455</v>
+        <v>0.9821972788045491</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031875967804789</v>
+        <v>1.031875967804788</v>
       </c>
       <c r="J18">
-        <v>0.9948798942462621</v>
+        <v>0.9948798942462607</v>
       </c>
       <c r="K18">
-        <v>1.006364069335928</v>
+        <v>1.006364069335927</v>
       </c>
       <c r="L18">
-        <v>0.9892427822409697</v>
+        <v>0.9892427822409682</v>
       </c>
       <c r="M18">
-        <v>0.9963305530304292</v>
+        <v>0.9963305530304283</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.967291784444034</v>
+        <v>0.9672917844440353</v>
       </c>
       <c r="D19">
-        <v>0.9930529588402837</v>
+        <v>0.9930529588402847</v>
       </c>
       <c r="E19">
-        <v>0.97567374308442</v>
+        <v>0.9756737430844209</v>
       </c>
       <c r="F19">
-        <v>0.9829957826037733</v>
+        <v>0.9829957826037744</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.032209414358383</v>
       </c>
       <c r="J19">
-        <v>0.9955078385628702</v>
+        <v>0.9955078385628713</v>
       </c>
       <c r="K19">
-        <v>1.006927500685783</v>
+        <v>1.006927500685784</v>
       </c>
       <c r="L19">
-        <v>0.9898591403701037</v>
+        <v>0.9898591403701047</v>
       </c>
       <c r="M19">
-        <v>0.9970484725070993</v>
+        <v>0.9970484725071003</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.963671549336129</v>
+        <v>0.9636715493361278</v>
       </c>
       <c r="D20">
-        <v>0.9901708372277584</v>
+        <v>0.9901708372277569</v>
       </c>
       <c r="E20">
-        <v>0.9725382001603782</v>
+        <v>0.9725382001603767</v>
       </c>
       <c r="F20">
-        <v>0.9793994938113723</v>
+        <v>0.9793994938113704</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030706094665616</v>
+        <v>1.030706094665615</v>
       </c>
       <c r="J20">
-        <v>0.9926784463909807</v>
+        <v>0.992678446390979</v>
       </c>
       <c r="K20">
-        <v>1.004388750920499</v>
+        <v>1.004388750920497</v>
       </c>
       <c r="L20">
-        <v>0.9870817542374593</v>
+        <v>0.9870817542374579</v>
       </c>
       <c r="M20">
-        <v>0.9938145156475412</v>
+        <v>0.9938145156475392</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9514040426620444</v>
+        <v>0.9514040426620451</v>
       </c>
       <c r="D21">
-        <v>0.9804173109863812</v>
+        <v>0.9804173109863817</v>
       </c>
       <c r="E21">
-        <v>0.961919589711579</v>
+        <v>0.9619195897115793</v>
       </c>
       <c r="F21">
-        <v>0.9672336541503389</v>
+        <v>0.9672336541503398</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.025592812907367</v>
       </c>
       <c r="J21">
-        <v>0.9830840616477231</v>
+        <v>0.9830840616477238</v>
       </c>
       <c r="K21">
-        <v>0.9957794297549761</v>
+        <v>0.9957794297549768</v>
       </c>
       <c r="L21">
-        <v>0.9776601969011217</v>
+        <v>0.9776601969011222</v>
       </c>
       <c r="M21">
-        <v>0.9828635714142345</v>
+        <v>0.9828635714142352</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9432639639977204</v>
+        <v>0.9432639639977179</v>
       </c>
       <c r="D22">
-        <v>0.9739571053121802</v>
+        <v>0.9739571053121776</v>
       </c>
       <c r="E22">
-        <v>0.9548800254639851</v>
+        <v>0.9548800254639825</v>
       </c>
       <c r="F22">
-        <v>0.9591781365285116</v>
+        <v>0.9591781365285095</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.022185795687183</v>
+        <v>1.022185795687181</v>
       </c>
       <c r="J22">
-        <v>0.9767133791539249</v>
+        <v>0.9767133791539224</v>
       </c>
       <c r="K22">
-        <v>0.9900627537811815</v>
+        <v>0.990062753781179</v>
       </c>
       <c r="L22">
-        <v>0.9714016313665097</v>
+        <v>0.9714016313665074</v>
       </c>
       <c r="M22">
-        <v>0.975604104867749</v>
+        <v>0.9756041048677465</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9476228834108952</v>
+        <v>0.9476228834108953</v>
       </c>
       <c r="D23">
-        <v>0.9774152560311672</v>
+        <v>0.9774152560311674</v>
       </c>
       <c r="E23">
-        <v>0.958648940688226</v>
+        <v>0.9586489406882264</v>
       </c>
       <c r="F23">
-        <v>0.9634901003233279</v>
+        <v>0.9634901003233282</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.024011476740998</v>
       </c>
       <c r="J23">
-        <v>0.9801251511919342</v>
+        <v>0.9801251511919346</v>
       </c>
       <c r="K23">
-        <v>0.9931242633589551</v>
+        <v>0.9931242633589553</v>
       </c>
       <c r="L23">
-        <v>0.9747535989376435</v>
+        <v>0.9747535989376438</v>
       </c>
       <c r="M23">
-        <v>0.9794907373263541</v>
+        <v>0.9794907373263542</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1266,7 +1266,7 @@
         <v>0.9727106176830859</v>
       </c>
       <c r="F24">
-        <v>0.9795971979415248</v>
+        <v>0.9795971979415246</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.030788841161019</v>
       </c>
       <c r="J24">
-        <v>0.9928340745455505</v>
+        <v>0.9928340745455503</v>
       </c>
       <c r="K24">
         <v>1.004528395065705</v>
       </c>
       <c r="L24">
-        <v>0.987234534963857</v>
+        <v>0.9872345349638569</v>
       </c>
       <c r="M24">
-        <v>0.9939923405874743</v>
+        <v>0.9939923405874738</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9811433408273853</v>
+        <v>0.9811433408273849</v>
       </c>
       <c r="D25">
-        <v>1.004094777082991</v>
+        <v>1.00409477708299</v>
       </c>
       <c r="E25">
-        <v>0.9876771729986044</v>
+        <v>0.9876771729986037</v>
       </c>
       <c r="F25">
-        <v>0.9967821103592915</v>
+        <v>0.9967821103592917</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1316,10 +1316,10 @@
         <v>1.006322408614192</v>
       </c>
       <c r="K25">
-        <v>1.016629857747079</v>
+        <v>1.016629857747078</v>
       </c>
       <c r="L25">
-        <v>1.00046984531254</v>
+        <v>1.000469845312539</v>
       </c>
       <c r="M25">
         <v>1.009430586156595</v>

--- a/Code/Results/Cases/Case_3_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_59/res_bus/vm_pu.xlsx
@@ -421,13 +421,13 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9938864231120274</v>
+        <v>0.9938864231120272</v>
       </c>
       <c r="D2">
         <v>1.014270825411169</v>
       </c>
       <c r="E2">
-        <v>0.9987264300604869</v>
+        <v>0.9987264300604868</v>
       </c>
       <c r="F2">
         <v>1.009503829104766</v>
@@ -462,7 +462,7 @@
         <v>1.002633798649516</v>
       </c>
       <c r="D3">
-        <v>1.021264377516166</v>
+        <v>1.021264377516167</v>
       </c>
       <c r="E3">
         <v>1.006312871257668</v>
@@ -474,19 +474,19 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046702540976904</v>
+        <v>1.046702540976905</v>
       </c>
       <c r="J3">
         <v>1.023052920264511</v>
       </c>
       <c r="K3">
-        <v>1.031632218407374</v>
+        <v>1.031632218407375</v>
       </c>
       <c r="L3">
         <v>1.01686560995594</v>
       </c>
       <c r="M3">
-        <v>1.028663814283322</v>
+        <v>1.028663814283323</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00808582460051</v>
+        <v>1.008085824600508</v>
       </c>
       <c r="D4">
-        <v>1.025626148832492</v>
+        <v>1.02562614883249</v>
       </c>
       <c r="E4">
-        <v>1.011041431148678</v>
+        <v>1.011041431148676</v>
       </c>
       <c r="F4">
-        <v>1.02372640035907</v>
+        <v>1.023726400359068</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048900587163278</v>
+        <v>1.048900587163277</v>
       </c>
       <c r="J4">
-        <v>1.027284931582571</v>
+        <v>1.027284931582568</v>
       </c>
       <c r="K4">
-        <v>1.035424822150737</v>
+        <v>1.035424822150735</v>
       </c>
       <c r="L4">
-        <v>1.021008397593238</v>
+        <v>1.021008397593237</v>
       </c>
       <c r="M4">
-        <v>1.033546659807489</v>
+        <v>1.033546659807488</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010331396242434</v>
+        <v>1.010331396242432</v>
       </c>
       <c r="D5">
-        <v>1.027423225070531</v>
+        <v>1.027423225070529</v>
       </c>
       <c r="E5">
-        <v>1.012988957455742</v>
+        <v>1.01298895745574</v>
       </c>
       <c r="F5">
-        <v>1.025980466216897</v>
+        <v>1.025980466216896</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049802238090618</v>
+        <v>1.049802238090617</v>
       </c>
       <c r="J5">
-        <v>1.029026231611559</v>
+        <v>1.029026231611558</v>
       </c>
       <c r="K5">
-        <v>1.036984975215923</v>
+        <v>1.036984975215921</v>
       </c>
       <c r="L5">
-        <v>1.022712370712497</v>
+        <v>1.022712370712495</v>
       </c>
       <c r="M5">
-        <v>1.035558123645159</v>
+        <v>1.035558123645158</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -579,10 +579,10 @@
         <v>1.027722883951372</v>
       </c>
       <c r="E6">
-        <v>1.013313665548971</v>
+        <v>1.01331366554897</v>
       </c>
       <c r="F6">
-        <v>1.026356424226996</v>
+        <v>1.026356424226995</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.008116008414641</v>
+        <v>1.00811600841464</v>
       </c>
       <c r="D7">
-        <v>1.025650302158763</v>
+        <v>1.025650302158761</v>
       </c>
       <c r="E7">
-        <v>1.01106760916697</v>
+        <v>1.011067609166969</v>
       </c>
       <c r="F7">
-        <v>1.023756689298081</v>
+        <v>1.023756689298079</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048912721347424</v>
+        <v>1.048912721347423</v>
       </c>
       <c r="J7">
-        <v>1.027308344352005</v>
+        <v>1.027308344352004</v>
       </c>
       <c r="K7">
-        <v>1.035445800712224</v>
+        <v>1.035445800712222</v>
       </c>
       <c r="L7">
-        <v>1.021031310925764</v>
+        <v>1.021031310925763</v>
       </c>
       <c r="M7">
-        <v>1.033573695671225</v>
+        <v>1.033573695671224</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,7 +649,7 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.996887872244011</v>
+        <v>0.9968878722440112</v>
       </c>
       <c r="D8">
         <v>1.016669801916984</v>
@@ -667,7 +667,7 @@
         <v>1.044373293692085</v>
       </c>
       <c r="J8">
-        <v>1.018586737488635</v>
+        <v>1.018586737488636</v>
       </c>
       <c r="K8">
         <v>1.027628606992991</v>
@@ -676,7 +676,7 @@
         <v>1.012491440636286</v>
       </c>
       <c r="M8">
-        <v>1.023519108998231</v>
+        <v>1.023519108998232</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,13 +687,13 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9753354167452785</v>
+        <v>0.9753354167452786</v>
       </c>
       <c r="D9">
-        <v>0.9994623095943721</v>
+        <v>0.999462309594372</v>
       </c>
       <c r="E9">
-        <v>0.9826430627041082</v>
+        <v>0.9826430627041078</v>
       </c>
       <c r="F9">
         <v>0.9909963617970866</v>
@@ -702,16 +702,16 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035538986076046</v>
+        <v>1.035538986076045</v>
       </c>
       <c r="J9">
         <v>1.001790252107807</v>
       </c>
       <c r="K9">
-        <v>1.012564116478141</v>
+        <v>1.01256411647814</v>
       </c>
       <c r="L9">
-        <v>0.9960241645117653</v>
+        <v>0.9960241645117651</v>
       </c>
       <c r="M9">
         <v>1.004237225590978</v>
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9594939043140136</v>
+        <v>0.9594939043140144</v>
       </c>
       <c r="D10">
-        <v>0.9868470411608841</v>
+        <v>0.9868470411608854</v>
       </c>
       <c r="E10">
-        <v>0.9689208983750963</v>
+        <v>0.9689208983750973</v>
       </c>
       <c r="F10">
-        <v>0.9752529412075834</v>
+        <v>0.9752529412075849</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.028967955643624</v>
       </c>
       <c r="J10">
-        <v>0.9894121920934479</v>
+        <v>0.9894121920934487</v>
       </c>
       <c r="K10">
-        <v>1.001457907815825</v>
+        <v>1.001457907815827</v>
       </c>
       <c r="L10">
-        <v>0.9838749221685329</v>
+        <v>0.9838749221685339</v>
       </c>
       <c r="M10">
-        <v>0.9900838642267064</v>
+        <v>0.9900838642267076</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,19 +760,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9522050946633647</v>
+        <v>0.9522050946633637</v>
       </c>
       <c r="D11">
-        <v>0.981053571318144</v>
+        <v>0.9810535713181431</v>
       </c>
       <c r="E11">
-        <v>0.9626126352591048</v>
+        <v>0.9626126352591038</v>
       </c>
       <c r="F11">
-        <v>0.9680271146975247</v>
+        <v>0.968027114697524</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.025927526972237</v>
       </c>
       <c r="J11">
-        <v>0.9837108301445588</v>
+        <v>0.9837108301445578</v>
       </c>
       <c r="K11">
-        <v>0.9963418584715196</v>
+        <v>0.9963418584715186</v>
       </c>
       <c r="L11">
-        <v>0.9782758283585713</v>
+        <v>0.9782758283585703</v>
       </c>
       <c r="M11">
-        <v>0.9835782765128537</v>
+        <v>0.9835782765128531</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9494248340365977</v>
+        <v>0.9494248340366002</v>
       </c>
       <c r="D12">
-        <v>0.9788456576383071</v>
+        <v>0.9788456576383092</v>
       </c>
       <c r="E12">
-        <v>0.9602074574704036</v>
+        <v>0.9602074574704061</v>
       </c>
       <c r="F12">
-        <v>0.965273765764748</v>
+        <v>0.9652737657647501</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024765362965617</v>
+        <v>1.024765362965619</v>
       </c>
       <c r="J12">
-        <v>0.9815353321103187</v>
+        <v>0.9815353321103212</v>
       </c>
       <c r="K12">
-        <v>0.9943896822204628</v>
+        <v>0.9943896822204648</v>
       </c>
       <c r="L12">
-        <v>0.9761389019122489</v>
+        <v>0.9761389019122514</v>
       </c>
       <c r="M12">
-        <v>0.9810979413618023</v>
+        <v>0.9810979413618044</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9500246588101336</v>
+        <v>0.9500246588101348</v>
       </c>
       <c r="D13">
-        <v>0.979321907866222</v>
+        <v>0.9793219078662232</v>
       </c>
       <c r="E13">
-        <v>0.9607263080993901</v>
+        <v>0.960726308099391</v>
       </c>
       <c r="F13">
-        <v>0.965867650701372</v>
+        <v>0.9658676507013731</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.0250161992909</v>
+        <v>1.025016199290901</v>
       </c>
       <c r="J13">
-        <v>0.982004714174339</v>
+        <v>0.98200471417434</v>
       </c>
       <c r="K13">
-        <v>0.9948108805806907</v>
+        <v>0.9948108805806918</v>
       </c>
       <c r="L13">
-        <v>0.9765999818299471</v>
+        <v>0.9765999818299481</v>
       </c>
       <c r="M13">
-        <v>0.9816330026791795</v>
+        <v>0.9816330026791805</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9519768180997444</v>
+        <v>0.9519768180997441</v>
       </c>
       <c r="D14">
-        <v>0.980872246292288</v>
+        <v>0.9808722462922878</v>
       </c>
       <c r="E14">
-        <v>0.9624151322868473</v>
+        <v>0.9624151322868467</v>
       </c>
       <c r="F14">
-        <v>0.9678009880588735</v>
+        <v>0.9678009880588737</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025832154076564</v>
+        <v>1.025832154076563</v>
       </c>
       <c r="J14">
         <v>0.9835322226117608</v>
       </c>
       <c r="K14">
-        <v>0.9961815855977674</v>
+        <v>0.9961815855977675</v>
       </c>
       <c r="L14">
-        <v>0.9781003965439472</v>
+        <v>0.9781003965439468</v>
       </c>
       <c r="M14">
-        <v>0.9833746007456247</v>
+        <v>0.9833746007456249</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9531696743363232</v>
+        <v>0.9531696743363239</v>
       </c>
       <c r="D15">
-        <v>0.9818198393436536</v>
+        <v>0.9818198393436538</v>
       </c>
       <c r="E15">
-        <v>0.9634472260681773</v>
+        <v>0.9634472260681781</v>
       </c>
       <c r="F15">
-        <v>0.968982728153263</v>
+        <v>0.9689827281532634</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.026330426969764</v>
       </c>
       <c r="J15">
-        <v>0.9844655043255849</v>
+        <v>0.9844655043255855</v>
       </c>
       <c r="K15">
-        <v>0.9970190624201636</v>
+        <v>0.9970190624201639</v>
       </c>
       <c r="L15">
-        <v>0.9790170659484332</v>
+        <v>0.9790170659484337</v>
       </c>
       <c r="M15">
-        <v>0.9844389545422049</v>
+        <v>0.9844389545422053</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -956,13 +956,13 @@
         <v>0.9599679134587323</v>
       </c>
       <c r="D16">
-        <v>0.987224054670751</v>
+        <v>0.9872240546707509</v>
       </c>
       <c r="E16">
-        <v>0.9693312711429922</v>
+        <v>0.9693312711429921</v>
       </c>
       <c r="F16">
-        <v>0.9757232375847518</v>
+        <v>0.9757232375847517</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.029165343528707</v>
       </c>
       <c r="J16">
-        <v>0.9897828528364188</v>
+        <v>0.9897828528364189</v>
       </c>
       <c r="K16">
         <v>1.001790510019914</v>
       </c>
       <c r="L16">
-        <v>0.9842388713925977</v>
+        <v>0.9842388713925978</v>
       </c>
       <c r="M16">
-        <v>0.9905070875372833</v>
+        <v>0.990507087537283</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9641118840535008</v>
+        <v>0.9641118840534985</v>
       </c>
       <c r="D17">
-        <v>0.9905213056884781</v>
+        <v>0.9905213056884763</v>
       </c>
       <c r="E17">
-        <v>0.9729195385395274</v>
+        <v>0.9729195385395254</v>
       </c>
       <c r="F17">
-        <v>0.9798367664547309</v>
+        <v>0.9798367664547296</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030889093718764</v>
+        <v>1.030889093718763</v>
       </c>
       <c r="J17">
-        <v>0.9930226444718173</v>
+        <v>0.9930226444718153</v>
       </c>
       <c r="K17">
-        <v>1.00469759729187</v>
+        <v>1.004697597291868</v>
       </c>
       <c r="L17">
-        <v>0.987419652735384</v>
+        <v>0.987419652735382</v>
       </c>
       <c r="M17">
-        <v>0.9942078143069382</v>
+        <v>0.9942078143069368</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9664882075696817</v>
+        <v>0.9664882075696829</v>
       </c>
       <c r="D18">
-        <v>0.992413077905389</v>
+        <v>0.9924130779053902</v>
       </c>
       <c r="E18">
-        <v>0.9749776849871215</v>
+        <v>0.9749776849871231</v>
       </c>
       <c r="F18">
-        <v>0.9821972788045491</v>
+        <v>0.98219727880455</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031875967804788</v>
+        <v>1.031875967804789</v>
       </c>
       <c r="J18">
-        <v>0.9948798942462607</v>
+        <v>0.9948798942462621</v>
       </c>
       <c r="K18">
-        <v>1.006364069335927</v>
+        <v>1.006364069335928</v>
       </c>
       <c r="L18">
-        <v>0.9892427822409682</v>
+        <v>0.9892427822409697</v>
       </c>
       <c r="M18">
-        <v>0.9963305530304283</v>
+        <v>0.9963305530304292</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9672917844440353</v>
+        <v>0.967291784444034</v>
       </c>
       <c r="D19">
-        <v>0.9930529588402847</v>
+        <v>0.9930529588402837</v>
       </c>
       <c r="E19">
-        <v>0.9756737430844209</v>
+        <v>0.97567374308442</v>
       </c>
       <c r="F19">
-        <v>0.9829957826037744</v>
+        <v>0.9829957826037733</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.032209414358383</v>
       </c>
       <c r="J19">
-        <v>0.9955078385628713</v>
+        <v>0.9955078385628702</v>
       </c>
       <c r="K19">
-        <v>1.006927500685784</v>
+        <v>1.006927500685783</v>
       </c>
       <c r="L19">
-        <v>0.9898591403701047</v>
+        <v>0.9898591403701037</v>
       </c>
       <c r="M19">
-        <v>0.9970484725071003</v>
+        <v>0.9970484725070993</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9636715493361278</v>
+        <v>0.963671549336129</v>
       </c>
       <c r="D20">
-        <v>0.9901708372277569</v>
+        <v>0.9901708372277584</v>
       </c>
       <c r="E20">
-        <v>0.9725382001603767</v>
+        <v>0.9725382001603782</v>
       </c>
       <c r="F20">
-        <v>0.9793994938113704</v>
+        <v>0.9793994938113723</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030706094665615</v>
+        <v>1.030706094665616</v>
       </c>
       <c r="J20">
-        <v>0.992678446390979</v>
+        <v>0.9926784463909807</v>
       </c>
       <c r="K20">
-        <v>1.004388750920497</v>
+        <v>1.004388750920499</v>
       </c>
       <c r="L20">
-        <v>0.9870817542374579</v>
+        <v>0.9870817542374593</v>
       </c>
       <c r="M20">
-        <v>0.9938145156475392</v>
+        <v>0.9938145156475412</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9514040426620451</v>
+        <v>0.9514040426620444</v>
       </c>
       <c r="D21">
-        <v>0.9804173109863817</v>
+        <v>0.9804173109863812</v>
       </c>
       <c r="E21">
-        <v>0.9619195897115793</v>
+        <v>0.961919589711579</v>
       </c>
       <c r="F21">
-        <v>0.9672336541503398</v>
+        <v>0.9672336541503389</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.025592812907367</v>
       </c>
       <c r="J21">
-        <v>0.9830840616477238</v>
+        <v>0.9830840616477231</v>
       </c>
       <c r="K21">
-        <v>0.9957794297549768</v>
+        <v>0.9957794297549761</v>
       </c>
       <c r="L21">
-        <v>0.9776601969011222</v>
+        <v>0.9776601969011217</v>
       </c>
       <c r="M21">
-        <v>0.9828635714142352</v>
+        <v>0.9828635714142345</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9432639639977179</v>
+        <v>0.9432639639977204</v>
       </c>
       <c r="D22">
-        <v>0.9739571053121776</v>
+        <v>0.9739571053121802</v>
       </c>
       <c r="E22">
-        <v>0.9548800254639825</v>
+        <v>0.9548800254639851</v>
       </c>
       <c r="F22">
-        <v>0.9591781365285095</v>
+        <v>0.9591781365285116</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.022185795687181</v>
+        <v>1.022185795687183</v>
       </c>
       <c r="J22">
-        <v>0.9767133791539224</v>
+        <v>0.9767133791539249</v>
       </c>
       <c r="K22">
-        <v>0.990062753781179</v>
+        <v>0.9900627537811815</v>
       </c>
       <c r="L22">
-        <v>0.9714016313665074</v>
+        <v>0.9714016313665097</v>
       </c>
       <c r="M22">
-        <v>0.9756041048677465</v>
+        <v>0.975604104867749</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9476228834108953</v>
+        <v>0.9476228834108952</v>
       </c>
       <c r="D23">
-        <v>0.9774152560311674</v>
+        <v>0.9774152560311672</v>
       </c>
       <c r="E23">
-        <v>0.9586489406882264</v>
+        <v>0.958648940688226</v>
       </c>
       <c r="F23">
-        <v>0.9634901003233282</v>
+        <v>0.9634901003233279</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.024011476740998</v>
       </c>
       <c r="J23">
-        <v>0.9801251511919346</v>
+        <v>0.9801251511919342</v>
       </c>
       <c r="K23">
-        <v>0.9931242633589553</v>
+        <v>0.9931242633589551</v>
       </c>
       <c r="L23">
-        <v>0.9747535989376438</v>
+        <v>0.9747535989376435</v>
       </c>
       <c r="M23">
-        <v>0.9794907373263542</v>
+        <v>0.9794907373263541</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1266,7 +1266,7 @@
         <v>0.9727106176830859</v>
       </c>
       <c r="F24">
-        <v>0.9795971979415246</v>
+        <v>0.9795971979415248</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.030788841161019</v>
       </c>
       <c r="J24">
-        <v>0.9928340745455503</v>
+        <v>0.9928340745455505</v>
       </c>
       <c r="K24">
         <v>1.004528395065705</v>
       </c>
       <c r="L24">
-        <v>0.9872345349638569</v>
+        <v>0.987234534963857</v>
       </c>
       <c r="M24">
-        <v>0.9939923405874738</v>
+        <v>0.9939923405874743</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9811433408273849</v>
+        <v>0.9811433408273853</v>
       </c>
       <c r="D25">
-        <v>1.00409477708299</v>
+        <v>1.004094777082991</v>
       </c>
       <c r="E25">
-        <v>0.9876771729986037</v>
+        <v>0.9876771729986044</v>
       </c>
       <c r="F25">
-        <v>0.9967821103592917</v>
+        <v>0.9967821103592915</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1316,10 +1316,10 @@
         <v>1.006322408614192</v>
       </c>
       <c r="K25">
-        <v>1.016629857747078</v>
+        <v>1.016629857747079</v>
       </c>
       <c r="L25">
-        <v>1.000469845312539</v>
+        <v>1.00046984531254</v>
       </c>
       <c r="M25">
         <v>1.009430586156595</v>

--- a/Code/Results/Cases/Case_3_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_59/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9938864231120272</v>
+        <v>0.996448353714856</v>
       </c>
       <c r="D2">
-        <v>1.014270825411169</v>
+        <v>1.016356566265811</v>
       </c>
       <c r="E2">
-        <v>0.9987264300604868</v>
+        <v>1.000936930283392</v>
       </c>
       <c r="F2">
-        <v>1.009503829104766</v>
+        <v>1.011360445258017</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043151788548297</v>
+        <v>1.044354463104627</v>
       </c>
       <c r="J2">
-        <v>1.016251540586599</v>
+        <v>1.018735815342021</v>
       </c>
       <c r="K2">
-        <v>1.025534861650177</v>
+        <v>1.027592635895957</v>
       </c>
       <c r="L2">
-        <v>1.010203536296862</v>
+        <v>1.012383227593961</v>
       </c>
       <c r="M2">
-        <v>1.020832329499906</v>
+        <v>1.022663747728765</v>
+      </c>
+      <c r="N2">
+        <v>1.020182537050438</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.002633798649516</v>
+        <v>1.005173754923223</v>
       </c>
       <c r="D3">
-        <v>1.021264377516167</v>
+        <v>1.023334900954876</v>
       </c>
       <c r="E3">
-        <v>1.006312871257668</v>
+        <v>1.008506293902417</v>
       </c>
       <c r="F3">
-        <v>1.018259353924873</v>
+        <v>1.020093699168379</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046702540976905</v>
+        <v>1.047897652011542</v>
       </c>
       <c r="J3">
-        <v>1.023052920264511</v>
+        <v>1.025524364995096</v>
       </c>
       <c r="K3">
-        <v>1.031632218407375</v>
+        <v>1.033677665672422</v>
       </c>
       <c r="L3">
-        <v>1.01686560995594</v>
+        <v>1.019031479877353</v>
       </c>
       <c r="M3">
-        <v>1.028663814283323</v>
+        <v>1.030475774162549</v>
+      </c>
+      <c r="N3">
+        <v>1.026980727222678</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008085824600508</v>
+        <v>1.010613162631815</v>
       </c>
       <c r="D4">
-        <v>1.02562614883249</v>
+        <v>1.027687980357864</v>
       </c>
       <c r="E4">
-        <v>1.011041431148676</v>
+        <v>1.013225109243433</v>
       </c>
       <c r="F4">
-        <v>1.023726400359068</v>
+        <v>1.025547818806275</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048900587163277</v>
+        <v>1.050091456268529</v>
       </c>
       <c r="J4">
-        <v>1.027284931582568</v>
+        <v>1.029749224486485</v>
       </c>
       <c r="K4">
-        <v>1.035424822150735</v>
+        <v>1.037463337137738</v>
       </c>
       <c r="L4">
-        <v>1.021008397593237</v>
+        <v>1.02316649679943</v>
       </c>
       <c r="M4">
-        <v>1.033546659807488</v>
+        <v>1.035347380210469</v>
+      </c>
+      <c r="N4">
+        <v>1.031211586499142</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010331396242432</v>
+        <v>1.012853771615455</v>
       </c>
       <c r="D5">
-        <v>1.027423225070529</v>
+        <v>1.029481649721254</v>
       </c>
       <c r="E5">
-        <v>1.01298895745574</v>
+        <v>1.015168818465839</v>
       </c>
       <c r="F5">
-        <v>1.025980466216896</v>
+        <v>1.027796767750108</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049802238090617</v>
+        <v>1.050991463852242</v>
       </c>
       <c r="J5">
-        <v>1.029026231611558</v>
+        <v>1.031487763513215</v>
       </c>
       <c r="K5">
-        <v>1.036984975215921</v>
+        <v>1.039020799292254</v>
       </c>
       <c r="L5">
-        <v>1.022712370712495</v>
+        <v>1.02486745412068</v>
       </c>
       <c r="M5">
-        <v>1.035558123645158</v>
+        <v>1.037354408305267</v>
+      </c>
+      <c r="N5">
+        <v>1.032952594450704</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010705804342938</v>
+        <v>1.013227365442676</v>
       </c>
       <c r="D6">
-        <v>1.027722883951372</v>
+        <v>1.029780750301756</v>
       </c>
       <c r="E6">
-        <v>1.01331366554897</v>
+        <v>1.015492901176989</v>
       </c>
       <c r="F6">
-        <v>1.026356424226995</v>
+        <v>1.028171884235959</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049952353776581</v>
+        <v>1.051141311397255</v>
       </c>
       <c r="J6">
-        <v>1.029316455458737</v>
+        <v>1.031777537401413</v>
       </c>
       <c r="K6">
-        <v>1.037244985910291</v>
+        <v>1.039280370576556</v>
       </c>
       <c r="L6">
-        <v>1.022996336940371</v>
+        <v>1.02515092792274</v>
       </c>
       <c r="M6">
-        <v>1.035893515603804</v>
+        <v>1.037689071552607</v>
+      </c>
+      <c r="N6">
+        <v>1.033242779851061</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.00811600841464</v>
+        <v>1.010643278840286</v>
       </c>
       <c r="D7">
-        <v>1.025650302158761</v>
+        <v>1.027712087225264</v>
       </c>
       <c r="E7">
-        <v>1.011067609166969</v>
+        <v>1.013251235199255</v>
       </c>
       <c r="F7">
-        <v>1.023756689298079</v>
+        <v>1.025578038170814</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048912721347423</v>
+        <v>1.05010356796378</v>
       </c>
       <c r="J7">
-        <v>1.027308344352004</v>
+        <v>1.029772599433938</v>
       </c>
       <c r="K7">
-        <v>1.035445800712222</v>
+        <v>1.037484278897273</v>
       </c>
       <c r="L7">
-        <v>1.021031310925763</v>
+        <v>1.023189368884277</v>
       </c>
       <c r="M7">
-        <v>1.033573695671224</v>
+        <v>1.035374355707987</v>
+      </c>
+      <c r="N7">
+        <v>1.031234994641702</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9968878722440112</v>
+        <v>0.9994420181992495</v>
       </c>
       <c r="D8">
-        <v>1.016669801916984</v>
+        <v>1.018750141748171</v>
       </c>
       <c r="E8">
-        <v>1.001329447496928</v>
+        <v>1.003533884275466</v>
       </c>
       <c r="F8">
-        <v>1.012505914996944</v>
+        <v>1.014354672648314</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044373293692085</v>
+        <v>1.045573266506567</v>
       </c>
       <c r="J8">
-        <v>1.018586737488636</v>
+        <v>1.021066418712246</v>
       </c>
       <c r="K8">
-        <v>1.027628606992991</v>
+        <v>1.029681981725551</v>
       </c>
       <c r="L8">
-        <v>1.012491440636286</v>
+        <v>1.014666198694342</v>
       </c>
       <c r="M8">
-        <v>1.023519108998232</v>
+        <v>1.025343649025633</v>
+      </c>
+      <c r="N8">
+        <v>1.022516450144772</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9753354167452786</v>
+        <v>0.977951450676145</v>
       </c>
       <c r="D9">
-        <v>0.999462309594372</v>
+        <v>1.00158580338599</v>
       </c>
       <c r="E9">
-        <v>0.9826430627041078</v>
+        <v>0.9848959958961052</v>
       </c>
       <c r="F9">
-        <v>0.9909963617970866</v>
+        <v>0.9929068646055735</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035538986076045</v>
+        <v>1.036760928720078</v>
       </c>
       <c r="J9">
-        <v>1.001790252107807</v>
+        <v>1.004307567337479</v>
       </c>
       <c r="K9">
-        <v>1.01256411647814</v>
+        <v>1.014653204325922</v>
       </c>
       <c r="L9">
-        <v>0.9960241645117651</v>
+        <v>0.9982389724889658</v>
       </c>
       <c r="M9">
-        <v>1.004237225590978</v>
+        <v>1.006116080927035</v>
+      </c>
+      <c r="N9">
+        <v>1.005733799278786</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9594939043140144</v>
+        <v>0.9621650379544172</v>
       </c>
       <c r="D10">
-        <v>0.9868470411608854</v>
+        <v>0.989009227638984</v>
       </c>
       <c r="E10">
-        <v>0.9689208983750973</v>
+        <v>0.9712173802615656</v>
       </c>
       <c r="F10">
-        <v>0.9752529412075849</v>
+        <v>0.9772173773495252</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028967955643624</v>
+        <v>1.030210107036759</v>
       </c>
       <c r="J10">
-        <v>0.9894121920934487</v>
+        <v>0.9919645763924043</v>
       </c>
       <c r="K10">
-        <v>1.001457907815827</v>
+        <v>1.003579800449102</v>
       </c>
       <c r="L10">
-        <v>0.9838749221685339</v>
+        <v>0.986126515028143</v>
       </c>
       <c r="M10">
-        <v>0.9900838642267076</v>
+        <v>0.9920105343357635</v>
+      </c>
+      <c r="N10">
+        <v>0.9933732798708086</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9522050946633637</v>
+        <v>0.9549046452063057</v>
       </c>
       <c r="D11">
-        <v>0.9810535713181431</v>
+        <v>0.9832357706957486</v>
       </c>
       <c r="E11">
-        <v>0.9626126352591038</v>
+        <v>0.9649316563593592</v>
       </c>
       <c r="F11">
-        <v>0.968027114697524</v>
+        <v>0.970019099538857</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025927526972237</v>
+        <v>1.027180250683956</v>
       </c>
       <c r="J11">
-        <v>0.9837108301445578</v>
+        <v>0.9862816939677813</v>
       </c>
       <c r="K11">
-        <v>0.9963418584715186</v>
+        <v>0.9984809153606703</v>
       </c>
       <c r="L11">
-        <v>0.9782758283585703</v>
+        <v>0.9805466631878287</v>
       </c>
       <c r="M11">
-        <v>0.9835782765128531</v>
+        <v>0.9855294600108029</v>
+      </c>
+      <c r="N11">
+        <v>0.987682327101307</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9494248340366002</v>
+        <v>0.9521357715816978</v>
       </c>
       <c r="D12">
-        <v>0.9788456576383092</v>
+        <v>0.9810358844055646</v>
       </c>
       <c r="E12">
-        <v>0.9602074574704061</v>
+        <v>0.9625355213377791</v>
       </c>
       <c r="F12">
-        <v>0.9652737657647501</v>
+        <v>0.9672767478676099</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024765362965619</v>
+        <v>1.026022345292345</v>
       </c>
       <c r="J12">
-        <v>0.9815353321103212</v>
+        <v>0.9841136619690172</v>
       </c>
       <c r="K12">
-        <v>0.9943896822204648</v>
+        <v>0.9965356544839102</v>
       </c>
       <c r="L12">
-        <v>0.9761389019122514</v>
+        <v>0.9784174880676071</v>
       </c>
       <c r="M12">
-        <v>0.9810979413618044</v>
+        <v>0.9830589240986288</v>
+      </c>
+      <c r="N12">
+        <v>0.9855112162484281</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9500246588101348</v>
+        <v>0.9527331133640802</v>
       </c>
       <c r="D13">
-        <v>0.9793219078662232</v>
+        <v>0.9815103838771464</v>
       </c>
       <c r="E13">
-        <v>0.960726308099391</v>
+        <v>0.9630523996704491</v>
       </c>
       <c r="F13">
-        <v>0.9658676507013731</v>
+        <v>0.9678682367006058</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025016199290901</v>
+        <v>1.026272252019911</v>
       </c>
       <c r="J13">
-        <v>0.98200471417434</v>
+        <v>0.9845814132604467</v>
       </c>
       <c r="K13">
-        <v>0.9948108805806918</v>
+        <v>0.9969553432276268</v>
       </c>
       <c r="L13">
-        <v>0.9765999818299481</v>
+        <v>0.9788768759407833</v>
       </c>
       <c r="M13">
-        <v>0.9816330026791805</v>
+        <v>0.983591849726182</v>
+      </c>
+      <c r="N13">
+        <v>0.9859796318003433</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9519768180997441</v>
+        <v>0.9546772919346437</v>
       </c>
       <c r="D14">
-        <v>0.9808722462922878</v>
+        <v>0.9830550963999409</v>
       </c>
       <c r="E14">
-        <v>0.9624151322868467</v>
+        <v>0.9647348863878247</v>
       </c>
       <c r="F14">
-        <v>0.9678009880588737</v>
+        <v>0.9697938654343555</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025832154076563</v>
+        <v>1.027085222650379</v>
       </c>
       <c r="J14">
-        <v>0.9835322226117608</v>
+        <v>0.9861036905756568</v>
       </c>
       <c r="K14">
-        <v>0.9961815855977675</v>
+        <v>0.9983212024572109</v>
       </c>
       <c r="L14">
-        <v>0.9781003965439468</v>
+        <v>0.980371859059965</v>
       </c>
       <c r="M14">
-        <v>0.9833746007456249</v>
+        <v>0.9853265792737099</v>
+      </c>
+      <c r="N14">
+        <v>0.9875040709239488</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9531696743363239</v>
+        <v>0.9558653462749012</v>
       </c>
       <c r="D15">
-        <v>0.9818198393436538</v>
+        <v>0.9839993054190138</v>
       </c>
       <c r="E15">
-        <v>0.9634472260681781</v>
+        <v>0.965763168379619</v>
       </c>
       <c r="F15">
-        <v>0.9689827281532634</v>
+        <v>0.9709709619269945</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026330426969764</v>
+        <v>1.027581702847638</v>
       </c>
       <c r="J15">
-        <v>0.9844655043255855</v>
+        <v>0.9870338326854076</v>
       </c>
       <c r="K15">
-        <v>0.9970190624201639</v>
+        <v>0.9991557684522432</v>
       </c>
       <c r="L15">
-        <v>0.9790170659484337</v>
+        <v>0.9812852655864271</v>
       </c>
       <c r="M15">
-        <v>0.9844389545422053</v>
+        <v>0.9863867972979212</v>
+      </c>
+      <c r="N15">
+        <v>0.9884355339421836</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9599679134587323</v>
+        <v>0.9626372688582864</v>
       </c>
       <c r="D16">
-        <v>0.9872240546707509</v>
+        <v>0.9893849898817161</v>
       </c>
       <c r="E16">
-        <v>0.9693312711429921</v>
+        <v>0.9716263440854224</v>
       </c>
       <c r="F16">
-        <v>0.9757232375847517</v>
+        <v>0.977685944449402</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029165343528707</v>
+        <v>1.030406836248743</v>
       </c>
       <c r="J16">
-        <v>0.9897828528364189</v>
+        <v>0.9923340886059612</v>
       </c>
       <c r="K16">
-        <v>1.001790510019914</v>
+        <v>1.003911333424532</v>
       </c>
       <c r="L16">
-        <v>0.9842388713925978</v>
+        <v>0.9864892654694387</v>
       </c>
       <c r="M16">
-        <v>0.990507087537283</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9924322206817973</v>
+      </c>
+      <c r="N16">
+        <v>0.9937433168340927</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9641118840534985</v>
+        <v>0.9667660441389043</v>
       </c>
       <c r="D17">
-        <v>0.9905213056884763</v>
+        <v>0.9926715546434908</v>
       </c>
       <c r="E17">
-        <v>0.9729195385395254</v>
+        <v>0.9752025801387482</v>
       </c>
       <c r="F17">
-        <v>0.9798367664547296</v>
+        <v>0.9817846681765938</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030889093718763</v>
+        <v>1.032124973706837</v>
       </c>
       <c r="J17">
-        <v>0.9930226444718153</v>
+        <v>0.9955641074446958</v>
       </c>
       <c r="K17">
-        <v>1.004697597291868</v>
+        <v>1.006809309872462</v>
       </c>
       <c r="L17">
-        <v>0.987419652735382</v>
+        <v>0.9896598315292134</v>
       </c>
       <c r="M17">
-        <v>0.9942078143069368</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9961197983121486</v>
+      </c>
+      <c r="N17">
+        <v>0.9969779226700662</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9664882075696829</v>
+        <v>0.9691339325804252</v>
       </c>
       <c r="D18">
-        <v>0.9924130779053902</v>
+        <v>0.9945573998588662</v>
       </c>
       <c r="E18">
-        <v>0.9749776849871231</v>
+        <v>0.9772540548300023</v>
       </c>
       <c r="F18">
-        <v>0.98219727880455</v>
+        <v>0.9841369390103409</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031875967804789</v>
+        <v>1.033108745137968</v>
       </c>
       <c r="J18">
-        <v>0.9948798942462621</v>
+        <v>0.9974159662280188</v>
       </c>
       <c r="K18">
-        <v>1.006364069335928</v>
+        <v>1.008470745684416</v>
       </c>
       <c r="L18">
-        <v>0.9892427822409697</v>
+        <v>0.9914773139037092</v>
       </c>
       <c r="M18">
-        <v>0.9963305530304292</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.998235225205662</v>
+      </c>
+      <c r="N18">
+        <v>0.9988324113052729</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.967291784444034</v>
+        <v>0.9699347020787266</v>
       </c>
       <c r="D19">
-        <v>0.9930529588402837</v>
+        <v>0.9951953090331851</v>
       </c>
       <c r="E19">
-        <v>0.97567374308442</v>
+        <v>0.9779478936267757</v>
       </c>
       <c r="F19">
-        <v>0.9829957826037733</v>
+        <v>0.9849326959920678</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032209414358383</v>
+        <v>1.033441161281951</v>
       </c>
       <c r="J19">
-        <v>0.9955078385628702</v>
+        <v>0.9980421220223015</v>
       </c>
       <c r="K19">
-        <v>1.006927500685783</v>
+        <v>1.009032504464386</v>
       </c>
       <c r="L19">
-        <v>0.9898591403701037</v>
+        <v>0.9920917965243262</v>
       </c>
       <c r="M19">
-        <v>0.9970484725070993</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9989507090480175</v>
+      </c>
+      <c r="N19">
+        <v>0.9994594563126044</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.963671549336129</v>
+        <v>0.9663272945175714</v>
       </c>
       <c r="D20">
-        <v>0.9901708372277584</v>
+        <v>0.992322200389507</v>
       </c>
       <c r="E20">
-        <v>0.9725382001603782</v>
+        <v>0.9748224960781249</v>
       </c>
       <c r="F20">
-        <v>0.9793994938113723</v>
+        <v>0.9813489423672983</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030706094665616</v>
+        <v>1.03194255877371</v>
       </c>
       <c r="J20">
-        <v>0.9926784463909807</v>
+        <v>0.9952209252160771</v>
       </c>
       <c r="K20">
-        <v>1.004388750920499</v>
+        <v>1.006501411648527</v>
       </c>
       <c r="L20">
-        <v>0.9870817542374593</v>
+        <v>0.9893229961607286</v>
       </c>
       <c r="M20">
-        <v>0.9938145156475412</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9957278726414527</v>
+      </c>
+      <c r="N20">
+        <v>0.9966342530833195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9514040426620444</v>
+        <v>0.9541068422775827</v>
       </c>
       <c r="D21">
-        <v>0.9804173109863812</v>
+        <v>0.9826018004127509</v>
       </c>
       <c r="E21">
-        <v>0.961919589711579</v>
+        <v>0.9642411904192825</v>
       </c>
       <c r="F21">
-        <v>0.9672336541503389</v>
+        <v>0.9692287791577363</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025592812907367</v>
+        <v>1.026846750541907</v>
       </c>
       <c r="J21">
-        <v>0.9830840616477231</v>
+        <v>0.9856570524224516</v>
       </c>
       <c r="K21">
-        <v>0.9957794297549761</v>
+        <v>0.9979204577801429</v>
       </c>
       <c r="L21">
-        <v>0.9776601969011217</v>
+        <v>0.9799332412135137</v>
       </c>
       <c r="M21">
-        <v>0.9828635714142345</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9848175522509928</v>
+      </c>
+      <c r="N21">
+        <v>0.9870567984933358</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9432639639977204</v>
+        <v>0.9460012660355256</v>
       </c>
       <c r="D22">
-        <v>0.9739571053121802</v>
+        <v>0.9761659322613255</v>
       </c>
       <c r="E22">
-        <v>0.9548800254639851</v>
+        <v>0.9572290458711135</v>
       </c>
       <c r="F22">
-        <v>0.9591781365285116</v>
+        <v>0.9612064992624645</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.022185795687183</v>
+        <v>1.023452679650134</v>
       </c>
       <c r="J22">
-        <v>0.9767133791539249</v>
+        <v>0.9793091134813389</v>
       </c>
       <c r="K22">
-        <v>0.9900627537811815</v>
+        <v>0.9922248089979795</v>
       </c>
       <c r="L22">
-        <v>0.9714016313665097</v>
+        <v>0.9736982418745949</v>
       </c>
       <c r="M22">
-        <v>0.975604104867749</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9775877293080713</v>
+      </c>
+      <c r="N22">
+        <v>0.9806998447508076</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9476228834108952</v>
+        <v>0.9503413684766342</v>
       </c>
       <c r="D23">
-        <v>0.9774152560311672</v>
+        <v>0.9796108056672942</v>
       </c>
       <c r="E23">
-        <v>0.958648940688226</v>
+        <v>0.9609830012629169</v>
       </c>
       <c r="F23">
-        <v>0.9634901003233279</v>
+        <v>0.9655003595366664</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024011476740998</v>
+        <v>1.025271287986477</v>
       </c>
       <c r="J23">
-        <v>0.9801251511919342</v>
+        <v>0.9827084472388895</v>
       </c>
       <c r="K23">
-        <v>0.9931242633589551</v>
+        <v>0.9952748299403272</v>
       </c>
       <c r="L23">
-        <v>0.9747535989376435</v>
+        <v>0.9770373343991259</v>
       </c>
       <c r="M23">
-        <v>0.9794907373263541</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.981458208299143</v>
+      </c>
+      <c r="N23">
+        <v>0.9841040059522033</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9638706430644933</v>
+        <v>0.9665256706967418</v>
       </c>
       <c r="D24">
-        <v>0.9903292955990103</v>
+        <v>0.9924801543601202</v>
       </c>
       <c r="E24">
-        <v>0.9727106176830859</v>
+        <v>0.9749943457676291</v>
       </c>
       <c r="F24">
-        <v>0.9795971979415248</v>
+        <v>0.9815459463414401</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030788841161019</v>
+        <v>1.032025040805604</v>
       </c>
       <c r="J24">
-        <v>0.9928340745455505</v>
+        <v>0.9953760934024691</v>
       </c>
       <c r="K24">
-        <v>1.004528395065705</v>
+        <v>1.006640626514504</v>
       </c>
       <c r="L24">
-        <v>0.987234534963857</v>
+        <v>0.9894752955503163</v>
       </c>
       <c r="M24">
-        <v>0.9939923405874743</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.995905076089688</v>
+      </c>
+      <c r="N24">
+        <v>0.9967896416263343</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9811433408273853</v>
+        <v>0.9837412897186324</v>
       </c>
       <c r="D25">
-        <v>1.004094777082991</v>
+        <v>1.006205616841441</v>
       </c>
       <c r="E25">
-        <v>0.9876771729986044</v>
+        <v>0.9899158753734792</v>
       </c>
       <c r="F25">
-        <v>0.9967821103592915</v>
+        <v>0.9986747237871407</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037933089117098</v>
+        <v>1.039148511117458</v>
       </c>
       <c r="J25">
-        <v>1.006322408614192</v>
+        <v>1.008828492642502</v>
       </c>
       <c r="K25">
-        <v>1.016629857747079</v>
+        <v>1.018708356398748</v>
       </c>
       <c r="L25">
-        <v>1.00046984531254</v>
+        <v>1.002672777812611</v>
       </c>
       <c r="M25">
-        <v>1.009430586156595</v>
+        <v>1.011293647858087</v>
+      </c>
+      <c r="N25">
+        <v>1.0102611448163</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_59/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.996448353714856</v>
+        <v>0.9826497840041875</v>
       </c>
       <c r="D2">
-        <v>1.016356566265811</v>
+        <v>1.0031557915408</v>
       </c>
       <c r="E2">
-        <v>1.000936930283392</v>
+        <v>0.991159489511407</v>
       </c>
       <c r="F2">
-        <v>1.011360445258017</v>
+        <v>0.9581888035936321</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044354463104627</v>
+        <v>1.033804386449193</v>
       </c>
       <c r="J2">
-        <v>1.018735815342021</v>
+        <v>1.005362117457377</v>
       </c>
       <c r="K2">
-        <v>1.027592635895957</v>
+        <v>1.014571335564874</v>
       </c>
       <c r="L2">
-        <v>1.012383227593961</v>
+        <v>1.002743376326717</v>
       </c>
       <c r="M2">
-        <v>1.022663747728765</v>
+        <v>0.9702630931941401</v>
       </c>
       <c r="N2">
-        <v>1.020182537050438</v>
+        <v>1.006789846980813</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005173754923223</v>
+        <v>0.9893115639286064</v>
       </c>
       <c r="D3">
-        <v>1.023334900954876</v>
+        <v>1.008201053199906</v>
       </c>
       <c r="E3">
-        <v>1.008506293902417</v>
+        <v>0.9966372364280847</v>
       </c>
       <c r="F3">
-        <v>1.020093699168379</v>
+        <v>0.9705555403878682</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047897652011542</v>
+        <v>1.035944508508719</v>
       </c>
       <c r="J3">
-        <v>1.025524364995096</v>
+        <v>1.010097909029734</v>
       </c>
       <c r="K3">
-        <v>1.033677665672422</v>
+        <v>1.01873006450835</v>
       </c>
       <c r="L3">
-        <v>1.019031479877353</v>
+        <v>1.007313326038969</v>
       </c>
       <c r="M3">
-        <v>1.030475774162549</v>
+        <v>0.9815795667967291</v>
       </c>
       <c r="N3">
-        <v>1.026980727222678</v>
+        <v>1.011532363920405</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010613162631815</v>
+        <v>0.9934941809788375</v>
       </c>
       <c r="D4">
-        <v>1.027687980357864</v>
+        <v>1.011368122922537</v>
       </c>
       <c r="E4">
-        <v>1.013225109243433</v>
+        <v>1.000082791250858</v>
       </c>
       <c r="F4">
-        <v>1.025547818806275</v>
+        <v>0.9781860999598198</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050091456268529</v>
+        <v>1.037267417338433</v>
       </c>
       <c r="J4">
-        <v>1.029749224486485</v>
+        <v>1.013065783169998</v>
       </c>
       <c r="K4">
-        <v>1.037463337137738</v>
+        <v>1.021331253911357</v>
       </c>
       <c r="L4">
-        <v>1.02316649679943</v>
+        <v>1.010180217157842</v>
       </c>
       <c r="M4">
-        <v>1.035347380210469</v>
+        <v>0.9885551301170019</v>
       </c>
       <c r="N4">
-        <v>1.031211586499142</v>
+        <v>1.014504452782369</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012853771615455</v>
+        <v>0.995223686069066</v>
       </c>
       <c r="D5">
-        <v>1.029481649721254</v>
+        <v>1.012677525049937</v>
       </c>
       <c r="E5">
-        <v>1.015168818465839</v>
+        <v>1.00150896539357</v>
       </c>
       <c r="F5">
-        <v>1.027796767750108</v>
+        <v>0.9813129807289027</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050991463852242</v>
+        <v>1.037809600038414</v>
       </c>
       <c r="J5">
-        <v>1.031487763513215</v>
+        <v>1.01429166203835</v>
       </c>
       <c r="K5">
-        <v>1.039020799292254</v>
+        <v>1.022404488976002</v>
       </c>
       <c r="L5">
-        <v>1.02486745412068</v>
+        <v>1.011365068643943</v>
       </c>
       <c r="M5">
-        <v>1.037354408305267</v>
+        <v>0.9914118875913561</v>
       </c>
       <c r="N5">
-        <v>1.032952594450704</v>
+        <v>1.015732072539324</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013227365442676</v>
+        <v>0.9955124332768863</v>
       </c>
       <c r="D6">
-        <v>1.029780750301756</v>
+        <v>1.012896123238637</v>
       </c>
       <c r="E6">
-        <v>1.015492901176989</v>
+        <v>1.001747153090289</v>
       </c>
       <c r="F6">
-        <v>1.028171884235959</v>
+        <v>0.9818334572055826</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051141311397255</v>
+        <v>1.037899838601244</v>
       </c>
       <c r="J6">
-        <v>1.031777537401413</v>
+        <v>1.014496248253905</v>
       </c>
       <c r="K6">
-        <v>1.039280370576556</v>
+        <v>1.022583531477774</v>
       </c>
       <c r="L6">
-        <v>1.02515092792274</v>
+        <v>1.011562847401</v>
       </c>
       <c r="M6">
-        <v>1.037689071552607</v>
+        <v>0.9918872991737612</v>
       </c>
       <c r="N6">
-        <v>1.033242779851061</v>
+        <v>1.015936949290772</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.010643278840286</v>
+        <v>0.9935174019166735</v>
       </c>
       <c r="D7">
-        <v>1.027712087225264</v>
+        <v>1.011385704150106</v>
       </c>
       <c r="E7">
-        <v>1.013251235199255</v>
+        <v>1.000101933949303</v>
       </c>
       <c r="F7">
-        <v>1.025578038170814</v>
+        <v>0.9782281901508305</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05010356796378</v>
+        <v>1.037274715848274</v>
       </c>
       <c r="J7">
-        <v>1.029772599433938</v>
+        <v>1.013082247536928</v>
       </c>
       <c r="K7">
-        <v>1.037484278897273</v>
+        <v>1.021345672833495</v>
       </c>
       <c r="L7">
-        <v>1.023189368884277</v>
+        <v>1.010196127822076</v>
       </c>
       <c r="M7">
-        <v>1.035374355707987</v>
+        <v>0.9885935911161151</v>
       </c>
       <c r="N7">
-        <v>1.031234994641702</v>
+        <v>1.014520940530588</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9994420181992495</v>
+        <v>0.9849287933759737</v>
       </c>
       <c r="D8">
-        <v>1.018750141748171</v>
+        <v>1.004881899792554</v>
       </c>
       <c r="E8">
-        <v>1.003533884275466</v>
+        <v>0.993032052320687</v>
       </c>
       <c r="F8">
-        <v>1.014354672648314</v>
+        <v>0.9624503022142362</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045573266506567</v>
+        <v>1.034541011691758</v>
       </c>
       <c r="J8">
-        <v>1.021066418712246</v>
+        <v>1.006983398978374</v>
       </c>
       <c r="K8">
-        <v>1.029681981725551</v>
+        <v>1.015996146237657</v>
       </c>
       <c r="L8">
-        <v>1.014666198694342</v>
+        <v>1.00430724354007</v>
       </c>
       <c r="M8">
-        <v>1.025343649025633</v>
+        <v>0.9741641329781688</v>
       </c>
       <c r="N8">
-        <v>1.022516450144772</v>
+        <v>1.008413430907534</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.977951450676145</v>
+        <v>0.9687237354728941</v>
       </c>
       <c r="D9">
-        <v>1.00158580338599</v>
+        <v>0.9926063911720852</v>
       </c>
       <c r="E9">
-        <v>0.9848959958961052</v>
+        <v>0.97974796674183</v>
       </c>
       <c r="F9">
-        <v>0.9929068646055735</v>
+        <v>0.9313672986058475</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036760928720078</v>
+        <v>1.029205004373936</v>
       </c>
       <c r="J9">
-        <v>1.004307567337479</v>
+        <v>0.9954314277833904</v>
       </c>
       <c r="K9">
-        <v>1.014653204325922</v>
+        <v>1.00582057444427</v>
       </c>
       <c r="L9">
-        <v>0.9982389724889658</v>
+        <v>0.9931783933431614</v>
       </c>
       <c r="M9">
-        <v>1.006116080927035</v>
+        <v>0.9456815393904551</v>
       </c>
       <c r="N9">
-        <v>1.005733799278786</v>
+        <v>0.9968450545884235</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9621650379544172</v>
+        <v>0.9570526217042628</v>
       </c>
       <c r="D10">
-        <v>0.989009227638984</v>
+        <v>0.9837626054233124</v>
       </c>
       <c r="E10">
-        <v>0.9712173802615656</v>
+        <v>0.9702244771832583</v>
       </c>
       <c r="F10">
-        <v>0.9772173773495252</v>
+        <v>0.9076603389707146</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030210107036759</v>
+        <v>1.025221964931196</v>
       </c>
       <c r="J10">
-        <v>0.9919645763924043</v>
+        <v>0.9870802715224188</v>
       </c>
       <c r="K10">
-        <v>1.003579800449102</v>
+        <v>0.9984313531854226</v>
       </c>
       <c r="L10">
-        <v>0.986126515028143</v>
+        <v>0.9851529858857303</v>
       </c>
       <c r="M10">
-        <v>0.9920105343357635</v>
+        <v>0.9239241798384701</v>
       </c>
       <c r="N10">
-        <v>0.9933732798708086</v>
+        <v>0.9884820387276702</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9549046452063057</v>
+        <v>0.9517518292460351</v>
       </c>
       <c r="D11">
-        <v>0.9832357706957486</v>
+        <v>0.9797446375180817</v>
       </c>
       <c r="E11">
-        <v>0.9649316563593592</v>
+        <v>0.9659109975120844</v>
       </c>
       <c r="F11">
-        <v>0.970019099538857</v>
+        <v>0.8964392218171224</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027180250683956</v>
+        <v>1.023373278089169</v>
       </c>
       <c r="J11">
-        <v>0.9862816939677813</v>
+        <v>0.9832792749323002</v>
       </c>
       <c r="K11">
-        <v>0.9984809153606703</v>
+        <v>0.9950589237602468</v>
       </c>
       <c r="L11">
-        <v>0.9805466631878287</v>
+        <v>0.9815057466307021</v>
       </c>
       <c r="M11">
-        <v>0.9855294600108029</v>
+        <v>0.9136195264937258</v>
       </c>
       <c r="N11">
-        <v>0.987682327101307</v>
+        <v>0.9846756442864132</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9521357715816978</v>
+        <v>0.9497413873059433</v>
       </c>
       <c r="D12">
-        <v>0.9810358844055646</v>
+        <v>0.978220410897052</v>
       </c>
       <c r="E12">
-        <v>0.9625355213377791</v>
+        <v>0.9642769353407891</v>
       </c>
       <c r="F12">
-        <v>0.9672767478676099</v>
+        <v>0.8920982251221171</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026022345292345</v>
+        <v>1.022665364656419</v>
       </c>
       <c r="J12">
-        <v>0.9841136619690172</v>
+        <v>0.9818363445310758</v>
       </c>
       <c r="K12">
-        <v>0.9965356544839102</v>
+        <v>0.9937771167771194</v>
       </c>
       <c r="L12">
-        <v>0.9784174880676071</v>
+        <v>0.9801220989440702</v>
       </c>
       <c r="M12">
-        <v>0.9830589240986288</v>
+        <v>0.909632328391803</v>
       </c>
       <c r="N12">
-        <v>0.9855112162484281</v>
+        <v>0.9832306647585127</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9527331133640802</v>
+        <v>0.950174591555375</v>
       </c>
       <c r="D13">
-        <v>0.9815103838771464</v>
+        <v>0.9785488645487965</v>
       </c>
       <c r="E13">
-        <v>0.9630523996704491</v>
+        <v>0.964628949611453</v>
       </c>
       <c r="F13">
-        <v>0.9678682367006058</v>
+        <v>0.8930377855582852</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026272252019911</v>
+        <v>1.022818224652089</v>
       </c>
       <c r="J13">
-        <v>0.9845814132604467</v>
+        <v>0.9821473249345934</v>
       </c>
       <c r="K13">
-        <v>0.9969553432276268</v>
+        <v>0.9940534462303913</v>
       </c>
       <c r="L13">
-        <v>0.9788768759407833</v>
+        <v>0.9804202598472775</v>
       </c>
       <c r="M13">
-        <v>0.983591849726182</v>
+        <v>0.9104953424940686</v>
       </c>
       <c r="N13">
-        <v>0.9859796318003433</v>
+        <v>0.9835420867898734</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9546772919346437</v>
+        <v>0.9515865203820493</v>
       </c>
       <c r="D14">
-        <v>0.9830550963999409</v>
+        <v>0.979619315406426</v>
       </c>
       <c r="E14">
-        <v>0.9647348863878247</v>
+        <v>0.9657765968609444</v>
       </c>
       <c r="F14">
-        <v>0.9697938654343555</v>
+        <v>0.8960841255823169</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027085222650379</v>
+        <v>1.023315212364009</v>
       </c>
       <c r="J14">
-        <v>0.9861036905756568</v>
+        <v>0.9831606573472694</v>
       </c>
       <c r="K14">
-        <v>0.9983212024572109</v>
+        <v>0.9949535845393107</v>
       </c>
       <c r="L14">
-        <v>0.980371859059965</v>
+        <v>0.9813919833442142</v>
       </c>
       <c r="M14">
-        <v>0.9853265792737099</v>
+        <v>0.9132933847646771</v>
       </c>
       <c r="N14">
-        <v>0.9875040709239488</v>
+        <v>0.9845568582508059</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9558653462749012</v>
+        <v>0.9524508124486903</v>
       </c>
       <c r="D15">
-        <v>0.9839993054190138</v>
+        <v>0.9802745287101911</v>
       </c>
       <c r="E15">
-        <v>0.965763168379619</v>
+        <v>0.9664793688097288</v>
       </c>
       <c r="F15">
-        <v>0.9709709619269945</v>
+        <v>0.8979371197279586</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027581702847638</v>
+        <v>1.0236185202256</v>
       </c>
       <c r="J15">
-        <v>0.9870338326854076</v>
+        <v>0.9837807768649807</v>
       </c>
       <c r="K15">
-        <v>0.9991557684522432</v>
+        <v>0.9955042213407456</v>
       </c>
       <c r="L15">
-        <v>0.9812852655864271</v>
+        <v>0.9819867627937777</v>
       </c>
       <c r="M15">
-        <v>0.9863867972979212</v>
+        <v>0.9149952574078378</v>
       </c>
       <c r="N15">
-        <v>0.9884355339421836</v>
+        <v>0.9851778584093611</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9626372688582864</v>
+        <v>0.9573988583401208</v>
       </c>
       <c r="D16">
-        <v>0.9893849898817161</v>
+        <v>0.984025014916714</v>
       </c>
       <c r="E16">
-        <v>0.9716263440854224</v>
+        <v>0.9705064814361739</v>
       </c>
       <c r="F16">
-        <v>0.977685944449402</v>
+        <v>0.9083826011357301</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030406836248743</v>
+        <v>1.025341836894123</v>
       </c>
       <c r="J16">
-        <v>0.9923340886059612</v>
+        <v>0.9873283703375303</v>
       </c>
       <c r="K16">
-        <v>1.003911333424532</v>
+        <v>0.9986512740225503</v>
       </c>
       <c r="L16">
-        <v>0.9864892654694387</v>
+        <v>0.9853911689010523</v>
       </c>
       <c r="M16">
-        <v>0.9924322206817973</v>
+        <v>0.9245873398285285</v>
       </c>
       <c r="N16">
-        <v>0.9937433168340927</v>
+        <v>0.9887304898715567</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9667660441389043</v>
+        <v>0.9604336554929092</v>
       </c>
       <c r="D17">
-        <v>0.9926715546434908</v>
+        <v>0.9863249076441878</v>
       </c>
       <c r="E17">
-        <v>0.9752025801387482</v>
+        <v>0.972979631336191</v>
       </c>
       <c r="F17">
-        <v>0.9817846681765938</v>
+        <v>0.9146607644336444</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032124973706837</v>
+        <v>1.026387994575571</v>
       </c>
       <c r="J17">
-        <v>0.9955641074446958</v>
+        <v>0.989502065955601</v>
       </c>
       <c r="K17">
-        <v>1.006809309872462</v>
+        <v>1.000577035952746</v>
       </c>
       <c r="L17">
-        <v>0.9896598315292134</v>
+        <v>0.9874786139567918</v>
       </c>
       <c r="M17">
-        <v>0.9961197983121486</v>
+        <v>0.9303510866663943</v>
       </c>
       <c r="N17">
-        <v>0.9969779226700662</v>
+        <v>0.9909072723867314</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9691339325804252</v>
+        <v>0.9621802923699604</v>
       </c>
       <c r="D18">
-        <v>0.9945573998588662</v>
+        <v>0.9876484707669517</v>
       </c>
       <c r="E18">
-        <v>0.9772540548300023</v>
+        <v>0.9744041266693324</v>
       </c>
       <c r="F18">
-        <v>0.9841369390103409</v>
+        <v>0.918232856018344</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033108745137968</v>
+        <v>1.026986441454274</v>
       </c>
       <c r="J18">
-        <v>0.9974159662280188</v>
+        <v>0.9907523608372347</v>
       </c>
       <c r="K18">
-        <v>1.008470745684416</v>
+        <v>1.001683869004996</v>
       </c>
       <c r="L18">
-        <v>0.9914773139037092</v>
+        <v>0.9886798057347845</v>
       </c>
       <c r="M18">
-        <v>0.998235225205662</v>
+        <v>0.9336298964147296</v>
       </c>
       <c r="N18">
-        <v>0.9988324113052729</v>
+        <v>0.9921593428305079</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9699347020787266</v>
+        <v>0.9627719817197916</v>
       </c>
       <c r="D19">
-        <v>0.9951953090331851</v>
+        <v>0.9880968239987058</v>
       </c>
       <c r="E19">
-        <v>0.9779478936267757</v>
+        <v>0.9748868715983497</v>
       </c>
       <c r="F19">
-        <v>0.9849326959920678</v>
+        <v>0.9194363601415642</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033441161281951</v>
+        <v>1.027188570214211</v>
       </c>
       <c r="J19">
-        <v>0.9980421220223015</v>
+        <v>0.9911757854058862</v>
       </c>
       <c r="K19">
-        <v>1.009032504464386</v>
+        <v>1.002058568558637</v>
       </c>
       <c r="L19">
-        <v>0.9920917965243262</v>
+        <v>0.9890866849364718</v>
       </c>
       <c r="M19">
-        <v>0.9989507090480175</v>
+        <v>0.9347344826666293</v>
       </c>
       <c r="N19">
-        <v>0.9994594563126044</v>
+        <v>0.9925833687106143</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9663272945175714</v>
+        <v>0.9601105109020814</v>
       </c>
       <c r="D20">
-        <v>0.992322200389507</v>
+        <v>0.9860800275552107</v>
       </c>
       <c r="E20">
-        <v>0.9748224960781249</v>
+        <v>0.9727161748295359</v>
       </c>
       <c r="F20">
-        <v>0.9813489423672983</v>
+        <v>0.9139966553247213</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03194255877371</v>
+        <v>1.026276984717685</v>
       </c>
       <c r="J20">
-        <v>0.9952209252160771</v>
+        <v>0.9892706894742793</v>
       </c>
       <c r="K20">
-        <v>1.006501411648527</v>
+        <v>1.000372140145589</v>
       </c>
       <c r="L20">
-        <v>0.9893229961607286</v>
+        <v>0.9872563649795862</v>
       </c>
       <c r="M20">
-        <v>0.9957278726414527</v>
+        <v>0.9297414537130533</v>
       </c>
       <c r="N20">
-        <v>0.9966342530833195</v>
+        <v>0.9906755673242669</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9541068422775827</v>
+        <v>0.9511719275019459</v>
       </c>
       <c r="D21">
-        <v>0.9826018004127509</v>
+        <v>0.9793050030687089</v>
       </c>
       <c r="E21">
-        <v>0.9642411904192825</v>
+        <v>0.9654395527538674</v>
       </c>
       <c r="F21">
-        <v>0.9692287791577363</v>
+        <v>0.8951921119915131</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026846750541907</v>
+        <v>1.023169472304835</v>
       </c>
       <c r="J21">
-        <v>0.9856570524224516</v>
+        <v>0.982863144027738</v>
       </c>
       <c r="K21">
-        <v>0.9979204577801429</v>
+        <v>0.9946893497086812</v>
       </c>
       <c r="L21">
-        <v>0.9799332412135137</v>
+        <v>0.9811066604611911</v>
       </c>
       <c r="M21">
-        <v>0.9848175522509928</v>
+        <v>0.912474094780699</v>
       </c>
       <c r="N21">
-        <v>0.9870567984933358</v>
+        <v>0.9842589224282358</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9460012660355256</v>
+        <v>0.9453089350632415</v>
       </c>
       <c r="D22">
-        <v>0.9761659322613255</v>
+        <v>0.9748590923917451</v>
       </c>
       <c r="E22">
-        <v>0.9572290458711135</v>
+        <v>0.9606779864206174</v>
       </c>
       <c r="F22">
-        <v>0.9612064992624645</v>
+        <v>0.88234589245122</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023452679650134</v>
+        <v>1.021090964556285</v>
       </c>
       <c r="J22">
-        <v>0.9793091134813389</v>
+        <v>0.9786524760991849</v>
       </c>
       <c r="K22">
-        <v>0.9922248089979795</v>
+        <v>0.9909456074572982</v>
       </c>
       <c r="L22">
-        <v>0.9736982418745949</v>
+        <v>0.9770708493319846</v>
       </c>
       <c r="M22">
-        <v>0.9775877293080713</v>
+        <v>0.9006737369591421</v>
       </c>
       <c r="N22">
-        <v>0.9806998447508076</v>
+        <v>0.9800422748682537</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9503413684766342</v>
+        <v>0.9484417597496769</v>
       </c>
       <c r="D23">
-        <v>0.9796108056672942</v>
+        <v>0.9772349756653934</v>
       </c>
       <c r="E23">
-        <v>0.9609830012629169</v>
+        <v>0.9632211721661372</v>
       </c>
       <c r="F23">
-        <v>0.9655003595366664</v>
+        <v>0.8892653780683764</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025271287986477</v>
+        <v>1.022205709629961</v>
       </c>
       <c r="J23">
-        <v>0.9827084472388895</v>
+        <v>0.980903187216871</v>
       </c>
       <c r="K23">
-        <v>0.9952748299403272</v>
+        <v>0.9929476884785644</v>
       </c>
       <c r="L23">
-        <v>0.9770373343991259</v>
+        <v>0.9792275512380981</v>
       </c>
       <c r="M23">
-        <v>0.981458208299143</v>
+        <v>0.907030185234236</v>
       </c>
       <c r="N23">
-        <v>0.9841040059522033</v>
+        <v>0.982296182253887</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9665256706967418</v>
+        <v>0.9602565983632748</v>
       </c>
       <c r="D24">
-        <v>0.9924801543601202</v>
+        <v>0.9861907334702363</v>
       </c>
       <c r="E24">
-        <v>0.9749943457676291</v>
+        <v>0.9728352750242668</v>
       </c>
       <c r="F24">
-        <v>0.9815459463414401</v>
+        <v>0.9142970132088805</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032025040805604</v>
+        <v>1.026327181445072</v>
       </c>
       <c r="J24">
-        <v>0.9953760934024691</v>
+        <v>0.9893752926490964</v>
       </c>
       <c r="K24">
-        <v>1.006640626514504</v>
+        <v>1.000464774287897</v>
       </c>
       <c r="L24">
-        <v>0.9894752955503163</v>
+        <v>0.9873568401222208</v>
       </c>
       <c r="M24">
-        <v>0.995905076089688</v>
+        <v>0.9300171754317149</v>
       </c>
       <c r="N24">
-        <v>0.9967896416263343</v>
+        <v>0.9907803190475906</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9837412897186324</v>
+        <v>0.9730539136192946</v>
       </c>
       <c r="D25">
-        <v>1.006205616841441</v>
+        <v>0.9958869448001439</v>
       </c>
       <c r="E25">
-        <v>0.9899158753734792</v>
+        <v>0.983290626042911</v>
       </c>
       <c r="F25">
-        <v>0.9986747237871407</v>
+        <v>0.9398611961565608</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039148511117458</v>
+        <v>1.030653002579293</v>
       </c>
       <c r="J25">
-        <v>1.008828492642502</v>
+        <v>0.9985234406798438</v>
       </c>
       <c r="K25">
-        <v>1.018708356398748</v>
+        <v>1.008549447982318</v>
       </c>
       <c r="L25">
-        <v>1.002672777812611</v>
+        <v>0.9961539927466992</v>
       </c>
       <c r="M25">
-        <v>1.011293647858087</v>
+        <v>0.9534708165477762</v>
       </c>
       <c r="N25">
-        <v>1.0102611448163</v>
+        <v>0.9999414584978487</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_59/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9826497840041875</v>
+        <v>1.041658252865464</v>
       </c>
       <c r="D2">
-        <v>1.0031557915408</v>
+        <v>1.054198036963291</v>
       </c>
       <c r="E2">
-        <v>0.991159489511407</v>
+        <v>1.052000113391668</v>
       </c>
       <c r="F2">
-        <v>0.9581888035936321</v>
+        <v>1.062286964585049</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033804386449193</v>
+        <v>1.062436517482083</v>
       </c>
       <c r="J2">
-        <v>1.005362117457377</v>
+        <v>1.062660562832403</v>
       </c>
       <c r="K2">
-        <v>1.014571335564874</v>
+        <v>1.064950620045311</v>
       </c>
       <c r="L2">
-        <v>1.002743376326717</v>
+        <v>1.062779594615397</v>
       </c>
       <c r="M2">
-        <v>0.9702630931941401</v>
+        <v>1.072941744893948</v>
       </c>
       <c r="N2">
-        <v>1.006789846980813</v>
+        <v>1.064169662720495</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9893115639286064</v>
+        <v>1.047010694300575</v>
       </c>
       <c r="D3">
-        <v>1.008201053199906</v>
+        <v>1.058271733139421</v>
       </c>
       <c r="E3">
-        <v>0.9966372364280847</v>
+        <v>1.056458896008097</v>
       </c>
       <c r="F3">
-        <v>0.9705555403878682</v>
+        <v>1.066870232867651</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035944508508719</v>
+        <v>1.064303002888137</v>
       </c>
       <c r="J3">
-        <v>1.010097909029734</v>
+        <v>1.066296970335816</v>
       </c>
       <c r="K3">
-        <v>1.01873006450835</v>
+        <v>1.068209595658599</v>
       </c>
       <c r="L3">
-        <v>1.007313326038969</v>
+        <v>1.066416957439089</v>
       </c>
       <c r="M3">
-        <v>0.9815795667967291</v>
+        <v>1.076713437411173</v>
       </c>
       <c r="N3">
-        <v>1.011532363920405</v>
+        <v>1.067811234339665</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9934941809788375</v>
+        <v>1.050398968378669</v>
       </c>
       <c r="D4">
-        <v>1.011368122922537</v>
+        <v>1.060853618258986</v>
       </c>
       <c r="E4">
-        <v>1.000082791250858</v>
+        <v>1.059286773106474</v>
       </c>
       <c r="F4">
-        <v>0.9781860999598198</v>
+        <v>1.069777337050758</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037267417338433</v>
+        <v>1.065476030928409</v>
       </c>
       <c r="J4">
-        <v>1.013065783169998</v>
+        <v>1.068595780789208</v>
       </c>
       <c r="K4">
-        <v>1.021331253911357</v>
+        <v>1.070269144285313</v>
       </c>
       <c r="L4">
-        <v>1.010180217157842</v>
+        <v>1.068718678703295</v>
       </c>
       <c r="M4">
-        <v>0.9885551301170019</v>
+        <v>1.079100691013997</v>
       </c>
       <c r="N4">
-        <v>1.014504452782369</v>
+        <v>1.070113309367577</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.995223686069066</v>
+        <v>1.051806132443719</v>
       </c>
       <c r="D5">
-        <v>1.012677525049937</v>
+        <v>1.061926572300628</v>
       </c>
       <c r="E5">
-        <v>1.00150896539357</v>
+        <v>1.060462427384118</v>
       </c>
       <c r="F5">
-        <v>0.9813129807289027</v>
+        <v>1.070985992367173</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037809600038414</v>
+        <v>1.065961112242054</v>
       </c>
       <c r="J5">
-        <v>1.01429166203835</v>
+        <v>1.069549689517578</v>
       </c>
       <c r="K5">
-        <v>1.022404488976002</v>
+        <v>1.071123600427641</v>
       </c>
       <c r="L5">
-        <v>1.011365068643943</v>
+        <v>1.069674344748659</v>
       </c>
       <c r="M5">
-        <v>0.9914118875913561</v>
+        <v>1.080091993293524</v>
       </c>
       <c r="N5">
-        <v>1.015732072539324</v>
+        <v>1.071068572755757</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9955124332768863</v>
+        <v>1.052041409051959</v>
       </c>
       <c r="D6">
-        <v>1.012896123238637</v>
+        <v>1.062106008032802</v>
       </c>
       <c r="E6">
-        <v>1.001747153090289</v>
+        <v>1.060659066359423</v>
       </c>
       <c r="F6">
-        <v>0.9818334572055826</v>
+        <v>1.071188154721958</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037899838601244</v>
+        <v>1.066042093937093</v>
       </c>
       <c r="J6">
-        <v>1.014496248253905</v>
+        <v>1.069709134281095</v>
       </c>
       <c r="K6">
-        <v>1.022583531477774</v>
+        <v>1.071266411573542</v>
       </c>
       <c r="L6">
-        <v>1.011562847401</v>
+        <v>1.069834115440262</v>
       </c>
       <c r="M6">
-        <v>0.9918872991737612</v>
+        <v>1.080257728912018</v>
       </c>
       <c r="N6">
-        <v>1.015936949290772</v>
+        <v>1.071228243949127</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9935174019166735</v>
+        <v>1.050417837900079</v>
       </c>
       <c r="D7">
-        <v>1.011385704150106</v>
+        <v>1.060868003514872</v>
       </c>
       <c r="E7">
-        <v>1.000101933949303</v>
+        <v>1.059302533395477</v>
       </c>
       <c r="F7">
-        <v>0.9782281901508305</v>
+        <v>1.069793539489749</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037274715848274</v>
+        <v>1.065482543955566</v>
       </c>
       <c r="J7">
-        <v>1.013082247536928</v>
+        <v>1.068608575531765</v>
       </c>
       <c r="K7">
-        <v>1.021345672833495</v>
+        <v>1.070280605755512</v>
       </c>
       <c r="L7">
-        <v>1.010196127822076</v>
+        <v>1.068731494849908</v>
       </c>
       <c r="M7">
-        <v>0.9885935911161151</v>
+        <v>1.079113984583354</v>
       </c>
       <c r="N7">
-        <v>1.014520940530588</v>
+        <v>1.070126122280137</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9849287933759737</v>
+        <v>1.043483132227565</v>
       </c>
       <c r="D8">
-        <v>1.004881899792554</v>
+        <v>1.055586250390276</v>
       </c>
       <c r="E8">
-        <v>0.993032052320687</v>
+        <v>1.053519157507105</v>
       </c>
       <c r="F8">
-        <v>0.9624503022142362</v>
+        <v>1.063848359912507</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034541011691758</v>
+        <v>1.063074647873761</v>
       </c>
       <c r="J8">
-        <v>1.006983398978374</v>
+        <v>1.063901009962484</v>
       </c>
       <c r="K8">
-        <v>1.015996146237657</v>
+        <v>1.066062450924638</v>
       </c>
       <c r="L8">
-        <v>1.00430724354007</v>
+        <v>1.064019880374118</v>
       </c>
       <c r="M8">
-        <v>0.9741641329781688</v>
+        <v>1.074227721993941</v>
       </c>
       <c r="N8">
-        <v>1.008413430907534</v>
+        <v>1.065411871427782</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9687237354728941</v>
+        <v>1.030653671044915</v>
       </c>
       <c r="D9">
-        <v>0.9926063911720852</v>
+        <v>1.045842361564865</v>
       </c>
       <c r="E9">
-        <v>0.97974796674183</v>
+        <v>1.042864674326893</v>
       </c>
       <c r="F9">
-        <v>0.9313672986058475</v>
+        <v>1.052898110715045</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029205004373936</v>
+        <v>1.05855375520456</v>
       </c>
       <c r="J9">
-        <v>0.9954314277833904</v>
+        <v>1.055168543088255</v>
       </c>
       <c r="K9">
-        <v>1.00582057444427</v>
+        <v>1.058233021760949</v>
       </c>
       <c r="L9">
-        <v>0.9931783933431614</v>
+        <v>1.055298580489785</v>
       </c>
       <c r="M9">
-        <v>0.9456815393904551</v>
+        <v>1.065187533276431</v>
       </c>
       <c r="N9">
-        <v>0.9968450545884235</v>
+        <v>1.056667003448964</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9570526217042628</v>
+        <v>1.021639157950789</v>
       </c>
       <c r="D10">
-        <v>0.9837626054233124</v>
+        <v>1.039018796083064</v>
       </c>
       <c r="E10">
-        <v>0.9702244771832583</v>
+        <v>1.03541269135816</v>
       </c>
       <c r="F10">
-        <v>0.9076603389707146</v>
+        <v>1.045241036251433</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025221964931196</v>
+        <v>1.055334954529251</v>
       </c>
       <c r="J10">
-        <v>0.9870802715224188</v>
+        <v>1.04901977716836</v>
       </c>
       <c r="K10">
-        <v>0.9984313531854226</v>
+        <v>1.052717565544181</v>
       </c>
       <c r="L10">
-        <v>0.9851529858857303</v>
+        <v>1.049170699689811</v>
       </c>
       <c r="M10">
-        <v>0.9239241798384701</v>
+        <v>1.058838823884225</v>
       </c>
       <c r="N10">
-        <v>0.9884820387276702</v>
+        <v>1.05050950557619</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9517518292460351</v>
+        <v>1.017613598530219</v>
       </c>
       <c r="D11">
-        <v>0.9797446375180817</v>
+        <v>1.035978084702488</v>
       </c>
       <c r="E11">
-        <v>0.9659109975120844</v>
+        <v>1.032093963424991</v>
       </c>
       <c r="F11">
-        <v>0.8964392218171224</v>
+        <v>1.04183144291002</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023373278089169</v>
+        <v>1.05388815749177</v>
       </c>
       <c r="J11">
-        <v>0.9832792749323002</v>
+        <v>1.046271555231099</v>
       </c>
       <c r="K11">
-        <v>0.9950589237602468</v>
+        <v>1.050251971285223</v>
       </c>
       <c r="L11">
-        <v>0.9815057466307021</v>
+        <v>1.04643499421161</v>
       </c>
       <c r="M11">
-        <v>0.9136195264937258</v>
+        <v>1.05600536410554</v>
       </c>
       <c r="N11">
-        <v>0.9846756442864132</v>
+        <v>1.047757380848552</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9497413873059433</v>
+        <v>1.016098779688816</v>
       </c>
       <c r="D12">
-        <v>0.978220410897052</v>
+        <v>1.034834925771473</v>
       </c>
       <c r="E12">
-        <v>0.9642769353407891</v>
+        <v>1.030846570994083</v>
       </c>
       <c r="F12">
-        <v>0.8920982251221171</v>
+        <v>1.040549973027287</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.022665364656419</v>
+        <v>1.053342372459378</v>
       </c>
       <c r="J12">
-        <v>0.9818363445310758</v>
+        <v>1.04523709909673</v>
       </c>
       <c r="K12">
-        <v>0.9937771167771194</v>
+        <v>1.049323849069589</v>
       </c>
       <c r="L12">
-        <v>0.9801220989440702</v>
+        <v>1.045405736072409</v>
       </c>
       <c r="M12">
-        <v>0.909632328391803</v>
+        <v>1.054939458630609</v>
       </c>
       <c r="N12">
-        <v>0.9832306647585127</v>
+        <v>1.046721455667817</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.950174591555375</v>
+        <v>1.01642461811254</v>
       </c>
       <c r="D13">
-        <v>0.9785488645487965</v>
+        <v>1.03508077043851</v>
       </c>
       <c r="E13">
-        <v>0.964628949611453</v>
+        <v>1.031114819130121</v>
       </c>
       <c r="F13">
-        <v>0.8930377855582852</v>
+        <v>1.040825545922515</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.022818224652089</v>
+        <v>1.053459831405258</v>
       </c>
       <c r="J13">
-        <v>0.9821473249345934</v>
+        <v>1.045459623730162</v>
       </c>
       <c r="K13">
-        <v>0.9940534462303913</v>
+        <v>1.049523501920312</v>
       </c>
       <c r="L13">
-        <v>0.9804202598472775</v>
+        <v>1.045627120420374</v>
       </c>
       <c r="M13">
-        <v>0.9104953424940686</v>
+        <v>1.055168719483379</v>
       </c>
       <c r="N13">
-        <v>0.9835420867898734</v>
+        <v>1.046944296311754</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9515865203820493</v>
+        <v>1.017488789081362</v>
       </c>
       <c r="D14">
-        <v>0.979619315406426</v>
+        <v>1.035883875061203</v>
       </c>
       <c r="E14">
-        <v>0.9657765968609444</v>
+        <v>1.031991157986508</v>
       </c>
       <c r="F14">
-        <v>0.8960841255823169</v>
+        <v>1.041725827368613</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023315212364009</v>
+        <v>1.053843216184799</v>
       </c>
       <c r="J14">
-        <v>0.9831606573472694</v>
+        <v>1.046186329704516</v>
       </c>
       <c r="K14">
-        <v>0.9949535845393107</v>
+        <v>1.050175507188787</v>
       </c>
       <c r="L14">
-        <v>0.9813919833442142</v>
+        <v>1.046350186991585</v>
       </c>
       <c r="M14">
-        <v>0.9132933847646771</v>
+        <v>1.05591753457941</v>
       </c>
       <c r="N14">
-        <v>0.9845568582508059</v>
+        <v>1.047672034291946</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9524508124486903</v>
+        <v>1.018141832689904</v>
       </c>
       <c r="D15">
-        <v>0.9802745287101911</v>
+        <v>1.036376854333822</v>
       </c>
       <c r="E15">
-        <v>0.9664793688097288</v>
+        <v>1.032529128865634</v>
       </c>
       <c r="F15">
-        <v>0.8979371197279586</v>
+        <v>1.042278506355908</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.0236185202256</v>
+        <v>1.054078308855489</v>
       </c>
       <c r="J15">
-        <v>0.9837807768649807</v>
+        <v>1.046632245531049</v>
       </c>
       <c r="K15">
-        <v>0.9955042213407456</v>
+        <v>1.050575579647978</v>
       </c>
       <c r="L15">
-        <v>0.9819867627937777</v>
+        <v>1.046793934038613</v>
       </c>
       <c r="M15">
-        <v>0.9149952574078378</v>
+        <v>1.05637710097294</v>
       </c>
       <c r="N15">
-        <v>0.9851778584093611</v>
+        <v>1.0481185833701</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9573988583401208</v>
+        <v>1.021903647140419</v>
       </c>
       <c r="D16">
-        <v>0.984025014916714</v>
+        <v>1.039218720199677</v>
       </c>
       <c r="E16">
-        <v>0.9705064814361739</v>
+        <v>1.035630935517409</v>
       </c>
       <c r="F16">
-        <v>0.9083826011357301</v>
+        <v>1.04546526606706</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025341836894123</v>
+        <v>1.055429821844668</v>
       </c>
       <c r="J16">
-        <v>0.9873283703375303</v>
+        <v>1.049200297220559</v>
       </c>
       <c r="K16">
-        <v>0.9986512740225503</v>
+        <v>1.05287951313989</v>
       </c>
       <c r="L16">
-        <v>0.9853911689010523</v>
+        <v>1.049350464489362</v>
       </c>
       <c r="M16">
-        <v>0.9245873398285285</v>
+        <v>1.059025029975</v>
       </c>
       <c r="N16">
-        <v>0.9887304898715567</v>
+        <v>1.050690281987568</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9604336554929092</v>
+        <v>1.0242298064084</v>
       </c>
       <c r="D17">
-        <v>0.9863249076441878</v>
+        <v>1.040977778915778</v>
       </c>
       <c r="E17">
-        <v>0.972979631336191</v>
+        <v>1.03755141331429</v>
       </c>
       <c r="F17">
-        <v>0.9146607644336444</v>
+        <v>1.047438469925759</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026387994575571</v>
+        <v>1.056263110284371</v>
       </c>
       <c r="J17">
-        <v>0.989502065955601</v>
+        <v>1.050787689264125</v>
       </c>
       <c r="K17">
-        <v>1.000577035952746</v>
+        <v>1.05430354197888</v>
       </c>
       <c r="L17">
-        <v>0.9874786139567918</v>
+        <v>1.050931577702123</v>
       </c>
       <c r="M17">
-        <v>0.9303510866663943</v>
+        <v>1.06066289247087</v>
       </c>
       <c r="N17">
-        <v>0.9909072723867314</v>
+        <v>1.052279928309913</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9621802923699604</v>
+        <v>1.025574908722224</v>
       </c>
       <c r="D18">
-        <v>0.9876484707669517</v>
+        <v>1.041995559668946</v>
       </c>
       <c r="E18">
-        <v>0.9744041266693324</v>
+        <v>1.0386627826922</v>
       </c>
       <c r="F18">
-        <v>0.918232856018344</v>
+        <v>1.048580395992743</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026986441454274</v>
+        <v>1.056744065740172</v>
       </c>
       <c r="J18">
-        <v>0.9907523608372347</v>
+        <v>1.051705367394435</v>
       </c>
       <c r="K18">
-        <v>1.001683869004996</v>
+        <v>1.055126737071832</v>
       </c>
       <c r="L18">
-        <v>0.9886798057347845</v>
+        <v>1.051845926639708</v>
       </c>
       <c r="M18">
-        <v>0.9336298964147296</v>
+        <v>1.061610137561863</v>
       </c>
       <c r="N18">
-        <v>0.9921593428305079</v>
+        <v>1.053198909648427</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9627719817197916</v>
+        <v>1.026031602566839</v>
       </c>
       <c r="D19">
-        <v>0.9880968239987058</v>
+        <v>1.042341220032689</v>
       </c>
       <c r="E19">
-        <v>0.9748868715983497</v>
+        <v>1.039040260900484</v>
       </c>
       <c r="F19">
-        <v>0.9194363601415642</v>
+        <v>1.048968260224002</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027188570214211</v>
+        <v>1.056907208168198</v>
       </c>
       <c r="J19">
-        <v>0.9911757854058862</v>
+        <v>1.052016899598195</v>
       </c>
       <c r="K19">
-        <v>1.002058568558637</v>
+        <v>1.055406186715365</v>
       </c>
       <c r="L19">
-        <v>0.9890866849364718</v>
+        <v>1.052156379401722</v>
       </c>
       <c r="M19">
-        <v>0.9347344826666293</v>
+        <v>1.061931772815502</v>
       </c>
       <c r="N19">
-        <v>0.9925833687106143</v>
+        <v>1.053510884263649</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C20">
-        <v>0.9601105109020814</v>
+        <v>1.02398145070483</v>
       </c>
       <c r="D20">
-        <v>0.9860800275552107</v>
+        <v>1.040789907134118</v>
       </c>
       <c r="E20">
-        <v>0.9727161748295359</v>
+        <v>1.037346281715932</v>
       </c>
       <c r="F20">
-        <v>0.9139966553247213</v>
+        <v>1.047227701867965</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026276984717685</v>
+        <v>1.056174235430092</v>
       </c>
       <c r="J20">
-        <v>0.9892706894742793</v>
+        <v>1.050618232727358</v>
       </c>
       <c r="K20">
-        <v>1.000372140145589</v>
+        <v>1.05415152897508</v>
       </c>
       <c r="L20">
-        <v>0.9872563649795862</v>
+        <v>1.050762760178673</v>
       </c>
       <c r="M20">
-        <v>0.9297414537130533</v>
+        <v>1.060488007579288</v>
       </c>
       <c r="N20">
-        <v>0.9906755673242669</v>
+        <v>1.052110231125427</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9511719275019459</v>
+        <v>1.017175966852838</v>
       </c>
       <c r="D21">
-        <v>0.9793050030687089</v>
+        <v>1.035647765564569</v>
       </c>
       <c r="E21">
-        <v>0.9654395527538674</v>
+        <v>1.031733510153736</v>
       </c>
       <c r="F21">
-        <v>0.8951921119915131</v>
+        <v>1.041461138177564</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023169472304835</v>
+        <v>1.053730553733938</v>
       </c>
       <c r="J21">
-        <v>0.982863144027738</v>
+        <v>1.045972715953629</v>
       </c>
       <c r="K21">
-        <v>0.9946893497086812</v>
+        <v>1.049983852800738</v>
       </c>
       <c r="L21">
-        <v>0.9811066604611911</v>
+        <v>1.046137629573889</v>
       </c>
       <c r="M21">
-        <v>0.912474094780699</v>
+        <v>1.055697404303944</v>
       </c>
       <c r="N21">
-        <v>0.9842589224282358</v>
+        <v>1.04745811718503</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9453089350632415</v>
+        <v>1.012783336890861</v>
       </c>
       <c r="D22">
-        <v>0.9748590923917451</v>
+        <v>1.032334984975893</v>
       </c>
       <c r="E22">
-        <v>0.9606779864206174</v>
+        <v>1.028119194610401</v>
       </c>
       <c r="F22">
-        <v>0.88234589245122</v>
+        <v>1.037748232306415</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021090964556285</v>
+        <v>1.052145399980257</v>
       </c>
       <c r="J22">
-        <v>0.9786524760991849</v>
+        <v>1.042972532871279</v>
       </c>
       <c r="K22">
-        <v>0.9909456074572982</v>
+        <v>1.047291988524974</v>
       </c>
       <c r="L22">
-        <v>0.9770708493319846</v>
+        <v>1.043153454744739</v>
       </c>
       <c r="M22">
-        <v>0.9006737369591421</v>
+        <v>1.052607231334383</v>
       </c>
       <c r="N22">
-        <v>0.9800422748682537</v>
+        <v>1.044453673498578</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9484417597496769</v>
+        <v>1.015123157424385</v>
       </c>
       <c r="D23">
-        <v>0.9772349756653934</v>
+        <v>1.034098983020826</v>
       </c>
       <c r="E23">
-        <v>0.9632211721661372</v>
+        <v>1.030043603640341</v>
       </c>
       <c r="F23">
-        <v>0.8892653780683764</v>
+        <v>1.039725091394071</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022205709629961</v>
+        <v>1.052990483980884</v>
       </c>
       <c r="J23">
-        <v>0.980903187216871</v>
+        <v>1.044570779002998</v>
       </c>
       <c r="K23">
-        <v>0.9929476884785644</v>
+        <v>1.048726009390887</v>
       </c>
       <c r="L23">
-        <v>0.9792275512380981</v>
+        <v>1.044742902442447</v>
       </c>
       <c r="M23">
-        <v>0.907030185234236</v>
+        <v>1.054253062096953</v>
       </c>
       <c r="N23">
-        <v>0.982296182253887</v>
+        <v>1.046054189323126</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9602565983632748</v>
+        <v>1.024093708048023</v>
       </c>
       <c r="D24">
-        <v>0.9861907334702363</v>
+        <v>1.040874823738978</v>
       </c>
       <c r="E24">
-        <v>0.9728352750242668</v>
+        <v>1.03743899902743</v>
       </c>
       <c r="F24">
-        <v>0.9142970132088805</v>
+        <v>1.047322966662098</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026327181445072</v>
+        <v>1.056214409843042</v>
       </c>
       <c r="J24">
-        <v>0.9893752926490964</v>
+        <v>1.050694828191182</v>
       </c>
       <c r="K24">
-        <v>1.000464774287897</v>
+        <v>1.054220239979472</v>
       </c>
       <c r="L24">
-        <v>0.9873568401222208</v>
+        <v>1.050839065872424</v>
       </c>
       <c r="M24">
-        <v>0.9300171754317149</v>
+        <v>1.060567055487073</v>
       </c>
       <c r="N24">
-        <v>0.9907803190475906</v>
+        <v>1.052186935363594</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9730539136192946</v>
+        <v>1.034047721645727</v>
       </c>
       <c r="D25">
-        <v>0.9958869448001439</v>
+        <v>1.048416499229667</v>
       </c>
       <c r="E25">
-        <v>0.983290626042911</v>
+        <v>1.045677720191123</v>
       </c>
       <c r="F25">
-        <v>0.9398611961565608</v>
+        <v>1.055788955982411</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030653002579293</v>
+        <v>1.059757221073749</v>
       </c>
       <c r="J25">
-        <v>0.9985234406798438</v>
+        <v>1.057481169462114</v>
       </c>
       <c r="K25">
-        <v>1.008549447982318</v>
+        <v>1.060306986160251</v>
       </c>
       <c r="L25">
-        <v>0.9961539927466992</v>
+        <v>1.057606040284021</v>
       </c>
       <c r="M25">
-        <v>0.9534708165477762</v>
+        <v>1.067578827573738</v>
       </c>
       <c r="N25">
-        <v>0.9999414584978487</v>
+        <v>1.058982914017536</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_59/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.041658252865464</v>
+        <v>1.069678564573214</v>
       </c>
       <c r="D2">
-        <v>1.054198036963291</v>
+        <v>1.070862449233158</v>
       </c>
       <c r="E2">
-        <v>1.052000113391668</v>
+        <v>1.073974098786153</v>
       </c>
       <c r="F2">
-        <v>1.062286964585049</v>
+        <v>1.083875362078025</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.062436517482083</v>
+        <v>1.055816520875321</v>
       </c>
       <c r="J2">
-        <v>1.062660562832403</v>
+        <v>1.074612070367332</v>
       </c>
       <c r="K2">
-        <v>1.064950620045311</v>
+        <v>1.073561155671785</v>
       </c>
       <c r="L2">
-        <v>1.062779594615397</v>
+        <v>1.076664539590814</v>
       </c>
       <c r="M2">
-        <v>1.072941744893948</v>
+        <v>1.086539842605904</v>
       </c>
       <c r="N2">
-        <v>1.064169662720495</v>
+        <v>1.076138142766981</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.047010694300575</v>
+        <v>1.070804053876516</v>
       </c>
       <c r="D3">
-        <v>1.058271733139421</v>
+        <v>1.071738165512357</v>
       </c>
       <c r="E3">
-        <v>1.056458896008097</v>
+        <v>1.074955216544574</v>
       </c>
       <c r="F3">
-        <v>1.066870232867651</v>
+        <v>1.084885415757727</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.064303002888137</v>
+        <v>1.056152564049975</v>
       </c>
       <c r="J3">
-        <v>1.066296970335816</v>
+        <v>1.07539397126052</v>
       </c>
       <c r="K3">
-        <v>1.068209595658599</v>
+        <v>1.074253168507703</v>
       </c>
       <c r="L3">
-        <v>1.066416957439089</v>
+        <v>1.077462290867877</v>
       </c>
       <c r="M3">
-        <v>1.076713437411173</v>
+        <v>1.087368335119355</v>
       </c>
       <c r="N3">
-        <v>1.067811234339665</v>
+        <v>1.076921154049123</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.050398968378669</v>
+        <v>1.071532604912567</v>
       </c>
       <c r="D4">
-        <v>1.060853618258986</v>
+        <v>1.072305035546442</v>
       </c>
       <c r="E4">
-        <v>1.059286773106474</v>
+        <v>1.075590598230983</v>
       </c>
       <c r="F4">
-        <v>1.069777337050758</v>
+        <v>1.085539566606131</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.065476030928409</v>
+        <v>1.056368984015565</v>
       </c>
       <c r="J4">
-        <v>1.068595780789208</v>
+        <v>1.075899594543636</v>
       </c>
       <c r="K4">
-        <v>1.070269144285313</v>
+        <v>1.074700527454672</v>
       </c>
       <c r="L4">
-        <v>1.068718678703295</v>
+        <v>1.077978399741001</v>
       </c>
       <c r="M4">
-        <v>1.079100691013997</v>
+        <v>1.087904385166167</v>
       </c>
       <c r="N4">
-        <v>1.070113309367577</v>
+        <v>1.077427495375297</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.051806132443719</v>
+        <v>1.071838956049593</v>
       </c>
       <c r="D5">
-        <v>1.061926572300628</v>
+        <v>1.072543400635415</v>
       </c>
       <c r="E5">
-        <v>1.060462427384118</v>
+        <v>1.075857839865926</v>
       </c>
       <c r="F5">
-        <v>1.070985992367173</v>
+        <v>1.085814709691299</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.065961112242054</v>
+        <v>1.05645972205821</v>
       </c>
       <c r="J5">
-        <v>1.069549689517578</v>
+        <v>1.076112082065859</v>
       </c>
       <c r="K5">
-        <v>1.071123600427641</v>
+        <v>1.074888496437916</v>
       </c>
       <c r="L5">
-        <v>1.069674344748659</v>
+        <v>1.07819535020311</v>
       </c>
       <c r="M5">
-        <v>1.080091993293524</v>
+        <v>1.088129730698998</v>
       </c>
       <c r="N5">
-        <v>1.071068572755757</v>
+        <v>1.077640284654173</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.052041409051959</v>
+        <v>1.071890397764809</v>
       </c>
       <c r="D6">
-        <v>1.062106008032802</v>
+        <v>1.072583426272726</v>
       </c>
       <c r="E6">
-        <v>1.060659066359423</v>
+        <v>1.075902718358299</v>
       </c>
       <c r="F6">
-        <v>1.071188154721958</v>
+        <v>1.08586091550955</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.066042093937093</v>
+        <v>1.056474943009227</v>
       </c>
       <c r="J6">
-        <v>1.069709134281095</v>
+        <v>1.076147755164744</v>
       </c>
       <c r="K6">
-        <v>1.071266411573542</v>
+        <v>1.074920051343732</v>
       </c>
       <c r="L6">
-        <v>1.069834115440262</v>
+        <v>1.078231775859559</v>
       </c>
       <c r="M6">
-        <v>1.080257728912018</v>
+        <v>1.088167566615103</v>
       </c>
       <c r="N6">
-        <v>1.071228243949127</v>
+        <v>1.077676008412951</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.050417837900079</v>
+        <v>1.071536698122831</v>
       </c>
       <c r="D7">
-        <v>1.060868003514872</v>
+        <v>1.072308220385046</v>
       </c>
       <c r="E7">
-        <v>1.059302533395477</v>
+        <v>1.075594168627578</v>
       </c>
       <c r="F7">
-        <v>1.069793539489749</v>
+        <v>1.085543242539535</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.065482543955566</v>
+        <v>1.056370197424228</v>
       </c>
       <c r="J7">
-        <v>1.068608575531765</v>
+        <v>1.075902434113124</v>
       </c>
       <c r="K7">
-        <v>1.070280605755512</v>
+        <v>1.074703039501495</v>
       </c>
       <c r="L7">
-        <v>1.068731494849908</v>
+        <v>1.077981298729325</v>
       </c>
       <c r="M7">
-        <v>1.079113984583354</v>
+        <v>1.087907396283538</v>
       </c>
       <c r="N7">
-        <v>1.070126122280137</v>
+        <v>1.077430338977299</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.043483132227565</v>
+        <v>1.070058870253229</v>
       </c>
       <c r="D8">
-        <v>1.055586250390276</v>
+        <v>1.071158355183948</v>
       </c>
       <c r="E8">
-        <v>1.053519157507105</v>
+        <v>1.074305561545868</v>
       </c>
       <c r="F8">
-        <v>1.063848359912507</v>
+        <v>1.084216594382454</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.063074647873761</v>
+        <v>1.055930299859339</v>
       </c>
       <c r="J8">
-        <v>1.063901009962484</v>
+        <v>1.074876383360762</v>
       </c>
       <c r="K8">
-        <v>1.066062450924638</v>
+        <v>1.073795111381874</v>
       </c>
       <c r="L8">
-        <v>1.064019880374118</v>
+        <v>1.076934161748267</v>
       </c>
       <c r="M8">
-        <v>1.074227721993941</v>
+        <v>1.086819843615922</v>
       </c>
       <c r="N8">
-        <v>1.065411871427782</v>
+        <v>1.076402831115179</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.030653671044915</v>
+        <v>1.067456914161877</v>
       </c>
       <c r="D9">
-        <v>1.045842361564865</v>
+        <v>1.069133874530885</v>
       </c>
       <c r="E9">
-        <v>1.042864674326893</v>
+        <v>1.07203896995672</v>
       </c>
       <c r="F9">
-        <v>1.052898110715045</v>
+        <v>1.081883321353081</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.05855375520456</v>
+        <v>1.055147319422088</v>
       </c>
       <c r="J9">
-        <v>1.055168543088255</v>
+        <v>1.073065915644923</v>
       </c>
       <c r="K9">
-        <v>1.058233021760949</v>
+        <v>1.072192023280503</v>
       </c>
       <c r="L9">
-        <v>1.055298580489785</v>
+        <v>1.075088298441252</v>
       </c>
       <c r="M9">
-        <v>1.065187533276431</v>
+        <v>1.084903144681253</v>
       </c>
       <c r="N9">
-        <v>1.056667003448964</v>
+        <v>1.07458979232752</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.021639157950789</v>
+        <v>1.065723714259715</v>
       </c>
       <c r="D10">
-        <v>1.039018796083064</v>
+        <v>1.067785408671057</v>
       </c>
       <c r="E10">
-        <v>1.03541269135816</v>
+        <v>1.070530685865825</v>
       </c>
       <c r="F10">
-        <v>1.045241036251433</v>
+        <v>1.080330822035578</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.055334954529251</v>
+        <v>1.054620078431268</v>
       </c>
       <c r="J10">
-        <v>1.04901977716836</v>
+        <v>1.071857307159609</v>
       </c>
       <c r="K10">
-        <v>1.052717565544181</v>
+        <v>1.071121157627599</v>
       </c>
       <c r="L10">
-        <v>1.049170699689811</v>
+        <v>1.073857283286744</v>
       </c>
       <c r="M10">
-        <v>1.058838823884225</v>
+        <v>1.083625166053566</v>
       </c>
       <c r="N10">
-        <v>1.05050950557619</v>
+        <v>1.073379467479527</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.017613598530219</v>
+        <v>1.064973555533089</v>
       </c>
       <c r="D11">
-        <v>1.035978084702488</v>
+        <v>1.067201794555617</v>
       </c>
       <c r="E11">
-        <v>1.032093963424991</v>
+        <v>1.06987824459546</v>
       </c>
       <c r="F11">
-        <v>1.04183144291002</v>
+        <v>1.07965929231854</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.05388815749177</v>
+        <v>1.054390532135079</v>
       </c>
       <c r="J11">
-        <v>1.046271555231099</v>
+        <v>1.07133358052988</v>
       </c>
       <c r="K11">
-        <v>1.050251971285223</v>
+        <v>1.070656955469638</v>
       </c>
       <c r="L11">
-        <v>1.04643499421161</v>
+        <v>1.073324138055048</v>
       </c>
       <c r="M11">
-        <v>1.05600536410554</v>
+        <v>1.083071747581215</v>
       </c>
       <c r="N11">
-        <v>1.047757380848552</v>
+        <v>1.072854997097911</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.016098779688816</v>
+        <v>1.064694961962275</v>
       </c>
       <c r="D12">
-        <v>1.034834925771473</v>
+        <v>1.066985056730675</v>
       </c>
       <c r="E12">
-        <v>1.030846570994083</v>
+        <v>1.069635997582188</v>
       </c>
       <c r="F12">
-        <v>1.040549973027287</v>
+        <v>1.079409963618138</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.053342372459378</v>
+        <v>1.054305081026735</v>
       </c>
       <c r="J12">
-        <v>1.04523709909673</v>
+        <v>1.071138986339907</v>
       </c>
       <c r="K12">
-        <v>1.049323849069589</v>
+        <v>1.070484453546394</v>
       </c>
       <c r="L12">
-        <v>1.045405736072409</v>
+        <v>1.073126088109804</v>
       </c>
       <c r="M12">
-        <v>1.054939458630609</v>
+        <v>1.082866176663262</v>
       </c>
       <c r="N12">
-        <v>1.046721455667817</v>
+        <v>1.072660126561869</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.01642461811254</v>
+        <v>1.064754719030055</v>
       </c>
       <c r="D13">
-        <v>1.03508077043851</v>
+        <v>1.067031545804385</v>
       </c>
       <c r="E13">
-        <v>1.031114819130121</v>
+        <v>1.069687955917921</v>
       </c>
       <c r="F13">
-        <v>1.040825545922515</v>
+        <v>1.079463440609411</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.053459831405258</v>
+        <v>1.054323419059068</v>
       </c>
       <c r="J13">
-        <v>1.045459623730162</v>
+        <v>1.07118073011554</v>
       </c>
       <c r="K13">
-        <v>1.049523501920312</v>
+        <v>1.070521459258161</v>
       </c>
       <c r="L13">
-        <v>1.045627120420374</v>
+        <v>1.073168571220999</v>
       </c>
       <c r="M13">
-        <v>1.055168719483379</v>
+        <v>1.082910272621801</v>
       </c>
       <c r="N13">
-        <v>1.046944296311754</v>
+        <v>1.072701929618451</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.017488789081362</v>
+        <v>1.064950525909587</v>
       </c>
       <c r="D14">
-        <v>1.035883875061203</v>
+        <v>1.067183878071827</v>
       </c>
       <c r="E14">
-        <v>1.031991157986508</v>
+        <v>1.06985821836658</v>
       </c>
       <c r="F14">
-        <v>1.041725827368613</v>
+        <v>1.079638680539267</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.053843216184799</v>
+        <v>1.054383472542422</v>
       </c>
       <c r="J14">
-        <v>1.046186329704516</v>
+        <v>1.071317496513115</v>
       </c>
       <c r="K14">
-        <v>1.050175507188787</v>
+        <v>1.070642697968401</v>
       </c>
       <c r="L14">
-        <v>1.046350186991585</v>
+        <v>1.073307767512045</v>
       </c>
       <c r="M14">
-        <v>1.05591753457941</v>
+        <v>1.083054755159931</v>
       </c>
       <c r="N14">
-        <v>1.047672034291946</v>
+        <v>1.072838890239998</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.018141832689904</v>
+        <v>1.065071175438501</v>
       </c>
       <c r="D15">
-        <v>1.036376854333822</v>
+        <v>1.06727774064253</v>
       </c>
       <c r="E15">
-        <v>1.032529128865634</v>
+        <v>1.069963135768957</v>
       </c>
       <c r="F15">
-        <v>1.042278506355908</v>
+        <v>1.079746665874519</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.054078308855489</v>
+        <v>1.054420448644877</v>
       </c>
       <c r="J15">
-        <v>1.046632245531049</v>
+        <v>1.071401755011999</v>
       </c>
       <c r="K15">
-        <v>1.050575579647978</v>
+        <v>1.070717386995158</v>
       </c>
       <c r="L15">
-        <v>1.046793934038613</v>
+        <v>1.073393528814593</v>
       </c>
       <c r="M15">
-        <v>1.05637710097294</v>
+        <v>1.08314377474265</v>
       </c>
       <c r="N15">
-        <v>1.0481185833701</v>
+        <v>1.072923268395615</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.021903647140419</v>
+        <v>1.065773506694038</v>
       </c>
       <c r="D16">
-        <v>1.039218720199677</v>
+        <v>1.067824147153291</v>
       </c>
       <c r="E16">
-        <v>1.035630935517409</v>
+        <v>1.070574000077108</v>
       </c>
       <c r="F16">
-        <v>1.04546526606706</v>
+        <v>1.080375404289559</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.055429821844668</v>
+        <v>1.054635286382269</v>
       </c>
       <c r="J16">
-        <v>1.049200297220559</v>
+        <v>1.071892056926794</v>
       </c>
       <c r="K16">
-        <v>1.05287951313989</v>
+        <v>1.07115195445281</v>
       </c>
       <c r="L16">
-        <v>1.049350464489362</v>
+        <v>1.073892664121626</v>
       </c>
       <c r="M16">
-        <v>1.059025029975</v>
+        <v>1.083661893673275</v>
       </c>
       <c r="N16">
-        <v>1.050690281987568</v>
+        <v>1.073414266595368</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.0242298064084</v>
+        <v>1.06621414804114</v>
       </c>
       <c r="D17">
-        <v>1.040977778915778</v>
+        <v>1.068166968831764</v>
       </c>
       <c r="E17">
-        <v>1.03755141331429</v>
+        <v>1.070957354817301</v>
       </c>
       <c r="F17">
-        <v>1.047438469925759</v>
+        <v>1.080769986285526</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.056263110284371</v>
+        <v>1.054769714452949</v>
       </c>
       <c r="J17">
-        <v>1.050787689264125</v>
+        <v>1.072199505612133</v>
       </c>
       <c r="K17">
-        <v>1.05430354197888</v>
+        <v>1.07142441058746</v>
       </c>
       <c r="L17">
-        <v>1.050931577702123</v>
+        <v>1.074205729782315</v>
       </c>
       <c r="M17">
-        <v>1.06066289247087</v>
+        <v>1.083986883967893</v>
       </c>
       <c r="N17">
-        <v>1.052279928309913</v>
+        <v>1.073722151893105</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.025574908722224</v>
+        <v>1.066471198392762</v>
       </c>
       <c r="D18">
-        <v>1.041995559668946</v>
+        <v>1.068366957960727</v>
       </c>
       <c r="E18">
-        <v>1.0386627826922</v>
+        <v>1.071181022401966</v>
       </c>
       <c r="F18">
-        <v>1.048580395992743</v>
+        <v>1.081000208039038</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.056744065740172</v>
+        <v>1.054848003707872</v>
       </c>
       <c r="J18">
-        <v>1.051705367394435</v>
+        <v>1.072378797487364</v>
       </c>
       <c r="K18">
-        <v>1.055126737071832</v>
+        <v>1.071583280402138</v>
       </c>
       <c r="L18">
-        <v>1.051845926639708</v>
+        <v>1.074388325302753</v>
       </c>
       <c r="M18">
-        <v>1.061610137561863</v>
+        <v>1.084176440928144</v>
       </c>
       <c r="N18">
-        <v>1.053198909648427</v>
+        <v>1.073901698383363</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.026031602566839</v>
+        <v>1.066558851314697</v>
       </c>
       <c r="D19">
-        <v>1.042341220032689</v>
+        <v>1.068435153663507</v>
       </c>
       <c r="E19">
-        <v>1.039040260900484</v>
+        <v>1.071257297990153</v>
       </c>
       <c r="F19">
-        <v>1.048968260224002</v>
+        <v>1.081078719361117</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.056907208168198</v>
+        <v>1.054874677904034</v>
       </c>
       <c r="J19">
-        <v>1.052016899598195</v>
+        <v>1.072439924982884</v>
       </c>
       <c r="K19">
-        <v>1.055406186715365</v>
+        <v>1.071637442548928</v>
       </c>
       <c r="L19">
-        <v>1.052156379401722</v>
+        <v>1.074450583892729</v>
       </c>
       <c r="M19">
-        <v>1.061931772815502</v>
+        <v>1.084241074205555</v>
       </c>
       <c r="N19">
-        <v>1.053510884263649</v>
+        <v>1.073962912686939</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.02398145070483</v>
+        <v>1.066166868118728</v>
       </c>
       <c r="D20">
-        <v>1.040789907134118</v>
+        <v>1.068130184510554</v>
       </c>
       <c r="E20">
-        <v>1.037346281715932</v>
+        <v>1.070916217937774</v>
       </c>
       <c r="F20">
-        <v>1.047227701867965</v>
+        <v>1.080727644258458</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.056174235430092</v>
+        <v>1.054755304042808</v>
       </c>
       <c r="J20">
-        <v>1.050618232727358</v>
+        <v>1.072166523181752</v>
       </c>
       <c r="K20">
-        <v>1.05415152897508</v>
+        <v>1.071395183715026</v>
       </c>
       <c r="L20">
-        <v>1.050762760178673</v>
+        <v>1.074172141872956</v>
       </c>
       <c r="M20">
-        <v>1.060488007579288</v>
+        <v>1.083952016036866</v>
       </c>
       <c r="N20">
-        <v>1.052110231125427</v>
+        <v>1.07368912262389</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.017175966852838</v>
+        <v>1.064892864321616</v>
       </c>
       <c r="D21">
-        <v>1.035647765564569</v>
+        <v>1.067139018841791</v>
       </c>
       <c r="E21">
-        <v>1.031733510153736</v>
+        <v>1.069808077592124</v>
       </c>
       <c r="F21">
-        <v>1.041461138177564</v>
+        <v>1.079587073782587</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.053730553733938</v>
+        <v>1.054365793461131</v>
       </c>
       <c r="J21">
-        <v>1.045972715953629</v>
+        <v>1.071277223841259</v>
       </c>
       <c r="K21">
-        <v>1.049983852800738</v>
+        <v>1.070606998303105</v>
       </c>
       <c r="L21">
-        <v>1.046137629573889</v>
+        <v>1.073266778116529</v>
       </c>
       <c r="M21">
-        <v>1.055697404303944</v>
+        <v>1.083012208836128</v>
       </c>
       <c r="N21">
-        <v>1.04745811718503</v>
+        <v>1.072798560376329</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.012783336890861</v>
+        <v>1.064092129539551</v>
       </c>
       <c r="D22">
-        <v>1.032334984975893</v>
+        <v>1.066516079358336</v>
       </c>
       <c r="E22">
-        <v>1.028119194610401</v>
+        <v>1.069111917071581</v>
       </c>
       <c r="F22">
-        <v>1.037748232306415</v>
+        <v>1.078870572998807</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.052145399980257</v>
+        <v>1.054119808512717</v>
       </c>
       <c r="J22">
-        <v>1.042972532871279</v>
+        <v>1.070717745833849</v>
       </c>
       <c r="K22">
-        <v>1.047291988524974</v>
+        <v>1.070110991868304</v>
       </c>
       <c r="L22">
-        <v>1.043153454744739</v>
+        <v>1.072697447071348</v>
       </c>
       <c r="M22">
-        <v>1.052607231334383</v>
+        <v>1.082421276311718</v>
       </c>
       <c r="N22">
-        <v>1.044453673498578</v>
+        <v>1.072238287845976</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.015123157424385</v>
+        <v>1.064516587648516</v>
       </c>
       <c r="D23">
-        <v>1.034098983020826</v>
+        <v>1.06684628797351</v>
       </c>
       <c r="E23">
-        <v>1.030043603640341</v>
+        <v>1.069480910711125</v>
       </c>
       <c r="F23">
-        <v>1.039725091394071</v>
+        <v>1.079250344657621</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.052990483980884</v>
+        <v>1.054250312547442</v>
       </c>
       <c r="J23">
-        <v>1.044570779002998</v>
+        <v>1.07101436796918</v>
       </c>
       <c r="K23">
-        <v>1.048726009390887</v>
+        <v>1.070373976223813</v>
       </c>
       <c r="L23">
-        <v>1.044742902442447</v>
+        <v>1.072999269007489</v>
       </c>
       <c r="M23">
-        <v>1.054253062096953</v>
+        <v>1.082734544416927</v>
       </c>
       <c r="N23">
-        <v>1.046054189323126</v>
+        <v>1.072535331218761</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.024093708048023</v>
+        <v>1.066188231782312</v>
       </c>
       <c r="D24">
-        <v>1.040874823738978</v>
+        <v>1.06814680567832</v>
       </c>
       <c r="E24">
-        <v>1.03743899902743</v>
+        <v>1.070934805727396</v>
       </c>
       <c r="F24">
-        <v>1.047322966662098</v>
+        <v>1.080746776585388</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.056214409843042</v>
+        <v>1.054761815858706</v>
       </c>
       <c r="J24">
-        <v>1.050694828191182</v>
+        <v>1.072181426638823</v>
       </c>
       <c r="K24">
-        <v>1.054220239979472</v>
+        <v>1.071408390232673</v>
       </c>
       <c r="L24">
-        <v>1.050839065872424</v>
+        <v>1.074187318835403</v>
       </c>
       <c r="M24">
-        <v>1.060567055487073</v>
+        <v>1.083967771367468</v>
       </c>
       <c r="N24">
-        <v>1.052186935363594</v>
+        <v>1.073704047245578</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.034047721645727</v>
+        <v>1.068129327480412</v>
       </c>
       <c r="D25">
-        <v>1.048416499229667</v>
+        <v>1.069657043806171</v>
       </c>
       <c r="E25">
-        <v>1.045677720191123</v>
+        <v>1.072624450310978</v>
       </c>
       <c r="F25">
-        <v>1.055788955982411</v>
+        <v>1.082485998507096</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.059757221073749</v>
+        <v>1.055350665204271</v>
       </c>
       <c r="J25">
-        <v>1.057481169462114</v>
+        <v>1.073534252787949</v>
       </c>
       <c r="K25">
-        <v>1.060306986160251</v>
+        <v>1.072606838180301</v>
       </c>
       <c r="L25">
-        <v>1.057606040284021</v>
+        <v>1.075565576842517</v>
       </c>
       <c r="M25">
-        <v>1.067578827573738</v>
+        <v>1.085398690167487</v>
       </c>
       <c r="N25">
-        <v>1.058982914017536</v>
+        <v>1.075058794563008</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_59/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.069678564573214</v>
+        <v>1.041658252865464</v>
       </c>
       <c r="D2">
-        <v>1.070862449233158</v>
+        <v>1.054198036963291</v>
       </c>
       <c r="E2">
-        <v>1.073974098786153</v>
+        <v>1.052000113391668</v>
       </c>
       <c r="F2">
-        <v>1.083875362078025</v>
+        <v>1.062286964585049</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055816520875321</v>
+        <v>1.062436517482083</v>
       </c>
       <c r="J2">
-        <v>1.074612070367332</v>
+        <v>1.062660562832402</v>
       </c>
       <c r="K2">
-        <v>1.073561155671785</v>
+        <v>1.064950620045311</v>
       </c>
       <c r="L2">
-        <v>1.076664539590814</v>
+        <v>1.062779594615397</v>
       </c>
       <c r="M2">
-        <v>1.086539842605904</v>
+        <v>1.072941744893947</v>
       </c>
       <c r="N2">
-        <v>1.076138142766981</v>
+        <v>1.064169662720495</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.070804053876516</v>
+        <v>1.047010694300574</v>
       </c>
       <c r="D3">
-        <v>1.071738165512357</v>
+        <v>1.05827173313942</v>
       </c>
       <c r="E3">
-        <v>1.074955216544574</v>
+        <v>1.056458896008096</v>
       </c>
       <c r="F3">
-        <v>1.084885415757727</v>
+        <v>1.06687023286765</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056152564049975</v>
+        <v>1.064303002888137</v>
       </c>
       <c r="J3">
-        <v>1.07539397126052</v>
+        <v>1.066296970335815</v>
       </c>
       <c r="K3">
-        <v>1.074253168507703</v>
+        <v>1.068209595658599</v>
       </c>
       <c r="L3">
-        <v>1.077462290867877</v>
+        <v>1.066416957439088</v>
       </c>
       <c r="M3">
-        <v>1.087368335119355</v>
+        <v>1.076713437411172</v>
       </c>
       <c r="N3">
-        <v>1.076921154049123</v>
+        <v>1.067811234339664</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.071532604912567</v>
+        <v>1.050398968378668</v>
       </c>
       <c r="D4">
-        <v>1.072305035546442</v>
+        <v>1.060853618258986</v>
       </c>
       <c r="E4">
-        <v>1.075590598230983</v>
+        <v>1.059286773106473</v>
       </c>
       <c r="F4">
-        <v>1.085539566606131</v>
+        <v>1.069777337050758</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056368984015565</v>
+        <v>1.065476030928408</v>
       </c>
       <c r="J4">
-        <v>1.075899594543636</v>
+        <v>1.068595780789207</v>
       </c>
       <c r="K4">
-        <v>1.074700527454672</v>
+        <v>1.070269144285313</v>
       </c>
       <c r="L4">
-        <v>1.077978399741001</v>
+        <v>1.068718678703295</v>
       </c>
       <c r="M4">
-        <v>1.087904385166167</v>
+        <v>1.079100691013996</v>
       </c>
       <c r="N4">
-        <v>1.077427495375297</v>
+        <v>1.070113309367577</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.071838956049593</v>
+        <v>1.051806132443718</v>
       </c>
       <c r="D5">
-        <v>1.072543400635415</v>
+        <v>1.061926572300627</v>
       </c>
       <c r="E5">
-        <v>1.075857839865926</v>
+        <v>1.060462427384118</v>
       </c>
       <c r="F5">
-        <v>1.085814709691299</v>
+        <v>1.070985992367173</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05645972205821</v>
+        <v>1.065961112242053</v>
       </c>
       <c r="J5">
-        <v>1.076112082065859</v>
+        <v>1.069549689517578</v>
       </c>
       <c r="K5">
-        <v>1.074888496437916</v>
+        <v>1.07112360042764</v>
       </c>
       <c r="L5">
-        <v>1.07819535020311</v>
+        <v>1.069674344748658</v>
       </c>
       <c r="M5">
-        <v>1.088129730698998</v>
+        <v>1.080091993293524</v>
       </c>
       <c r="N5">
-        <v>1.077640284654173</v>
+        <v>1.071068572755757</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.071890397764809</v>
+        <v>1.052041409051959</v>
       </c>
       <c r="D6">
-        <v>1.072583426272726</v>
+        <v>1.062106008032802</v>
       </c>
       <c r="E6">
-        <v>1.075902718358299</v>
+        <v>1.060659066359423</v>
       </c>
       <c r="F6">
-        <v>1.08586091550955</v>
+        <v>1.071188154721959</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056474943009227</v>
+        <v>1.066042093937093</v>
       </c>
       <c r="J6">
-        <v>1.076147755164744</v>
+        <v>1.069709134281095</v>
       </c>
       <c r="K6">
-        <v>1.074920051343732</v>
+        <v>1.071266411573542</v>
       </c>
       <c r="L6">
-        <v>1.078231775859559</v>
+        <v>1.069834115440262</v>
       </c>
       <c r="M6">
-        <v>1.088167566615103</v>
+        <v>1.080257728912018</v>
       </c>
       <c r="N6">
-        <v>1.077676008412951</v>
+        <v>1.071228243949127</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.071536698122831</v>
+        <v>1.050417837900079</v>
       </c>
       <c r="D7">
-        <v>1.072308220385046</v>
+        <v>1.060868003514873</v>
       </c>
       <c r="E7">
-        <v>1.075594168627578</v>
+        <v>1.059302533395477</v>
       </c>
       <c r="F7">
-        <v>1.085543242539535</v>
+        <v>1.069793539489749</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056370197424228</v>
+        <v>1.065482543955566</v>
       </c>
       <c r="J7">
-        <v>1.075902434113124</v>
+        <v>1.068608575531765</v>
       </c>
       <c r="K7">
-        <v>1.074703039501495</v>
+        <v>1.070280605755512</v>
       </c>
       <c r="L7">
-        <v>1.077981298729325</v>
+        <v>1.068731494849909</v>
       </c>
       <c r="M7">
-        <v>1.087907396283538</v>
+        <v>1.079113984583354</v>
       </c>
       <c r="N7">
-        <v>1.077430338977299</v>
+        <v>1.070126122280137</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.070058870253229</v>
+        <v>1.043483132227564</v>
       </c>
       <c r="D8">
-        <v>1.071158355183948</v>
+        <v>1.055586250390275</v>
       </c>
       <c r="E8">
-        <v>1.074305561545868</v>
+        <v>1.053519157507104</v>
       </c>
       <c r="F8">
-        <v>1.084216594382454</v>
+        <v>1.063848359912507</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055930299859339</v>
+        <v>1.063074647873761</v>
       </c>
       <c r="J8">
-        <v>1.074876383360762</v>
+        <v>1.063901009962483</v>
       </c>
       <c r="K8">
-        <v>1.073795111381874</v>
+        <v>1.066062450924637</v>
       </c>
       <c r="L8">
-        <v>1.076934161748267</v>
+        <v>1.064019880374117</v>
       </c>
       <c r="M8">
-        <v>1.086819843615922</v>
+        <v>1.07422772199394</v>
       </c>
       <c r="N8">
-        <v>1.076402831115179</v>
+        <v>1.065411871427781</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.067456914161877</v>
+        <v>1.030653671044915</v>
       </c>
       <c r="D9">
-        <v>1.069133874530885</v>
+        <v>1.045842361564865</v>
       </c>
       <c r="E9">
-        <v>1.07203896995672</v>
+        <v>1.042864674326893</v>
       </c>
       <c r="F9">
-        <v>1.081883321353081</v>
+        <v>1.052898110715045</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.055147319422088</v>
+        <v>1.058553755204561</v>
       </c>
       <c r="J9">
-        <v>1.073065915644923</v>
+        <v>1.055168543088255</v>
       </c>
       <c r="K9">
-        <v>1.072192023280503</v>
+        <v>1.058233021760949</v>
       </c>
       <c r="L9">
-        <v>1.075088298441252</v>
+        <v>1.055298580489785</v>
       </c>
       <c r="M9">
-        <v>1.084903144681253</v>
+        <v>1.065187533276431</v>
       </c>
       <c r="N9">
-        <v>1.07458979232752</v>
+        <v>1.056667003448964</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.065723714259715</v>
+        <v>1.021639157950788</v>
       </c>
       <c r="D10">
-        <v>1.067785408671057</v>
+        <v>1.039018796083064</v>
       </c>
       <c r="E10">
-        <v>1.070530685865825</v>
+        <v>1.03541269135816</v>
       </c>
       <c r="F10">
-        <v>1.080330822035578</v>
+        <v>1.045241036251433</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.054620078431268</v>
+        <v>1.055334954529251</v>
       </c>
       <c r="J10">
-        <v>1.071857307159609</v>
+        <v>1.04901977716836</v>
       </c>
       <c r="K10">
-        <v>1.071121157627599</v>
+        <v>1.05271756554418</v>
       </c>
       <c r="L10">
-        <v>1.073857283286744</v>
+        <v>1.04917069968981</v>
       </c>
       <c r="M10">
-        <v>1.083625166053566</v>
+        <v>1.058838823884225</v>
       </c>
       <c r="N10">
-        <v>1.073379467479527</v>
+        <v>1.050509505576189</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.064973555533089</v>
+        <v>1.01761359853022</v>
       </c>
       <c r="D11">
-        <v>1.067201794555617</v>
+        <v>1.035978084702489</v>
       </c>
       <c r="E11">
-        <v>1.06987824459546</v>
+        <v>1.032093963424993</v>
       </c>
       <c r="F11">
-        <v>1.07965929231854</v>
+        <v>1.041831442910021</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.054390532135079</v>
+        <v>1.053888157491771</v>
       </c>
       <c r="J11">
-        <v>1.07133358052988</v>
+        <v>1.046271555231101</v>
       </c>
       <c r="K11">
-        <v>1.070656955469638</v>
+        <v>1.050251971285224</v>
       </c>
       <c r="L11">
-        <v>1.073324138055048</v>
+        <v>1.046434994211611</v>
       </c>
       <c r="M11">
-        <v>1.083071747581215</v>
+        <v>1.056005364105541</v>
       </c>
       <c r="N11">
-        <v>1.072854997097911</v>
+        <v>1.047757380848553</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.064694961962275</v>
+        <v>1.016098779688817</v>
       </c>
       <c r="D12">
-        <v>1.066985056730675</v>
+        <v>1.034834925771474</v>
       </c>
       <c r="E12">
-        <v>1.069635997582188</v>
+        <v>1.030846570994085</v>
       </c>
       <c r="F12">
-        <v>1.079409963618138</v>
+        <v>1.040549973027289</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.054305081026735</v>
+        <v>1.053342372459379</v>
       </c>
       <c r="J12">
-        <v>1.071138986339907</v>
+        <v>1.045237099096731</v>
       </c>
       <c r="K12">
-        <v>1.070484453546394</v>
+        <v>1.049323849069591</v>
       </c>
       <c r="L12">
-        <v>1.073126088109804</v>
+        <v>1.04540573607241</v>
       </c>
       <c r="M12">
-        <v>1.082866176663262</v>
+        <v>1.05493945863061</v>
       </c>
       <c r="N12">
-        <v>1.072660126561869</v>
+        <v>1.046721455667819</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.064754719030055</v>
+        <v>1.01642461811254</v>
       </c>
       <c r="D13">
-        <v>1.067031545804385</v>
+        <v>1.035080770438511</v>
       </c>
       <c r="E13">
-        <v>1.069687955917921</v>
+        <v>1.031114819130122</v>
       </c>
       <c r="F13">
-        <v>1.079463440609411</v>
+        <v>1.040825545922516</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.054323419059068</v>
+        <v>1.053459831405259</v>
       </c>
       <c r="J13">
-        <v>1.07118073011554</v>
+        <v>1.045459623730162</v>
       </c>
       <c r="K13">
-        <v>1.070521459258161</v>
+        <v>1.049523501920312</v>
       </c>
       <c r="L13">
-        <v>1.073168571220999</v>
+        <v>1.045627120420374</v>
       </c>
       <c r="M13">
-        <v>1.082910272621801</v>
+        <v>1.055168719483379</v>
       </c>
       <c r="N13">
-        <v>1.072701929618451</v>
+        <v>1.046944296311754</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.064950525909587</v>
+        <v>1.017488789081362</v>
       </c>
       <c r="D14">
-        <v>1.067183878071827</v>
+        <v>1.035883875061203</v>
       </c>
       <c r="E14">
-        <v>1.06985821836658</v>
+        <v>1.031991157986508</v>
       </c>
       <c r="F14">
-        <v>1.079638680539267</v>
+        <v>1.041725827368612</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.054383472542422</v>
+        <v>1.053843216184799</v>
       </c>
       <c r="J14">
-        <v>1.071317496513115</v>
+        <v>1.046186329704516</v>
       </c>
       <c r="K14">
-        <v>1.070642697968401</v>
+        <v>1.050175507188786</v>
       </c>
       <c r="L14">
-        <v>1.073307767512045</v>
+        <v>1.046350186991585</v>
       </c>
       <c r="M14">
-        <v>1.083054755159931</v>
+        <v>1.05591753457941</v>
       </c>
       <c r="N14">
-        <v>1.072838890239998</v>
+        <v>1.047672034291945</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.065071175438501</v>
+        <v>1.018141832689906</v>
       </c>
       <c r="D15">
-        <v>1.06727774064253</v>
+        <v>1.036376854333824</v>
       </c>
       <c r="E15">
-        <v>1.069963135768957</v>
+        <v>1.032529128865636</v>
       </c>
       <c r="F15">
-        <v>1.079746665874519</v>
+        <v>1.04227850635591</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.054420448644877</v>
+        <v>1.05407830885549</v>
       </c>
       <c r="J15">
-        <v>1.071401755011999</v>
+        <v>1.046632245531051</v>
       </c>
       <c r="K15">
-        <v>1.070717386995158</v>
+        <v>1.05057557964798</v>
       </c>
       <c r="L15">
-        <v>1.073393528814593</v>
+        <v>1.046793934038615</v>
       </c>
       <c r="M15">
-        <v>1.08314377474265</v>
+        <v>1.056377100972942</v>
       </c>
       <c r="N15">
-        <v>1.072923268395615</v>
+        <v>1.048118583370102</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.065773506694038</v>
+        <v>1.021903647140419</v>
       </c>
       <c r="D16">
-        <v>1.067824147153291</v>
+        <v>1.039218720199677</v>
       </c>
       <c r="E16">
-        <v>1.070574000077108</v>
+        <v>1.035630935517409</v>
       </c>
       <c r="F16">
-        <v>1.080375404289559</v>
+        <v>1.04546526606706</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.054635286382269</v>
+        <v>1.055429821844668</v>
       </c>
       <c r="J16">
-        <v>1.071892056926794</v>
+        <v>1.049200297220559</v>
       </c>
       <c r="K16">
-        <v>1.07115195445281</v>
+        <v>1.05287951313989</v>
       </c>
       <c r="L16">
-        <v>1.073892664121626</v>
+        <v>1.049350464489363</v>
       </c>
       <c r="M16">
-        <v>1.083661893673275</v>
+        <v>1.059025029975</v>
       </c>
       <c r="N16">
-        <v>1.073414266595368</v>
+        <v>1.050690281987568</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.06621414804114</v>
+        <v>1.0242298064084</v>
       </c>
       <c r="D17">
-        <v>1.068166968831764</v>
+        <v>1.040977778915778</v>
       </c>
       <c r="E17">
-        <v>1.070957354817301</v>
+        <v>1.037551413314291</v>
       </c>
       <c r="F17">
-        <v>1.080769986285526</v>
+        <v>1.047438469925759</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054769714452949</v>
+        <v>1.05626311028437</v>
       </c>
       <c r="J17">
-        <v>1.072199505612133</v>
+        <v>1.050787689264125</v>
       </c>
       <c r="K17">
-        <v>1.07142441058746</v>
+        <v>1.05430354197888</v>
       </c>
       <c r="L17">
-        <v>1.074205729782315</v>
+        <v>1.050931577702123</v>
       </c>
       <c r="M17">
-        <v>1.083986883967893</v>
+        <v>1.06066289247087</v>
       </c>
       <c r="N17">
-        <v>1.073722151893105</v>
+        <v>1.052279928309914</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.066471198392762</v>
+        <v>1.025574908722225</v>
       </c>
       <c r="D18">
-        <v>1.068366957960727</v>
+        <v>1.041995559668947</v>
       </c>
       <c r="E18">
-        <v>1.071181022401966</v>
+        <v>1.0386627826922</v>
       </c>
       <c r="F18">
-        <v>1.081000208039038</v>
+        <v>1.048580395992743</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.054848003707872</v>
+        <v>1.056744065740172</v>
       </c>
       <c r="J18">
-        <v>1.072378797487364</v>
+        <v>1.051705367394436</v>
       </c>
       <c r="K18">
-        <v>1.071583280402138</v>
+        <v>1.055126737071833</v>
       </c>
       <c r="L18">
-        <v>1.074388325302753</v>
+        <v>1.051845926639708</v>
       </c>
       <c r="M18">
-        <v>1.084176440928144</v>
+        <v>1.061610137561863</v>
       </c>
       <c r="N18">
-        <v>1.073901698383363</v>
+        <v>1.053198909648428</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.066558851314697</v>
+        <v>1.026031602566838</v>
       </c>
       <c r="D19">
-        <v>1.068435153663507</v>
+        <v>1.042341220032689</v>
       </c>
       <c r="E19">
-        <v>1.071257297990153</v>
+        <v>1.039040260900484</v>
       </c>
       <c r="F19">
-        <v>1.081078719361117</v>
+        <v>1.048968260224002</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.054874677904034</v>
+        <v>1.056907208168198</v>
       </c>
       <c r="J19">
-        <v>1.072439924982884</v>
+        <v>1.052016899598195</v>
       </c>
       <c r="K19">
-        <v>1.071637442548928</v>
+        <v>1.055406186715365</v>
       </c>
       <c r="L19">
-        <v>1.074450583892729</v>
+        <v>1.052156379401722</v>
       </c>
       <c r="M19">
-        <v>1.084241074205555</v>
+        <v>1.061931772815502</v>
       </c>
       <c r="N19">
-        <v>1.073962912686939</v>
+        <v>1.053510884263649</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C20">
-        <v>1.066166868118728</v>
+        <v>1.023981450704831</v>
       </c>
       <c r="D20">
-        <v>1.068130184510554</v>
+        <v>1.040789907134118</v>
       </c>
       <c r="E20">
-        <v>1.070916217937774</v>
+        <v>1.037346281715932</v>
       </c>
       <c r="F20">
-        <v>1.080727644258458</v>
+        <v>1.047227701867965</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054755304042808</v>
+        <v>1.056174235430092</v>
       </c>
       <c r="J20">
-        <v>1.072166523181752</v>
+        <v>1.050618232727359</v>
       </c>
       <c r="K20">
-        <v>1.071395183715026</v>
+        <v>1.05415152897508</v>
       </c>
       <c r="L20">
-        <v>1.074172141872956</v>
+        <v>1.050762760178674</v>
       </c>
       <c r="M20">
-        <v>1.083952016036866</v>
+        <v>1.060488007579288</v>
       </c>
       <c r="N20">
-        <v>1.07368912262389</v>
+        <v>1.052110231125427</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.064892864321616</v>
+        <v>1.017175966852838</v>
       </c>
       <c r="D21">
-        <v>1.067139018841791</v>
+        <v>1.035647765564569</v>
       </c>
       <c r="E21">
-        <v>1.069808077592124</v>
+        <v>1.031733510153735</v>
       </c>
       <c r="F21">
-        <v>1.079587073782587</v>
+        <v>1.041461138177564</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.054365793461131</v>
+        <v>1.053730553733937</v>
       </c>
       <c r="J21">
-        <v>1.071277223841259</v>
+        <v>1.045972715953628</v>
       </c>
       <c r="K21">
-        <v>1.070606998303105</v>
+        <v>1.049983852800738</v>
       </c>
       <c r="L21">
-        <v>1.073266778116529</v>
+        <v>1.046137629573888</v>
       </c>
       <c r="M21">
-        <v>1.083012208836128</v>
+        <v>1.055697404303943</v>
       </c>
       <c r="N21">
-        <v>1.072798560376329</v>
+        <v>1.04745811718503</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.064092129539551</v>
+        <v>1.01278333689086</v>
       </c>
       <c r="D22">
-        <v>1.066516079358336</v>
+        <v>1.032334984975892</v>
       </c>
       <c r="E22">
-        <v>1.069111917071581</v>
+        <v>1.0281191946104</v>
       </c>
       <c r="F22">
-        <v>1.078870572998807</v>
+        <v>1.037748232306415</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.054119808512717</v>
+        <v>1.052145399980257</v>
       </c>
       <c r="J22">
-        <v>1.070717745833849</v>
+        <v>1.042972532871278</v>
       </c>
       <c r="K22">
-        <v>1.070110991868304</v>
+        <v>1.047291988524974</v>
       </c>
       <c r="L22">
-        <v>1.072697447071348</v>
+        <v>1.043153454744738</v>
       </c>
       <c r="M22">
-        <v>1.082421276311718</v>
+        <v>1.052607231334383</v>
       </c>
       <c r="N22">
-        <v>1.072238287845976</v>
+        <v>1.044453673498577</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.064516587648516</v>
+        <v>1.015123157424384</v>
       </c>
       <c r="D23">
-        <v>1.06684628797351</v>
+        <v>1.034098983020825</v>
       </c>
       <c r="E23">
-        <v>1.069480910711125</v>
+        <v>1.03004360364034</v>
       </c>
       <c r="F23">
-        <v>1.079250344657621</v>
+        <v>1.039725091394071</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.054250312547442</v>
+        <v>1.052990483980883</v>
       </c>
       <c r="J23">
-        <v>1.07101436796918</v>
+        <v>1.044570779002997</v>
       </c>
       <c r="K23">
-        <v>1.070373976223813</v>
+        <v>1.048726009390887</v>
       </c>
       <c r="L23">
-        <v>1.072999269007489</v>
+        <v>1.044742902442446</v>
       </c>
       <c r="M23">
-        <v>1.082734544416927</v>
+        <v>1.054253062096953</v>
       </c>
       <c r="N23">
-        <v>1.072535331218761</v>
+        <v>1.046054189323125</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.066188231782312</v>
+        <v>1.024093708048023</v>
       </c>
       <c r="D24">
-        <v>1.06814680567832</v>
+        <v>1.040874823738978</v>
       </c>
       <c r="E24">
-        <v>1.070934805727396</v>
+        <v>1.03743899902743</v>
       </c>
       <c r="F24">
-        <v>1.080746776585388</v>
+        <v>1.047322966662098</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.054761815858706</v>
+        <v>1.056214409843042</v>
       </c>
       <c r="J24">
-        <v>1.072181426638823</v>
+        <v>1.050694828191181</v>
       </c>
       <c r="K24">
-        <v>1.071408390232673</v>
+        <v>1.054220239979473</v>
       </c>
       <c r="L24">
-        <v>1.074187318835403</v>
+        <v>1.050839065872424</v>
       </c>
       <c r="M24">
-        <v>1.083967771367468</v>
+        <v>1.060567055487073</v>
       </c>
       <c r="N24">
-        <v>1.073704047245578</v>
+        <v>1.052186935363594</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.068129327480412</v>
+        <v>1.034047721645726</v>
       </c>
       <c r="D25">
-        <v>1.069657043806171</v>
+        <v>1.048416499229667</v>
       </c>
       <c r="E25">
-        <v>1.072624450310978</v>
+        <v>1.045677720191123</v>
       </c>
       <c r="F25">
-        <v>1.082485998507096</v>
+        <v>1.055788955982412</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.055350665204271</v>
+        <v>1.059757221073749</v>
       </c>
       <c r="J25">
-        <v>1.073534252787949</v>
+        <v>1.057481169462114</v>
       </c>
       <c r="K25">
-        <v>1.072606838180301</v>
+        <v>1.060306986160251</v>
       </c>
       <c r="L25">
-        <v>1.075565576842517</v>
+        <v>1.057606040284021</v>
       </c>
       <c r="M25">
-        <v>1.085398690167487</v>
+        <v>1.067578827573738</v>
       </c>
       <c r="N25">
-        <v>1.075058794563008</v>
+        <v>1.058982914017536</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_59/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.041658252865464</v>
+        <v>0.9913902492697987</v>
       </c>
       <c r="D2">
-        <v>1.054198036963291</v>
+        <v>1.014495427269725</v>
       </c>
       <c r="E2">
-        <v>1.052000113391668</v>
+        <v>0.9990544148232253</v>
       </c>
       <c r="F2">
-        <v>1.062286964585049</v>
+        <v>1.025750961921498</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.062436517482083</v>
+        <v>1.041422684667349</v>
       </c>
       <c r="J2">
-        <v>1.062660562832402</v>
+        <v>1.013831561831777</v>
       </c>
       <c r="K2">
-        <v>1.064950620045311</v>
+        <v>1.025756444996629</v>
       </c>
       <c r="L2">
-        <v>1.062779594615397</v>
+        <v>1.010526938887195</v>
       </c>
       <c r="M2">
-        <v>1.072941744893947</v>
+        <v>1.036862833527265</v>
       </c>
       <c r="N2">
-        <v>1.064169662720495</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.008610061904705</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.0377468452021</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.029282128650617</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.047010694300574</v>
+        <v>0.9948351380433084</v>
       </c>
       <c r="D3">
-        <v>1.05827173313942</v>
+        <v>1.016667139593447</v>
       </c>
       <c r="E3">
-        <v>1.056458896008096</v>
+        <v>1.001719768794528</v>
       </c>
       <c r="F3">
-        <v>1.06687023286765</v>
+        <v>1.028698357657262</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.064303002888137</v>
+        <v>1.042002292591264</v>
       </c>
       <c r="J3">
-        <v>1.066296970335815</v>
+        <v>1.015467599568607</v>
       </c>
       <c r="K3">
-        <v>1.068209595658599</v>
+        <v>1.027091111937774</v>
       </c>
       <c r="L3">
-        <v>1.066416957439088</v>
+        <v>1.012330692050179</v>
       </c>
       <c r="M3">
-        <v>1.076713437411172</v>
+        <v>1.038976747471812</v>
       </c>
       <c r="N3">
-        <v>1.067811234339664</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.009164099612207</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.039419870820618</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.030223178467329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.050398968378668</v>
+        <v>0.9970277992275912</v>
       </c>
       <c r="D4">
-        <v>1.060853618258986</v>
+        <v>1.01805256801604</v>
       </c>
       <c r="E4">
-        <v>1.059286773106473</v>
+        <v>1.003422323787548</v>
       </c>
       <c r="F4">
-        <v>1.069777337050758</v>
+        <v>1.030570754784991</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.065476030928408</v>
+        <v>1.042360244619365</v>
       </c>
       <c r="J4">
-        <v>1.068595780789207</v>
+        <v>1.016507840995515</v>
       </c>
       <c r="K4">
-        <v>1.070269144285313</v>
+        <v>1.027937889451659</v>
       </c>
       <c r="L4">
-        <v>1.068718678703295</v>
+        <v>1.013479619121903</v>
       </c>
       <c r="M4">
-        <v>1.079100691013996</v>
+        <v>1.040313703857053</v>
       </c>
       <c r="N4">
-        <v>1.070113309367577</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.009516268984977</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.04047798296923</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.030822844227804</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.051806132443718</v>
+        <v>0.9979437804127068</v>
       </c>
       <c r="D5">
-        <v>1.061926572300627</v>
+        <v>1.018634135303038</v>
       </c>
       <c r="E5">
-        <v>1.060462427384118</v>
+        <v>1.004135303347467</v>
       </c>
       <c r="F5">
-        <v>1.070985992367173</v>
+        <v>1.0313502781765</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.065961112242053</v>
+        <v>1.042508323604402</v>
       </c>
       <c r="J5">
-        <v>1.069549689517578</v>
+        <v>1.0169434484946</v>
       </c>
       <c r="K5">
-        <v>1.07112360042764</v>
+        <v>1.028293650981669</v>
       </c>
       <c r="L5">
-        <v>1.069674344748658</v>
+        <v>1.013960719478709</v>
       </c>
       <c r="M5">
-        <v>1.080091993293524</v>
+        <v>1.040869006945571</v>
       </c>
       <c r="N5">
-        <v>1.071068572755757</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.009663914916914</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.040917468011304</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.031081661080925</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.052041409051959</v>
+        <v>0.9981003231932174</v>
       </c>
       <c r="D6">
-        <v>1.062106008032802</v>
+        <v>1.018736103960052</v>
       </c>
       <c r="E6">
-        <v>1.060659066359423</v>
+        <v>1.00425761454291</v>
       </c>
       <c r="F6">
-        <v>1.071188154721959</v>
+        <v>1.031481272152041</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.066042093937093</v>
+        <v>1.042534946906601</v>
       </c>
       <c r="J6">
-        <v>1.069709134281095</v>
+        <v>1.017019494681058</v>
       </c>
       <c r="K6">
-        <v>1.071266411573542</v>
+        <v>1.028357694161366</v>
       </c>
       <c r="L6">
-        <v>1.069834115440262</v>
+        <v>1.014044115063452</v>
       </c>
       <c r="M6">
-        <v>1.080257728912018</v>
+        <v>1.040962397693888</v>
       </c>
       <c r="N6">
-        <v>1.071228243949127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.009689931798322</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.04099138048037</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.031135796428494</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.050417837900079</v>
+        <v>0.9970487656458018</v>
       </c>
       <c r="D7">
-        <v>1.060868003514873</v>
+        <v>1.018072658447565</v>
       </c>
       <c r="E7">
-        <v>1.059302533395477</v>
+        <v>1.00343965920172</v>
       </c>
       <c r="F7">
-        <v>1.069793539489749</v>
+        <v>1.030582756888726</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.065482543955566</v>
+        <v>1.042367594241471</v>
       </c>
       <c r="J7">
-        <v>1.068608575531765</v>
+        <v>1.016522148312794</v>
       </c>
       <c r="K7">
-        <v>1.070280605755512</v>
+        <v>1.027954818002233</v>
       </c>
       <c r="L7">
-        <v>1.068731494849909</v>
+        <v>1.013493759508971</v>
       </c>
       <c r="M7">
-        <v>1.079113984583354</v>
+        <v>1.040322689090598</v>
       </c>
       <c r="N7">
-        <v>1.070126122280137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.009521781693244</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.040485094179321</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.030855170322365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.043483132227564</v>
+        <v>0.9925729897936183</v>
       </c>
       <c r="D8">
-        <v>1.055586250390275</v>
+        <v>1.015248721492772</v>
       </c>
       <c r="E8">
-        <v>1.053519157507104</v>
+        <v>0.9999695638073338</v>
       </c>
       <c r="F8">
-        <v>1.063848359912507</v>
+        <v>1.02675632403353</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.063074647873761</v>
+        <v>1.041628770283765</v>
       </c>
       <c r="J8">
-        <v>1.063901009962483</v>
+        <v>1.014398849550869</v>
       </c>
       <c r="K8">
-        <v>1.066062450924637</v>
+        <v>1.026226025992104</v>
       </c>
       <c r="L8">
-        <v>1.064019880374117</v>
+        <v>1.011149947386033</v>
       </c>
       <c r="M8">
-        <v>1.07422772199394</v>
+        <v>1.037585661895932</v>
       </c>
       <c r="N8">
-        <v>1.065411871427781</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.008803064478702</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.038318917358597</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.029637361064569</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.030653671044915</v>
+        <v>0.9843817986630582</v>
       </c>
       <c r="D9">
-        <v>1.045842361564865</v>
+        <v>1.010096439222876</v>
       </c>
       <c r="E9">
-        <v>1.042864674326893</v>
+        <v>0.9936665631773702</v>
       </c>
       <c r="F9">
-        <v>1.052898110715045</v>
+        <v>1.019734766220443</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.058553755204561</v>
+        <v>1.040185162357424</v>
       </c>
       <c r="J9">
-        <v>1.055168543088255</v>
+        <v>1.010498392352378</v>
       </c>
       <c r="K9">
-        <v>1.058233021760949</v>
+        <v>1.023027805394345</v>
       </c>
       <c r="L9">
-        <v>1.055298580489785</v>
+        <v>1.006863238604788</v>
       </c>
       <c r="M9">
-        <v>1.065187533276431</v>
+        <v>1.032515573981437</v>
       </c>
       <c r="N9">
-        <v>1.056667003448964</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.007480923920518</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.034306259209769</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.027372739177713</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.021639157950788</v>
+        <v>0.9787368920311346</v>
       </c>
       <c r="D10">
-        <v>1.039018796083064</v>
+        <v>1.006587211296489</v>
       </c>
       <c r="E10">
-        <v>1.03541269135816</v>
+        <v>0.9893621254178619</v>
       </c>
       <c r="F10">
-        <v>1.045241036251433</v>
+        <v>1.015405847276719</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.055334954529251</v>
+        <v>1.039213500326153</v>
       </c>
       <c r="J10">
-        <v>1.04901977716836</v>
+        <v>1.007820293877779</v>
       </c>
       <c r="K10">
-        <v>1.05271756554418</v>
+        <v>1.020838541500223</v>
       </c>
       <c r="L10">
-        <v>1.04917069968981</v>
+        <v>1.003926143537589</v>
       </c>
       <c r="M10">
-        <v>1.058838823884225</v>
+        <v>1.029502406166064</v>
       </c>
       <c r="N10">
-        <v>1.050509505576189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.006575300279291</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.031973361766153</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.025841784863487</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.01761359853022</v>
+        <v>0.9764304214537999</v>
       </c>
       <c r="D11">
-        <v>1.035978084702489</v>
+        <v>1.005297069462287</v>
       </c>
       <c r="E11">
-        <v>1.032093963424993</v>
+        <v>0.9876395896573886</v>
       </c>
       <c r="F11">
-        <v>1.041831442910021</v>
+        <v>1.017746469414044</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.053888157491771</v>
+        <v>1.039385274468506</v>
       </c>
       <c r="J11">
-        <v>1.046271555231101</v>
+        <v>1.006817692114773</v>
       </c>
       <c r="K11">
-        <v>1.050251971285224</v>
+        <v>1.020119777443847</v>
       </c>
       <c r="L11">
-        <v>1.046434994211611</v>
+        <v>1.002798431368634</v>
       </c>
       <c r="M11">
-        <v>1.056005364105541</v>
+        <v>1.032341297800653</v>
       </c>
       <c r="N11">
-        <v>1.047757380848553</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.006256886910488</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.034658175413212</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.025366847881056</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.016098779688817</v>
+        <v>0.9755949415600711</v>
       </c>
       <c r="D12">
-        <v>1.034834925771474</v>
+        <v>1.004846639064433</v>
       </c>
       <c r="E12">
-        <v>1.030846570994085</v>
+        <v>0.9870238729189145</v>
       </c>
       <c r="F12">
-        <v>1.040549973027289</v>
+        <v>1.019941199825222</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.053342372459379</v>
+        <v>1.039593468570543</v>
       </c>
       <c r="J12">
-        <v>1.045237099096731</v>
+        <v>1.006469324626241</v>
       </c>
       <c r="K12">
-        <v>1.049323849069591</v>
+        <v>1.019881570474497</v>
       </c>
       <c r="L12">
-        <v>1.04540573607241</v>
+        <v>1.002403970271545</v>
       </c>
       <c r="M12">
-        <v>1.05493945863061</v>
+        <v>1.034696076702028</v>
       </c>
       <c r="N12">
-        <v>1.046721455667819</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.006155825456335</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.036847822106477</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.025198423685692</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.01642461811254</v>
+        <v>0.9758464781459404</v>
       </c>
       <c r="D13">
-        <v>1.035080770438511</v>
+        <v>1.005027650357657</v>
       </c>
       <c r="E13">
-        <v>1.031114819130122</v>
+        <v>0.9872258297963351</v>
       </c>
       <c r="F13">
-        <v>1.040825545922516</v>
+        <v>1.022209598637139</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.053459831405259</v>
+        <v>1.039858109360609</v>
       </c>
       <c r="J13">
-        <v>1.045459623730162</v>
+        <v>1.006612934379769</v>
       </c>
       <c r="K13">
-        <v>1.049523501920312</v>
+        <v>1.020015445758409</v>
       </c>
       <c r="L13">
-        <v>1.045627120420374</v>
+        <v>1.002557052085315</v>
       </c>
       <c r="M13">
-        <v>1.055168719483379</v>
+        <v>1.036880670072514</v>
       </c>
       <c r="N13">
-        <v>1.046944296311754</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.006220174904583</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.03885200073812</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.025290554541561</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.017488789081362</v>
+        <v>0.9765135443328181</v>
       </c>
       <c r="D14">
-        <v>1.035883875061203</v>
+        <v>1.005437018077019</v>
       </c>
       <c r="E14">
-        <v>1.031991157986508</v>
+        <v>0.987736360609633</v>
       </c>
       <c r="F14">
-        <v>1.041725827368612</v>
+        <v>1.023773759100432</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.053843216184799</v>
+        <v>1.04005635440782</v>
       </c>
       <c r="J14">
-        <v>1.046186329704516</v>
+        <v>1.006934217277917</v>
       </c>
       <c r="K14">
-        <v>1.050175507188786</v>
+        <v>1.020273958773573</v>
       </c>
       <c r="L14">
-        <v>1.046350186991585</v>
+        <v>1.002910595199391</v>
       </c>
       <c r="M14">
-        <v>1.05591753457941</v>
+        <v>1.038277244530549</v>
       </c>
       <c r="N14">
-        <v>1.047672034291945</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.006339617107487</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.040129280176868</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.025474779731903</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.018141832689906</v>
+        <v>0.9769184495755256</v>
       </c>
       <c r="D15">
-        <v>1.036376854333824</v>
+        <v>1.005685816010658</v>
       </c>
       <c r="E15">
-        <v>1.032529128865636</v>
+        <v>0.9880443586143787</v>
       </c>
       <c r="F15">
-        <v>1.04227850635591</v>
+        <v>1.024263000751008</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.05407830885549</v>
+        <v>1.040135944671309</v>
       </c>
       <c r="J15">
-        <v>1.046632245531051</v>
+        <v>1.007126885662222</v>
       </c>
       <c r="K15">
-        <v>1.05057557964798</v>
+        <v>1.020429960709956</v>
       </c>
       <c r="L15">
-        <v>1.046793934038615</v>
+        <v>1.003122114864609</v>
       </c>
       <c r="M15">
-        <v>1.056377100972942</v>
+        <v>1.038671942924913</v>
       </c>
       <c r="N15">
-        <v>1.048118583370102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.006407371101339</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.040478774489231</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.02559103006885</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.021903647140419</v>
+        <v>0.9792489683404519</v>
       </c>
       <c r="D16">
-        <v>1.039218720199677</v>
+        <v>1.007130011334641</v>
       </c>
       <c r="E16">
-        <v>1.035630935517409</v>
+        <v>0.9898119834307014</v>
       </c>
       <c r="F16">
-        <v>1.04546526606706</v>
+        <v>1.025678832401653</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.055429821844668</v>
+        <v>1.040504560406663</v>
       </c>
       <c r="J16">
-        <v>1.049200297220559</v>
+        <v>1.008231281442047</v>
       </c>
       <c r="K16">
-        <v>1.05287951313989</v>
+        <v>1.021335410503104</v>
       </c>
       <c r="L16">
-        <v>1.049350464489363</v>
+        <v>1.004330428029702</v>
       </c>
       <c r="M16">
-        <v>1.059025029975</v>
+        <v>1.039564062467306</v>
       </c>
       <c r="N16">
-        <v>1.050690281987568</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.006778059055677</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.041145198941356</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.026234441198201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.0242298064084</v>
+        <v>0.9806942522085025</v>
       </c>
       <c r="D17">
-        <v>1.040977778915778</v>
+        <v>1.008031876085937</v>
       </c>
       <c r="E17">
-        <v>1.037551413314291</v>
+        <v>0.9909080061739449</v>
       </c>
       <c r="F17">
-        <v>1.047438469925759</v>
+        <v>1.025971320795646</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.05626311028437</v>
+        <v>1.040691037538228</v>
       </c>
       <c r="J17">
-        <v>1.050787689264125</v>
+        <v>1.008915084924965</v>
       </c>
       <c r="K17">
-        <v>1.05430354197888</v>
+        <v>1.02190052790992</v>
       </c>
       <c r="L17">
-        <v>1.050931577702123</v>
+        <v>1.005077351375833</v>
       </c>
       <c r="M17">
-        <v>1.06066289247087</v>
+        <v>1.039538803170873</v>
       </c>
       <c r="N17">
-        <v>1.052279928309914</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.007001394483105</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.040996203228362</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.026636632038718</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.025574908722225</v>
+        <v>0.9815011444821354</v>
       </c>
       <c r="D18">
-        <v>1.041995559668947</v>
+        <v>1.008519092540132</v>
       </c>
       <c r="E18">
-        <v>1.0386627826922</v>
+        <v>0.9915140387371785</v>
       </c>
       <c r="F18">
-        <v>1.048580395992743</v>
+        <v>1.025012329198137</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.056744065740172</v>
+        <v>1.040678355101595</v>
       </c>
       <c r="J18">
-        <v>1.051705367394436</v>
+        <v>1.009281704482408</v>
       </c>
       <c r="K18">
-        <v>1.055126737071833</v>
+        <v>1.022192377943069</v>
       </c>
       <c r="L18">
-        <v>1.051845926639708</v>
+        <v>1.005480876470753</v>
       </c>
       <c r="M18">
-        <v>1.061610137561863</v>
+        <v>1.038412846155025</v>
       </c>
       <c r="N18">
-        <v>1.053198909648428</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.007111746966576</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.039868261629683</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.026831196570118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,81 +1334,105 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.026031602566838</v>
+        <v>0.9817115844098989</v>
       </c>
       <c r="D19">
-        <v>1.042341220032689</v>
+        <v>1.008603236566014</v>
       </c>
       <c r="E19">
-        <v>1.039040260900484</v>
+        <v>0.9916606458737218</v>
       </c>
       <c r="F19">
-        <v>1.048968260224002</v>
+        <v>1.022660544002923</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.056907208168198</v>
+        <v>1.04042211645262</v>
       </c>
       <c r="J19">
-        <v>1.052016899598195</v>
+        <v>1.009344980692459</v>
       </c>
       <c r="K19">
-        <v>1.055406186715365</v>
+        <v>1.022211345342624</v>
       </c>
       <c r="L19">
-        <v>1.052156379401722</v>
+        <v>1.00555957124973</v>
       </c>
       <c r="M19">
-        <v>1.061931772815502</v>
+        <v>1.036036754513598</v>
       </c>
       <c r="N19">
-        <v>1.053510884263649</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.007117135955103</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.037663235888051</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.02685108405078</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.023981450704831</v>
+        <v>0.9802202676096702</v>
       </c>
       <c r="D20">
-        <v>1.040789907134118</v>
+        <v>1.007525128917996</v>
       </c>
       <c r="E20">
-        <v>1.037346281715932</v>
+        <v>0.9904937167238149</v>
       </c>
       <c r="F20">
-        <v>1.047227701867965</v>
+        <v>1.016553233329978</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.056174235430092</v>
+        <v>1.039485390315342</v>
       </c>
       <c r="J20">
-        <v>1.050618232727359</v>
+        <v>1.008535549210306</v>
       </c>
       <c r="K20">
-        <v>1.05415152897508</v>
+        <v>1.021436936130419</v>
       </c>
       <c r="L20">
-        <v>1.050762760178674</v>
+        <v>1.00470580796523</v>
       </c>
       <c r="M20">
-        <v>1.060488007579288</v>
+        <v>1.030311127765576</v>
       </c>
       <c r="N20">
-        <v>1.052110231125427</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.006819296396106</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.032602752385412</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.026307500947917</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.017175966852838</v>
+        <v>0.9759467734956865</v>
       </c>
       <c r="D21">
-        <v>1.035647765564569</v>
+        <v>1.00484313981108</v>
       </c>
       <c r="E21">
-        <v>1.031733510153735</v>
+        <v>0.987241995202762</v>
       </c>
       <c r="F21">
-        <v>1.041461138177564</v>
+        <v>1.012457064405541</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.053730553733937</v>
+        <v>1.038609915086318</v>
       </c>
       <c r="J21">
-        <v>1.045972715953628</v>
+        <v>1.006485747208759</v>
       </c>
       <c r="K21">
-        <v>1.049983852800738</v>
+        <v>1.019733334699772</v>
       </c>
       <c r="L21">
-        <v>1.046137629573888</v>
+        <v>1.002469171251821</v>
       </c>
       <c r="M21">
-        <v>1.055697404303943</v>
+        <v>1.027206215632128</v>
       </c>
       <c r="N21">
-        <v>1.04745811718503</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.006122170409201</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.030104208945495</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.025106227053492</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.01278333689086</v>
+        <v>0.9732137685170649</v>
       </c>
       <c r="D22">
-        <v>1.032334984975892</v>
+        <v>1.003136039456178</v>
       </c>
       <c r="E22">
-        <v>1.0281191946104</v>
+        <v>0.9851710582874138</v>
       </c>
       <c r="F22">
-        <v>1.037748232306415</v>
+        <v>1.010104963749457</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.052145399980257</v>
+        <v>1.03807400494251</v>
       </c>
       <c r="J22">
-        <v>1.042972532871278</v>
+        <v>1.005176378549438</v>
       </c>
       <c r="K22">
-        <v>1.047291988524974</v>
+        <v>1.018645625739303</v>
       </c>
       <c r="L22">
-        <v>1.043153454744738</v>
+        <v>1.001042116501247</v>
       </c>
       <c r="M22">
-        <v>1.052607231334383</v>
+        <v>1.025478862501576</v>
       </c>
       <c r="N22">
-        <v>1.044453673498577</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.005677112577973</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.028737103312242</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.02432346429867</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.015123157424384</v>
+        <v>0.9746593713426442</v>
       </c>
       <c r="D23">
-        <v>1.034098983020825</v>
+        <v>1.004032625105842</v>
       </c>
       <c r="E23">
-        <v>1.03004360364034</v>
+        <v>0.9862645440613371</v>
       </c>
       <c r="F23">
-        <v>1.039725091394071</v>
+        <v>1.011354905331585</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.052990483980883</v>
+        <v>1.038355248068522</v>
       </c>
       <c r="J23">
-        <v>1.044570779002997</v>
+        <v>1.005865148590447</v>
       </c>
       <c r="K23">
-        <v>1.048726009390887</v>
+        <v>1.019213645901365</v>
       </c>
       <c r="L23">
-        <v>1.044742902442446</v>
+        <v>1.001793854009012</v>
       </c>
       <c r="M23">
-        <v>1.054253062096953</v>
+        <v>1.026397045095591</v>
       </c>
       <c r="N23">
-        <v>1.046054189323125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.005910485895582</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.029463795009019</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.024715326231552</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.024093708048023</v>
+        <v>0.9802582731188009</v>
       </c>
       <c r="D24">
-        <v>1.040874823738978</v>
+        <v>1.007524752065344</v>
       </c>
       <c r="E24">
-        <v>1.03743899902743</v>
+        <v>0.9905182450609022</v>
       </c>
       <c r="F24">
-        <v>1.047322966662098</v>
+        <v>1.016179856892358</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.056214409843042</v>
+        <v>1.039426945313543</v>
       </c>
       <c r="J24">
-        <v>1.050694828191181</v>
+        <v>1.008538030218915</v>
       </c>
       <c r="K24">
-        <v>1.054220239979473</v>
+        <v>1.021421000786246</v>
       </c>
       <c r="L24">
-        <v>1.050839065872424</v>
+        <v>1.004713942445889</v>
       </c>
       <c r="M24">
-        <v>1.060567055487073</v>
+        <v>1.029928671485025</v>
       </c>
       <c r="N24">
-        <v>1.052186935363594</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.006817244309229</v>
+      </c>
+      <c r="O24">
+        <v>1.030000000000001</v>
+      </c>
+      <c r="P24">
+        <v>1.03225887855544</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.026268472304674</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.034047721645726</v>
+        <v>0.9865493420486315</v>
       </c>
       <c r="D25">
-        <v>1.048416499229667</v>
+        <v>1.011466849149113</v>
       </c>
       <c r="E25">
-        <v>1.045677720191123</v>
+        <v>0.9953302311860752</v>
       </c>
       <c r="F25">
-        <v>1.055788955982412</v>
+        <v>1.021586742247286</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.059757221073749</v>
+        <v>1.040582890097638</v>
       </c>
       <c r="J25">
-        <v>1.057481169462114</v>
+        <v>1.01153801116489</v>
       </c>
       <c r="K25">
-        <v>1.060306986160251</v>
+        <v>1.023889727283208</v>
       </c>
       <c r="L25">
-        <v>1.057606040284021</v>
+        <v>1.00800147443946</v>
       </c>
       <c r="M25">
-        <v>1.067578827573738</v>
+        <v>1.033858945441485</v>
       </c>
       <c r="N25">
-        <v>1.058982914017536</v>
+        <v>1.007834572441331</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.035369456088951</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.028011134126148</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_59/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9913902492697987</v>
+        <v>0.9920665680901718</v>
       </c>
       <c r="D2">
-        <v>1.014495427269725</v>
+        <v>1.014963103860125</v>
       </c>
       <c r="E2">
-        <v>0.9990544148232253</v>
+        <v>0.9996408143428729</v>
       </c>
       <c r="F2">
-        <v>1.025750961921498</v>
+        <v>1.025807506037455</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.041422684667349</v>
+        <v>1.041615069498153</v>
       </c>
       <c r="J2">
-        <v>1.013831561831777</v>
+        <v>1.014487183976419</v>
       </c>
       <c r="K2">
-        <v>1.025756444996629</v>
+        <v>1.026217841685744</v>
       </c>
       <c r="L2">
-        <v>1.010526938887195</v>
+        <v>1.011105155461031</v>
       </c>
       <c r="M2">
-        <v>1.036862833527265</v>
+        <v>1.036918638734024</v>
       </c>
       <c r="N2">
-        <v>1.008610061904705</v>
+        <v>1.011106683978388</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.0377468452021</v>
+        <v>1.037791011449801</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.029282128650617</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.029617265961875</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.019129730509106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9948351380433084</v>
+        <v>0.9953937060333333</v>
       </c>
       <c r="D3">
-        <v>1.016667139593447</v>
+        <v>1.016986646390954</v>
       </c>
       <c r="E3">
-        <v>1.001719768794528</v>
+        <v>1.00220442461889</v>
       </c>
       <c r="F3">
-        <v>1.028698357657262</v>
+        <v>1.028736888740681</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.042002292591264</v>
+        <v>1.042134396602175</v>
       </c>
       <c r="J3">
-        <v>1.015467599568607</v>
+        <v>1.016010735815445</v>
       </c>
       <c r="K3">
-        <v>1.027091111937774</v>
+        <v>1.027406697205469</v>
       </c>
       <c r="L3">
-        <v>1.012330692050179</v>
+        <v>1.012809176912432</v>
       </c>
       <c r="M3">
-        <v>1.038976747471812</v>
+        <v>1.039014819096838</v>
       </c>
       <c r="N3">
-        <v>1.009164099612207</v>
+        <v>1.011516986203463</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.039419870820618</v>
+        <v>1.039450002003806</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.030223178467329</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.030454934894852</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.019348238484141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9970277992275912</v>
+        <v>0.997512258224149</v>
       </c>
       <c r="D4">
-        <v>1.01805256801604</v>
+        <v>1.018278278188343</v>
       </c>
       <c r="E4">
-        <v>1.003422323787548</v>
+        <v>1.003842835802126</v>
       </c>
       <c r="F4">
-        <v>1.030570754784991</v>
+        <v>1.030598017386685</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.042360244619365</v>
+        <v>1.042454161547777</v>
       </c>
       <c r="J4">
-        <v>1.016507840995515</v>
+        <v>1.016979815480969</v>
       </c>
       <c r="K4">
-        <v>1.027937889451659</v>
+        <v>1.028160994295243</v>
       </c>
       <c r="L4">
-        <v>1.013479619121903</v>
+        <v>1.013895101392555</v>
       </c>
       <c r="M4">
-        <v>1.040313703857053</v>
+        <v>1.040340661042222</v>
       </c>
       <c r="N4">
-        <v>1.009516268984977</v>
+        <v>1.011777923625213</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.04047798296923</v>
+        <v>1.040499317774201</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.030822844227804</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.030989288854803</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.019484460859998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9979437804127068</v>
+        <v>0.9983974724782108</v>
       </c>
       <c r="D5">
-        <v>1.018634135303038</v>
+        <v>1.018820825556418</v>
       </c>
       <c r="E5">
-        <v>1.004135303347467</v>
+        <v>1.004529161129265</v>
       </c>
       <c r="F5">
-        <v>1.0313502781765</v>
+        <v>1.031372881846967</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.042508323604402</v>
+        <v>1.042586344100973</v>
       </c>
       <c r="J5">
-        <v>1.0169434484946</v>
+        <v>1.017385796144878</v>
       </c>
       <c r="K5">
-        <v>1.028293650981669</v>
+        <v>1.028478242992406</v>
       </c>
       <c r="L5">
-        <v>1.013960719478709</v>
+        <v>1.01434999238596</v>
       </c>
       <c r="M5">
-        <v>1.040869006945571</v>
+        <v>1.040891364153907</v>
       </c>
       <c r="N5">
-        <v>1.009663914916914</v>
+        <v>1.011887387079275</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.040917468011304</v>
+        <v>1.040935162232237</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.031081661080925</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.03122158294252</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.019541592330055</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9981003231932174</v>
+        <v>0.9985487674019052</v>
       </c>
       <c r="D6">
-        <v>1.018736103960052</v>
+        <v>1.018916184656375</v>
       </c>
       <c r="E6">
-        <v>1.00425761454291</v>
+        <v>1.004646923228199</v>
       </c>
       <c r="F6">
-        <v>1.031481272152041</v>
+        <v>1.031503086917328</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.042534946906601</v>
+        <v>1.042610269038883</v>
       </c>
       <c r="J6">
-        <v>1.017019494681058</v>
+        <v>1.017456783012868</v>
       </c>
       <c r="K6">
-        <v>1.028357694161366</v>
+        <v>1.028535760065041</v>
       </c>
       <c r="L6">
-        <v>1.014044115063452</v>
+        <v>1.014428912683221</v>
       </c>
       <c r="M6">
-        <v>1.040962397693888</v>
+        <v>1.040983975689627</v>
       </c>
       <c r="N6">
-        <v>1.009689931798322</v>
+        <v>1.011906719923732</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.04099138048037</v>
+        <v>1.041008458005401</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.031135796428494</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.031271971159338</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.019552433232442</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9970487656458018</v>
+        <v>0.9975400128889657</v>
       </c>
       <c r="D7">
-        <v>1.018072658447565</v>
+        <v>1.018302654137859</v>
       </c>
       <c r="E7">
-        <v>1.00343965920172</v>
+        <v>1.003866216505101</v>
       </c>
       <c r="F7">
-        <v>1.030582756888726</v>
+        <v>1.030610551227407</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.042367594241471</v>
+        <v>1.042463345554524</v>
       </c>
       <c r="J7">
-        <v>1.016522148312794</v>
+        <v>1.017000741587617</v>
       </c>
       <c r="K7">
-        <v>1.027954818002233</v>
+        <v>1.028182159928098</v>
       </c>
       <c r="L7">
-        <v>1.013493759508971</v>
+        <v>1.013915216730826</v>
       </c>
       <c r="M7">
-        <v>1.040322689090598</v>
+        <v>1.04035017216876</v>
       </c>
       <c r="N7">
-        <v>1.009521781693244</v>
+        <v>1.011809970017626</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.040485094179321</v>
+        <v>1.040506845193121</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.030855170322365</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.031026606846301</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.019490213100529</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9925729897936183</v>
+        <v>0.9932317557156791</v>
       </c>
       <c r="D8">
-        <v>1.015248721492772</v>
+        <v>1.015681162510269</v>
       </c>
       <c r="E8">
-        <v>0.9999695638073338</v>
+        <v>1.000541405009242</v>
       </c>
       <c r="F8">
-        <v>1.02675632403353</v>
+        <v>1.02680861257788</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.041628770283765</v>
+        <v>1.041807143415133</v>
       </c>
       <c r="J8">
-        <v>1.014398849550869</v>
+        <v>1.015038128796781</v>
       </c>
       <c r="K8">
-        <v>1.026226025992104</v>
+        <v>1.026652830691722</v>
       </c>
       <c r="L8">
-        <v>1.011149947386033</v>
+        <v>1.011714047610959</v>
       </c>
       <c r="M8">
-        <v>1.037585661895932</v>
+        <v>1.037637287556489</v>
       </c>
       <c r="N8">
-        <v>1.008803064478702</v>
+        <v>1.011334419387754</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.038318917358597</v>
+        <v>1.038359775730487</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.029637361064569</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.029950301205762</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.01921351883984</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9843817986630582</v>
+        <v>0.9853292227735725</v>
       </c>
       <c r="D9">
-        <v>1.010096439222876</v>
+        <v>1.010886563203451</v>
       </c>
       <c r="E9">
-        <v>0.9936665631773702</v>
+        <v>0.9944871598269708</v>
       </c>
       <c r="F9">
-        <v>1.019734766220443</v>
+        <v>1.019831483026029</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.040185162357424</v>
+        <v>1.040508969406629</v>
       </c>
       <c r="J9">
-        <v>1.010498392352378</v>
+        <v>1.011410897245856</v>
       </c>
       <c r="K9">
-        <v>1.023027805394345</v>
+        <v>1.023805448715906</v>
       </c>
       <c r="L9">
-        <v>1.006863238604788</v>
+        <v>1.007670316760477</v>
       </c>
       <c r="M9">
-        <v>1.032515573981437</v>
+        <v>1.032610798407422</v>
       </c>
       <c r="N9">
-        <v>1.007480923920518</v>
+        <v>1.010366305811167</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.034306259209769</v>
+        <v>1.034381623609272</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.027372739177713</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.027933475808959</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.018675365149329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9787368920311346</v>
+        <v>0.9799203028308959</v>
       </c>
       <c r="D10">
-        <v>1.006587211296489</v>
+        <v>1.007647521439414</v>
       </c>
       <c r="E10">
-        <v>0.9893621254178619</v>
+        <v>0.990386022518118</v>
       </c>
       <c r="F10">
-        <v>1.015405847276719</v>
+        <v>1.015536786793639</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.039213500326153</v>
+        <v>1.039647227113557</v>
       </c>
       <c r="J10">
-        <v>1.007820293877779</v>
+        <v>1.008953882699305</v>
       </c>
       <c r="K10">
-        <v>1.020838541500223</v>
+        <v>1.021880056838653</v>
       </c>
       <c r="L10">
-        <v>1.003926143537589</v>
+        <v>1.00493105733855</v>
       </c>
       <c r="M10">
-        <v>1.029502406166064</v>
+        <v>1.029631073839975</v>
       </c>
       <c r="N10">
-        <v>1.006575300279291</v>
+        <v>1.009822963775157</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.031973361766153</v>
+        <v>1.032075188370458</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.025841784863487</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.026590778118582</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.018305253096362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9764304214537999</v>
+        <v>0.9777501418818519</v>
       </c>
       <c r="D11">
-        <v>1.005297069462287</v>
+        <v>1.006488021221187</v>
       </c>
       <c r="E11">
-        <v>0.9876395896573886</v>
+        <v>0.9887811170039509</v>
       </c>
       <c r="F11">
-        <v>1.017746469414044</v>
+        <v>1.017890351532636</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.039385274468506</v>
+        <v>1.039870260698052</v>
       </c>
       <c r="J11">
-        <v>1.006817692114773</v>
+        <v>1.008078756633766</v>
       </c>
       <c r="K11">
-        <v>1.020119777443847</v>
+        <v>1.021288611472712</v>
       </c>
       <c r="L11">
-        <v>1.002798431368634</v>
+        <v>1.003917752338147</v>
       </c>
       <c r="M11">
-        <v>1.032341297800653</v>
+        <v>1.032482588582045</v>
       </c>
       <c r="N11">
-        <v>1.006256886910488</v>
+        <v>1.009831190434273</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.034658175413212</v>
+        <v>1.034769934757943</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.025366847881056</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.026209072569106</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018218479759693</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9755949415600711</v>
+        <v>0.9769656965681756</v>
       </c>
       <c r="D12">
-        <v>1.004846639064433</v>
+        <v>1.006085046582372</v>
       </c>
       <c r="E12">
-        <v>0.9870238729189145</v>
+        <v>0.988208947937752</v>
       </c>
       <c r="F12">
-        <v>1.019941199825222</v>
+        <v>1.020088226306976</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.039593468570543</v>
+        <v>1.040095893909931</v>
       </c>
       <c r="J12">
-        <v>1.006469324626241</v>
+        <v>1.007777945850605</v>
       </c>
       <c r="K12">
-        <v>1.019881570474497</v>
+        <v>1.021096587934338</v>
       </c>
       <c r="L12">
-        <v>1.002403970271545</v>
+        <v>1.003565586834772</v>
       </c>
       <c r="M12">
-        <v>1.034696076702028</v>
+        <v>1.034840428383281</v>
       </c>
       <c r="N12">
-        <v>1.006155825456335</v>
+        <v>1.009863971831248</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.036847822106477</v>
+        <v>1.036961963767848</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.025198423685692</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.026073305570976</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018197077250589</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9758464781459404</v>
+        <v>0.9771940914012586</v>
       </c>
       <c r="D13">
-        <v>1.005027650357657</v>
+        <v>1.006243923915952</v>
       </c>
       <c r="E13">
-        <v>0.9872258297963351</v>
+        <v>0.9883898791764144</v>
       </c>
       <c r="F13">
-        <v>1.022209598637139</v>
+        <v>1.02235171834377</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.039858109360609</v>
+        <v>1.040349631265113</v>
       </c>
       <c r="J13">
-        <v>1.006612934379769</v>
+        <v>1.007899730590019</v>
       </c>
       <c r="K13">
-        <v>1.020015445758409</v>
+        <v>1.021208834502701</v>
       </c>
       <c r="L13">
-        <v>1.002557052085315</v>
+        <v>1.003698148638138</v>
       </c>
       <c r="M13">
-        <v>1.036880670072514</v>
+        <v>1.037020227712761</v>
       </c>
       <c r="N13">
-        <v>1.006220174904583</v>
+        <v>1.009885011747775</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.03885200073812</v>
+        <v>1.038962323988059</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.025290554541561</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.026149900159598</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018228528334491</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9765135443328181</v>
+        <v>0.9778120163188641</v>
       </c>
       <c r="D14">
-        <v>1.005437018077019</v>
+        <v>1.006606961305891</v>
       </c>
       <c r="E14">
-        <v>0.987736360609633</v>
+        <v>0.9888570859640816</v>
       </c>
       <c r="F14">
-        <v>1.023773759100432</v>
+        <v>1.02390907656619</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.04005635440782</v>
+        <v>1.040527822195567</v>
       </c>
       <c r="J14">
-        <v>1.006934217277917</v>
+        <v>1.008174907031132</v>
       </c>
       <c r="K14">
-        <v>1.020273958773573</v>
+        <v>1.021422153260679</v>
       </c>
       <c r="L14">
-        <v>1.002910595199391</v>
+        <v>1.00400949512309</v>
       </c>
       <c r="M14">
-        <v>1.038277244530549</v>
+        <v>1.038410158840663</v>
       </c>
       <c r="N14">
-        <v>1.006339617107487</v>
+        <v>1.009895158027036</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.040129280176868</v>
+        <v>1.040234337625388</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.025474779731903</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.026302305388333</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018273747764324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9769184495755256</v>
+        <v>0.9781889527520639</v>
       </c>
       <c r="D15">
-        <v>1.005685816010658</v>
+        <v>1.006829020429615</v>
       </c>
       <c r="E15">
-        <v>0.9880443586143787</v>
+        <v>0.9891406544385876</v>
       </c>
       <c r="F15">
-        <v>1.024263000751008</v>
+        <v>1.024394875651168</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.040135944671309</v>
+        <v>1.040596273355808</v>
       </c>
       <c r="J15">
-        <v>1.007126885662222</v>
+        <v>1.008341340463526</v>
       </c>
       <c r="K15">
-        <v>1.020429960709956</v>
+        <v>1.021552071956676</v>
       </c>
       <c r="L15">
-        <v>1.003122114864609</v>
+        <v>1.00419722471391</v>
       </c>
       <c r="M15">
-        <v>1.038671942924913</v>
+        <v>1.038801494642984</v>
       </c>
       <c r="N15">
-        <v>1.006407371101339</v>
+        <v>1.009899903560619</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.040478774489231</v>
+        <v>1.040581171415021</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.02559103006885</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.026400681035514</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018299589690198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9792489683404519</v>
+        <v>0.9803729905026144</v>
       </c>
       <c r="D16">
-        <v>1.007130011334641</v>
+        <v>1.008128082367314</v>
       </c>
       <c r="E16">
-        <v>0.9898119834307014</v>
+        <v>0.9907813561818664</v>
       </c>
       <c r="F16">
-        <v>1.025678832401653</v>
+        <v>1.025793625701447</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.040504560406663</v>
+        <v>1.040906147621534</v>
       </c>
       <c r="J16">
-        <v>1.008231281442047</v>
+        <v>1.009308200388505</v>
       </c>
       <c r="K16">
-        <v>1.021335410503104</v>
+        <v>1.022315865102442</v>
       </c>
       <c r="L16">
-        <v>1.004330428029702</v>
+        <v>1.005281901313416</v>
       </c>
       <c r="M16">
-        <v>1.039564062467306</v>
+        <v>1.039676920834002</v>
       </c>
       <c r="N16">
-        <v>1.006778059055677</v>
+        <v>1.009950669826206</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.041145198941356</v>
+        <v>1.041234404065131</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.026234441198201</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.026944230064844</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.018444872758794</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9806942522085025</v>
+        <v>0.9817401346620024</v>
       </c>
       <c r="D17">
-        <v>1.008031876085937</v>
+        <v>1.008948527977182</v>
       </c>
       <c r="E17">
-        <v>0.9909080061739449</v>
+        <v>0.9918101076795296</v>
       </c>
       <c r="F17">
-        <v>1.025971320795646</v>
+        <v>1.026077089138715</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.040691037538228</v>
+        <v>1.041060281742008</v>
       </c>
       <c r="J17">
-        <v>1.008915084924965</v>
+        <v>1.009918559743532</v>
       </c>
       <c r="K17">
-        <v>1.02190052790992</v>
+        <v>1.022801455429085</v>
       </c>
       <c r="L17">
-        <v>1.005077351375833</v>
+        <v>1.005963275547922</v>
       </c>
       <c r="M17">
-        <v>1.039538803170873</v>
+        <v>1.039642836019159</v>
       </c>
       <c r="N17">
-        <v>1.007001394483105</v>
+        <v>1.010014818443758</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.040996203228362</v>
+        <v>1.041078440664101</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.026636632038718</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.027290435841927</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.018535012522755</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9815011444821354</v>
+        <v>0.9825109398812933</v>
       </c>
       <c r="D18">
-        <v>1.008519092540132</v>
+        <v>1.009396146166382</v>
       </c>
       <c r="E18">
-        <v>0.9915140387371785</v>
+        <v>0.9923855518866964</v>
       </c>
       <c r="F18">
-        <v>1.025012329198137</v>
+        <v>1.025114589038256</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.040678355101595</v>
+        <v>1.041032729618628</v>
       </c>
       <c r="J18">
-        <v>1.009281704482408</v>
+        <v>1.010251342892822</v>
       </c>
       <c r="K18">
-        <v>1.022192377943069</v>
+        <v>1.023054637258069</v>
       </c>
       <c r="L18">
-        <v>1.005480876470753</v>
+        <v>1.006337027933567</v>
       </c>
       <c r="M18">
-        <v>1.038412846155025</v>
+        <v>1.038513449955216</v>
       </c>
       <c r="N18">
-        <v>1.007111746966576</v>
+        <v>1.010053559362981</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.039868261629683</v>
+        <v>1.039947804943866</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.026831196570118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.027456525294085</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.018575666190661</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9817115844098989</v>
+        <v>0.982719561313106</v>
       </c>
       <c r="D19">
-        <v>1.008603236566014</v>
+        <v>1.009477910983511</v>
       </c>
       <c r="E19">
-        <v>0.9916606458737218</v>
+        <v>0.9925313369541345</v>
       </c>
       <c r="F19">
-        <v>1.022660544002923</v>
+        <v>1.022764333905146</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.04042211645262</v>
+        <v>1.04077708485005</v>
       </c>
       <c r="J19">
-        <v>1.009344980692459</v>
+        <v>1.010313132594198</v>
       </c>
       <c r="K19">
-        <v>1.022211345342624</v>
+        <v>1.023071347704565</v>
       </c>
       <c r="L19">
-        <v>1.00555957124973</v>
+        <v>1.006415003564782</v>
       </c>
       <c r="M19">
-        <v>1.036036754513598</v>
+        <v>1.036138862672546</v>
       </c>
       <c r="N19">
-        <v>1.007117135955103</v>
+        <v>1.010047287794401</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.037663235888051</v>
+        <v>1.037743995060761</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.02685108405078</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.027475438647548</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.018565929705987</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9802202676096702</v>
+        <v>0.981320167409714</v>
       </c>
       <c r="D20">
-        <v>1.007525128917996</v>
+        <v>1.008500023580922</v>
       </c>
       <c r="E20">
-        <v>0.9904937167238149</v>
+        <v>0.9914450927586583</v>
       </c>
       <c r="F20">
-        <v>1.016553233329978</v>
+        <v>1.016673201161764</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.039485390315342</v>
+        <v>1.039883935623857</v>
       </c>
       <c r="J20">
-        <v>1.008535549210306</v>
+        <v>1.009590653451325</v>
       </c>
       <c r="K20">
-        <v>1.021436936130419</v>
+        <v>1.022395039024884</v>
       </c>
       <c r="L20">
-        <v>1.00470580796523</v>
+        <v>1.005640056590814</v>
       </c>
       <c r="M20">
-        <v>1.030311127765576</v>
+        <v>1.030429074100273</v>
       </c>
       <c r="N20">
-        <v>1.006819296396106</v>
+        <v>1.009897343867245</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.032602752385412</v>
+        <v>1.032696095336317</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.026307500947917</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.027001607218547</v>
+      </c>
+      <c r="S20">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T20">
+        <v>1.018407045776217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9759467734956865</v>
+        <v>0.9773321690917752</v>
       </c>
       <c r="D21">
-        <v>1.00484313981108</v>
+        <v>1.006097376581508</v>
       </c>
       <c r="E21">
-        <v>0.987241995202762</v>
+        <v>0.9884422884708138</v>
       </c>
       <c r="F21">
-        <v>1.012457064405541</v>
+        <v>1.012613860495969</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.038609915086318</v>
+        <v>1.039124285592885</v>
       </c>
       <c r="J21">
-        <v>1.006485747208759</v>
+        <v>1.007809175628309</v>
       </c>
       <c r="K21">
-        <v>1.019733334699772</v>
+        <v>1.020964145796007</v>
       </c>
       <c r="L21">
-        <v>1.002469171251821</v>
+        <v>1.003645984187399</v>
       </c>
       <c r="M21">
-        <v>1.027206215632128</v>
+        <v>1.027360136192074</v>
       </c>
       <c r="N21">
-        <v>1.006122170409201</v>
+        <v>1.00983337608698</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.030104208945495</v>
+        <v>1.030226028528721</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.025106227053492</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.025993483124757</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018129095112172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9732137685170649</v>
+        <v>0.974780436550008</v>
       </c>
       <c r="D22">
-        <v>1.003136039456178</v>
+        <v>1.004567943903492</v>
       </c>
       <c r="E22">
-        <v>0.9851710582874138</v>
+        <v>0.9865292984591553</v>
       </c>
       <c r="F22">
-        <v>1.010104963749457</v>
+        <v>1.010285451056655</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.03807400494251</v>
+        <v>1.038662100412292</v>
       </c>
       <c r="J22">
-        <v>1.005176378549438</v>
+        <v>1.006668883918673</v>
       </c>
       <c r="K22">
-        <v>1.018645625739303</v>
+        <v>1.02004944883841</v>
       </c>
       <c r="L22">
-        <v>1.001042116501247</v>
+        <v>1.002372420643528</v>
       </c>
       <c r="M22">
-        <v>1.025478862501576</v>
+        <v>1.025655868228937</v>
       </c>
       <c r="N22">
-        <v>1.005677112577973</v>
+        <v>1.009783209456083</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.028737103312242</v>
+        <v>1.028877193799456</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.02432346429867</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.025331755559818</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.017949466906875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9746593713426442</v>
+        <v>0.9761178555867164</v>
       </c>
       <c r="D23">
-        <v>1.004032625105842</v>
+        <v>1.005361865441243</v>
       </c>
       <c r="E23">
-        <v>0.9862645440613371</v>
+        <v>0.9875282505514199</v>
       </c>
       <c r="F23">
-        <v>1.011354905331585</v>
+        <v>1.011521674061496</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.038355248068522</v>
+        <v>1.038900609299095</v>
       </c>
       <c r="J23">
-        <v>1.005865148590447</v>
+        <v>1.007256619026331</v>
       </c>
       <c r="K23">
-        <v>1.019213645901365</v>
+        <v>1.020517478024948</v>
       </c>
       <c r="L23">
-        <v>1.001793854009012</v>
+        <v>1.003032244785295</v>
       </c>
       <c r="M23">
-        <v>1.026397045095591</v>
+        <v>1.026560681320938</v>
       </c>
       <c r="N23">
-        <v>1.005910485895582</v>
+        <v>1.009765165271998</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.029463795009019</v>
+        <v>1.029593304121289</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.024715326231552</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.025651976697553</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018039632365538</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9802582731188009</v>
+        <v>0.9813575322052708</v>
       </c>
       <c r="D24">
-        <v>1.007524752065344</v>
+        <v>1.008499135562547</v>
       </c>
       <c r="E24">
-        <v>0.9905182450609022</v>
+        <v>0.9914691614557525</v>
       </c>
       <c r="F24">
-        <v>1.016179856892358</v>
+        <v>1.016300089628793</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.039426945313543</v>
+        <v>1.039825544694504</v>
       </c>
       <c r="J24">
-        <v>1.008538030218915</v>
+        <v>1.009592587935609</v>
       </c>
       <c r="K24">
-        <v>1.021421000786246</v>
+        <v>1.022378622882093</v>
       </c>
       <c r="L24">
-        <v>1.004713942445889</v>
+        <v>1.005647762930022</v>
       </c>
       <c r="M24">
-        <v>1.029928671485025</v>
+        <v>1.030046878942923</v>
       </c>
       <c r="N24">
-        <v>1.006817244309229</v>
+        <v>1.009891753677682</v>
       </c>
       <c r="O24">
-        <v>1.030000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.03225887855544</v>
+        <v>1.03235243291244</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.026268472304674</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.026959572052579</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.018399494015211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9865493420486315</v>
+        <v>0.9874102497964261</v>
       </c>
       <c r="D25">
-        <v>1.011466849149113</v>
+        <v>1.012155724560426</v>
       </c>
       <c r="E25">
-        <v>0.9953302311860752</v>
+        <v>0.9960761348433839</v>
       </c>
       <c r="F25">
-        <v>1.021586742247286</v>
+        <v>1.021670691174285</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.040582890097638</v>
+        <v>1.040865366341721</v>
       </c>
       <c r="J25">
-        <v>1.01153801116489</v>
+        <v>1.012368866748833</v>
       </c>
       <c r="K25">
-        <v>1.023889727283208</v>
+        <v>1.024568224367672</v>
       </c>
       <c r="L25">
-        <v>1.00800147443946</v>
+        <v>1.008735670700047</v>
       </c>
       <c r="M25">
-        <v>1.033858945441485</v>
+        <v>1.033941660305711</v>
       </c>
       <c r="N25">
-        <v>1.007834572441331</v>
+        <v>1.010592509793158</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.035369456088951</v>
+        <v>1.035434919825439</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.028011134126148</v>
+        <v>1.028504563811843</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.018823116721386</v>
       </c>
     </row>
   </sheetData>
